--- a/results/case1_apos/data_uniquie_case1_apos_recipe.xlsx
+++ b/results/case1_apos/data_uniquie_case1_apos_recipe.xlsx
@@ -507,1302 +507,1302 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.0007188410702652894</v>
+        <v>0.0007188410688181114</v>
       </c>
       <c r="B2">
-        <v>0.247667922373819</v>
+        <v>0.2476679222535662</v>
       </c>
       <c r="C2">
-        <v>0.007819008486787805</v>
+        <v>0.007819008443233445</v>
       </c>
       <c r="D2">
-        <v>0.01032083080909734</v>
+        <v>0.01032083075189385</v>
       </c>
       <c r="E2">
-        <v>0.6751939159143687</v>
+        <v>0.6751939126713836</v>
       </c>
       <c r="F2">
-        <v>0.149759798736719</v>
+        <v>0.1497597987121301</v>
       </c>
       <c r="G2">
-        <v>5.5416036394987E-05</v>
+        <v>5.541603628602147E-05</v>
       </c>
       <c r="H2">
-        <v>7.917951242037932E-06</v>
+        <v>7.917951220843568E-06</v>
       </c>
       <c r="I2">
-        <v>0.009957978274459192</v>
+        <v>0.009957978216722818</v>
       </c>
       <c r="J2">
-        <v>0.1553442024775278</v>
+        <v>0.1553442016476101</v>
       </c>
       <c r="K2">
-        <v>0.0110966518461686</v>
+        <v>0.01109665182775785</v>
       </c>
       <c r="L2">
-        <v>0.004202587243443334</v>
+        <v>0.004202585638243206</v>
       </c>
       <c r="M2">
-        <v>0.002064264940773534</v>
+        <v>0.002064264928475684</v>
       </c>
       <c r="N2">
-        <v>4.733841624227815E-08</v>
+        <v>4.733841623983167E-08</v>
       </c>
       <c r="O2">
-        <v>0.0003099037464634079</v>
+        <v>0.0003099037460717971</v>
       </c>
       <c r="P2">
-        <v>0.000581879901719408</v>
+        <v>0.0005818799014602584</v>
       </c>
       <c r="Q2">
-        <v>0.0006164943885660565</v>
+        <v>0.0006164943883204066</v>
       </c>
       <c r="R2">
-        <v>0.001999873819232332</v>
+        <v>0.001999873817636385</v>
       </c>
       <c r="S2">
-        <v>1.014262305360281E-09</v>
+        <v>1.014262290290017E-09</v>
       </c>
       <c r="T2">
-        <v>4.981149017788575E-07</v>
+        <v>4.981149010363303E-07</v>
       </c>
       <c r="U2">
-        <v>0.05704845730755774</v>
+        <v>0.05704845730150517</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>0.002056820056781551</v>
+        <v>0.002056820246415286</v>
       </c>
       <c r="B3">
-        <v>0.7087358449906817</v>
+        <v>0.708735877779695</v>
       </c>
       <c r="C3">
-        <v>0.0223690071787641</v>
+        <v>0.02236901630473332</v>
       </c>
       <c r="D3">
-        <v>0.02952714187841635</v>
+        <v>0.02952715371769564</v>
       </c>
       <c r="E3">
-        <v>1.930445118864402</v>
+        <v>1.930445825678544</v>
       </c>
       <c r="F3">
-        <v>0.4284511286148056</v>
+        <v>0.4284511363619727</v>
       </c>
       <c r="G3">
-        <v>0.0001588899675459949</v>
+        <v>0.0001588899875303657</v>
       </c>
       <c r="H3">
-        <v>2.293561007040121E-05</v>
+        <v>2.293561188337563E-05</v>
       </c>
       <c r="I3">
-        <v>0.02851044916683673</v>
+        <v>0.02851046434974896</v>
       </c>
       <c r="J3">
-        <v>0.4448101288231193</v>
+        <v>0.4448102659529137</v>
       </c>
       <c r="K3">
-        <v>0.03191441340711096</v>
+        <v>0.03191441613022367</v>
       </c>
       <c r="L3">
-        <v>0.01225290548179579</v>
+        <v>0.01225291908811051</v>
       </c>
       <c r="M3">
-        <v>0.005902614736846073</v>
+        <v>0.005902617311554139</v>
       </c>
       <c r="N3">
-        <v>1.35790566699193E-07</v>
+        <v>1.357905787739765E-07</v>
       </c>
       <c r="O3">
-        <v>0.0008865846139095841</v>
+        <v>0.0008865846998670577</v>
       </c>
       <c r="P3">
-        <v>0.001665484900767878</v>
+        <v>0.001665485038799347</v>
       </c>
       <c r="Q3">
-        <v>0.001764859957036998</v>
+        <v>0.001764860100161653</v>
       </c>
       <c r="R3">
-        <v>0.005755802054775333</v>
+        <v>0.005755802310238077</v>
       </c>
       <c r="S3">
-        <v>2.904679505923198E-09</v>
+        <v>2.90467980620386E-09</v>
       </c>
       <c r="T3">
-        <v>1.425453088754695E-06</v>
+        <v>1.425453255595169E-06</v>
       </c>
       <c r="U3">
-        <v>0.1631995339913356</v>
+        <v>0.1631995366567615</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>7.659785550323257E-05</v>
+        <v>0.0005662344372311302</v>
       </c>
       <c r="B4">
-        <v>0.02276016493320684</v>
+        <v>0.1315540978836215</v>
       </c>
       <c r="C4">
-        <v>0.001909640038340915</v>
+        <v>0.006450304166968747</v>
       </c>
       <c r="D4">
-        <v>0.002490734839824337</v>
+        <v>0.008476544288695192</v>
       </c>
       <c r="E4">
-        <v>0.1130597924267489</v>
+        <v>0.2358170355968278</v>
       </c>
       <c r="F4">
-        <v>0.006825276449926278</v>
+        <v>0.02980682454029658</v>
       </c>
       <c r="G4">
-        <v>1.372829768896067E-05</v>
+        <v>4.773918685736534E-05</v>
       </c>
       <c r="H4">
-        <v>2.898688453713508E-06</v>
+        <v>5.645374439666783E-06</v>
       </c>
       <c r="I4">
-        <v>0.001778496644536361</v>
+        <v>0.02352566090728283</v>
       </c>
       <c r="J4">
-        <v>0.03749089545453201</v>
+        <v>0.134033070292281</v>
       </c>
       <c r="K4">
-        <v>0.006917810429479554</v>
+        <v>0.008631318388153893</v>
       </c>
       <c r="L4">
-        <v>0.001248097152479562</v>
+        <v>0.002500412963400862</v>
       </c>
       <c r="M4">
-        <v>0.0002834215281388546</v>
+        <v>0.00198275794356299</v>
       </c>
       <c r="N4">
-        <v>1.055853065385351E-08</v>
+        <v>3.309745584084949E-08</v>
       </c>
       <c r="O4">
-        <v>3.113029066242475E-05</v>
+        <v>0.0002471262926336372</v>
       </c>
       <c r="P4">
-        <v>4.555731193148531E-05</v>
+        <v>0.000331375603226376</v>
       </c>
       <c r="Q4">
-        <v>4.83344812700389E-05</v>
+        <v>0.0003385902811505313</v>
       </c>
       <c r="R4">
-        <v>0.0007223659287392633</v>
+        <v>0.001359127826133977</v>
       </c>
       <c r="S4">
-        <v>1.0936049829858E-10</v>
+        <v>5.943899713978106E-10</v>
       </c>
       <c r="T4">
-        <v>5.684096701098281E-08</v>
+        <v>3.894019620439676E-07</v>
       </c>
       <c r="U4">
-        <v>0.001966191618494249</v>
+        <v>0.006498822394409311</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>4.494774182417246E-05</v>
+        <v>0.0003375193116747448</v>
       </c>
       <c r="B5">
-        <v>0.01333332806392779</v>
+        <v>0.07834074977410017</v>
       </c>
       <c r="C5">
-        <v>0.001131189681364371</v>
+        <v>0.003844363663734047</v>
       </c>
       <c r="D5">
-        <v>0.001475447262154579</v>
+        <v>0.005052136045631236</v>
       </c>
       <c r="E5">
-        <v>0.06671063768733911</v>
+        <v>0.1400615285849755</v>
       </c>
       <c r="F5">
-        <v>0.003950659389154725</v>
+        <v>0.01768277797316052</v>
       </c>
       <c r="G5">
-        <v>8.12388444644984E-06</v>
+        <v>2.844634319946657E-05</v>
       </c>
       <c r="H5">
-        <v>1.71884198926554E-06</v>
+        <v>3.360063786841998E-06</v>
       </c>
       <c r="I5">
-        <v>0.001050012423949706</v>
+        <v>0.01404455210112787</v>
       </c>
       <c r="J5">
-        <v>0.02215486871952187</v>
+        <v>0.07984152189365282</v>
       </c>
       <c r="K5">
-        <v>0.004116895795791277</v>
+        <v>0.005140764788151633</v>
       </c>
       <c r="L5">
-        <v>0.0007419796289825838</v>
+        <v>0.001490272391741565</v>
       </c>
       <c r="M5">
-        <v>0.0001631808238200909</v>
+        <v>0.001178581921807905</v>
       </c>
       <c r="N5">
-        <v>6.232933471637202E-09</v>
+        <v>1.970057247375477E-08</v>
       </c>
       <c r="O5">
-        <v>1.820546228795025E-05</v>
+        <v>0.0001472691224094413</v>
       </c>
       <c r="P5">
-        <v>2.662834089195087E-05</v>
+        <v>0.0001974127742468106</v>
       </c>
       <c r="Q5">
-        <v>2.824083842380303E-05</v>
+        <v>0.0002016768074404066</v>
       </c>
       <c r="R5">
-        <v>0.0004267269047058335</v>
+        <v>0.000807209970878467</v>
       </c>
       <c r="S5">
-        <v>6.423814749339381E-11</v>
+        <v>3.540568319936464E-10</v>
       </c>
       <c r="T5">
-        <v>3.335804229933043E-08</v>
+        <v>2.320725501981917E-07</v>
       </c>
       <c r="U5">
-        <v>0.001129587452996571</v>
+        <v>0.003837961279216322</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.009244926263099581</v>
+        <v>0.009244926009621887</v>
       </c>
       <c r="B6">
-        <v>2.671091293692368</v>
+        <v>2.671091277372696</v>
       </c>
       <c r="C6">
-        <v>0.5528632969851491</v>
+        <v>0.5528632807117868</v>
       </c>
       <c r="D6">
-        <v>0.6978898817544744</v>
+        <v>0.6978898606958379</v>
       </c>
       <c r="E6">
-        <v>28.38506525225175</v>
+        <v>28.38506398706884</v>
       </c>
       <c r="F6">
-        <v>0.6839581814393145</v>
+        <v>0.6839581783732882</v>
       </c>
       <c r="G6">
-        <v>0.002701484623569376</v>
+        <v>0.002701484597395535</v>
       </c>
       <c r="H6">
-        <v>0.001849573446497378</v>
+        <v>0.001849573442843842</v>
       </c>
       <c r="I6">
-        <v>0.2576172007929647</v>
+        <v>0.2576171932155026</v>
       </c>
       <c r="J6">
-        <v>8.056914578570153</v>
+        <v>8.056914319575567</v>
       </c>
       <c r="K6">
-        <v>0.7222524773349769</v>
+        <v>0.7222524739958364</v>
       </c>
       <c r="L6">
-        <v>0.5164371779596627</v>
+        <v>0.5164372410978649</v>
       </c>
       <c r="M6">
-        <v>0.04237845281034348</v>
+        <v>0.04237845053284757</v>
       </c>
       <c r="N6">
-        <v>3.232912219650247E-06</v>
+        <v>3.232912208087276E-06</v>
       </c>
       <c r="O6">
-        <v>0.003220263908889711</v>
+        <v>0.00322026383684673</v>
       </c>
       <c r="P6">
-        <v>0.005711522324168898</v>
+        <v>0.005711522309615105</v>
       </c>
       <c r="Q6">
-        <v>0.005856924818883487</v>
+        <v>0.005856924803621222</v>
       </c>
       <c r="R6">
-        <v>0.04998574655643549</v>
+        <v>0.049985746235892</v>
       </c>
       <c r="S6">
-        <v>1.7367992962042E-08</v>
+        <v>1.736799337566692E-08</v>
       </c>
       <c r="T6">
-        <v>7.318253195329215E-06</v>
+        <v>7.318253049963492E-06</v>
       </c>
       <c r="U6">
-        <v>0.1417827389864007</v>
+        <v>0.1417827378254704</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.02902244545525487</v>
+        <v>0.02902244541532001</v>
       </c>
       <c r="B7">
-        <v>6.22814169950468</v>
+        <v>6.228141694375229</v>
       </c>
       <c r="C7">
-        <v>0.6640835461084961</v>
+        <v>0.6640835473617424</v>
       </c>
       <c r="D7">
-        <v>0.8329495182461975</v>
+        <v>0.8329495197502665</v>
       </c>
       <c r="E7">
-        <v>12.80552582614972</v>
+        <v>12.80552592903006</v>
       </c>
       <c r="F7">
-        <v>1.348170306550374</v>
+        <v>1.348170306087478</v>
       </c>
       <c r="G7">
-        <v>0.00204092052477439</v>
+        <v>0.002040920523587257</v>
       </c>
       <c r="H7">
-        <v>0.0001908085493842781</v>
+        <v>0.0001908085481710489</v>
       </c>
       <c r="I7">
-        <v>1.273275919503812</v>
+        <v>1.273275913386787</v>
       </c>
       <c r="J7">
-        <v>7.119922540744012</v>
+        <v>7.119922546909668</v>
       </c>
       <c r="K7">
-        <v>0.1261886641781477</v>
+        <v>0.1261886644690972</v>
       </c>
       <c r="L7">
-        <v>0.1229539605567746</v>
+        <v>0.1229539595374769</v>
       </c>
       <c r="M7">
-        <v>0.1164501335281707</v>
+        <v>0.1164501325702554</v>
       </c>
       <c r="N7">
-        <v>1.446783624932637E-06</v>
+        <v>1.446783626101809E-06</v>
       </c>
       <c r="O7">
-        <v>0.01272392792374885</v>
+        <v>0.01272392791921053</v>
       </c>
       <c r="P7">
-        <v>0.01684244704188233</v>
+        <v>0.01684244705332465</v>
       </c>
       <c r="Q7">
-        <v>0.01720047764951616</v>
+        <v>0.01720047766222816</v>
       </c>
       <c r="R7">
-        <v>0.04159120139977382</v>
+        <v>0.04159120134728763</v>
       </c>
       <c r="S7">
-        <v>2.8966701030388E-08</v>
+        <v>2.896670100155324E-08</v>
       </c>
       <c r="T7">
-        <v>1.973293167491283E-05</v>
+        <v>1.973293164829094E-05</v>
       </c>
       <c r="U7">
-        <v>0.2827709750593719</v>
+        <v>0.2827709749895398</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.0005067527226845958</v>
+        <v>0.0005067527176985609</v>
       </c>
       <c r="B8">
-        <v>0.2090725108065855</v>
+        <v>0.2090725115758673</v>
       </c>
       <c r="C8">
-        <v>0.01296367069371386</v>
+        <v>0.01296366985750785</v>
       </c>
       <c r="D8">
-        <v>0.01690435184918324</v>
+        <v>0.01690435080076138</v>
       </c>
       <c r="E8">
-        <v>0.5827244499718395</v>
+        <v>0.5827243824888295</v>
       </c>
       <c r="F8">
-        <v>0.05504801685130608</v>
+        <v>0.05504801692790403</v>
       </c>
       <c r="G8">
-        <v>0.0001737504518154814</v>
+        <v>0.0001737504510888624</v>
       </c>
       <c r="H8">
-        <v>1.504736295006086E-05</v>
+        <v>1.504736291283238E-05</v>
       </c>
       <c r="I8">
-        <v>0.01732092500729803</v>
+        <v>0.01732092560914586</v>
       </c>
       <c r="J8">
-        <v>0.3091297281612396</v>
+        <v>0.309129717024079</v>
       </c>
       <c r="K8">
-        <v>0.06332675969964348</v>
+        <v>0.06332675959254629</v>
       </c>
       <c r="L8">
-        <v>0.04609385741909779</v>
+        <v>0.04609385930889889</v>
       </c>
       <c r="M8">
-        <v>0.001418518047848853</v>
+        <v>0.001418518136169515</v>
       </c>
       <c r="N8">
-        <v>2.385586328686004E-07</v>
+        <v>2.385586323112936E-07</v>
       </c>
       <c r="O8">
-        <v>0.000172465068315093</v>
+        <v>0.0001724650673120828</v>
       </c>
       <c r="P8">
-        <v>0.0004212607815108385</v>
+        <v>0.0004212607830807439</v>
       </c>
       <c r="Q8">
-        <v>0.0004307690162622407</v>
+        <v>0.0004307690180929723</v>
       </c>
       <c r="R8">
-        <v>0.003780097118234392</v>
+        <v>0.003780097125934899</v>
       </c>
       <c r="S8">
-        <v>1.291043681187329E-09</v>
+        <v>1.291043697351583E-09</v>
       </c>
       <c r="T8">
-        <v>4.398194399076817E-07</v>
+        <v>4.398194394688895E-07</v>
       </c>
       <c r="U8">
-        <v>0.01027810286591141</v>
+        <v>0.01027810286867833</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.006306594986637206</v>
+        <v>0.006306594972814803</v>
       </c>
       <c r="B9">
-        <v>2.38015711239681</v>
+        <v>2.380157110881844</v>
       </c>
       <c r="C9">
-        <v>0.05477911047092374</v>
+        <v>0.05477910999585692</v>
       </c>
       <c r="D9">
-        <v>0.07305764605121379</v>
+        <v>0.07305764543035871</v>
       </c>
       <c r="E9">
-        <v>5.040002564816032</v>
+        <v>5.04000252576428</v>
       </c>
       <c r="F9">
-        <v>1.712789172856402</v>
+        <v>1.712789172562715</v>
       </c>
       <c r="G9">
-        <v>0.0003918421300722536</v>
+        <v>0.0003918421289917295</v>
       </c>
       <c r="H9">
-        <v>3.966915208032768E-05</v>
+        <v>3.966915190580232E-05</v>
       </c>
       <c r="I9">
-        <v>0.08680592915100788</v>
+        <v>0.08680592856962094</v>
       </c>
       <c r="J9">
-        <v>1.158757402016726</v>
+        <v>1.158757393602279</v>
       </c>
       <c r="K9">
-        <v>0.04720858465884614</v>
+        <v>0.04720858450824566</v>
       </c>
       <c r="L9">
-        <v>0.01860280874759962</v>
+        <v>0.01860277932275449</v>
       </c>
       <c r="M9">
-        <v>0.01829508830213246</v>
+        <v>0.01829508819205269</v>
       </c>
       <c r="N9">
-        <v>2.736037833527119E-07</v>
+        <v>2.736037831113597E-07</v>
       </c>
       <c r="O9">
-        <v>0.002394198268747138</v>
+        <v>0.002394198264205291</v>
       </c>
       <c r="P9">
-        <v>0.004936109073421921</v>
+        <v>0.004936109069098658</v>
       </c>
       <c r="Q9">
-        <v>0.005285702035111176</v>
+        <v>0.005285702030885995</v>
       </c>
       <c r="R9">
-        <v>0.0175024834179508</v>
+        <v>0.01750248340413676</v>
       </c>
       <c r="S9">
-        <v>9.216778235430936E-09</v>
+        <v>9.216777964954086E-09</v>
       </c>
       <c r="T9">
-        <v>4.309032814472082E-06</v>
+        <v>4.309032806327224E-06</v>
       </c>
       <c r="U9">
-        <v>0.6779803074640435</v>
+        <v>0.6779803073870259</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>0.01200668536625029</v>
+        <v>0.01200668550470083</v>
       </c>
       <c r="B10">
-        <v>3.587523050315253</v>
+        <v>3.587523064945641</v>
       </c>
       <c r="C10">
-        <v>0.7517799220982869</v>
+        <v>0.7517799173379576</v>
       </c>
       <c r="D10">
-        <v>0.9481718665068565</v>
+        <v>0.9481718606387881</v>
       </c>
       <c r="E10">
-        <v>38.26011998880278</v>
+        <v>38.26011966849623</v>
       </c>
       <c r="F10">
-        <v>0.9240501205731796</v>
+        <v>0.9240501213016415</v>
       </c>
       <c r="G10">
-        <v>0.00342106531025626</v>
+        <v>0.00342106530747394</v>
       </c>
       <c r="H10">
-        <v>0.001526492567443111</v>
+        <v>0.001526492568699814</v>
       </c>
       <c r="I10">
-        <v>0.3391496303581945</v>
+        <v>0.3391496317978354</v>
       </c>
       <c r="J10">
-        <v>10.44930768466162</v>
+        <v>10.44930765982221</v>
       </c>
       <c r="K10">
-        <v>0.9969392048189218</v>
+        <v>0.9969392014697847</v>
       </c>
       <c r="L10">
-        <v>0.7087069784859672</v>
+        <v>0.7087071235300108</v>
       </c>
       <c r="M10">
-        <v>0.0461245449247551</v>
+        <v>0.04612454562290797</v>
       </c>
       <c r="N10">
-        <v>4.13302148877267E-06</v>
+        <v>4.133021491025083E-06</v>
       </c>
       <c r="O10">
-        <v>0.004170293548085602</v>
+        <v>0.004170293577009299</v>
       </c>
       <c r="P10">
-        <v>0.007611852855610501</v>
+        <v>0.007611852940575151</v>
       </c>
       <c r="Q10">
-        <v>0.007803646675623443</v>
+        <v>0.007803646751476366</v>
       </c>
       <c r="R10">
-        <v>0.06400324186549868</v>
+        <v>0.06400324189566764</v>
       </c>
       <c r="S10">
-        <v>2.323403894810964E-08</v>
+        <v>2.323404030630559E-08</v>
       </c>
       <c r="T10">
-        <v>9.617356781594275E-06</v>
+        <v>9.617356812588197E-06</v>
       </c>
       <c r="U10">
-        <v>0.1875386037958535</v>
+        <v>0.1875386035154271</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.0001096662511699748</v>
+        <v>0.0001096662879822454</v>
       </c>
       <c r="B11">
-        <v>0.03209301115911793</v>
+        <v>0.03209301797611312</v>
       </c>
       <c r="C11">
-        <v>0.001207940425122026</v>
+        <v>0.00120794200893077</v>
       </c>
       <c r="D11">
-        <v>0.001609856869170487</v>
+        <v>0.001609858931282674</v>
       </c>
       <c r="E11">
-        <v>0.1450458102199237</v>
+        <v>0.1450459523512534</v>
       </c>
       <c r="F11">
-        <v>0.009274709086957822</v>
+        <v>0.009274710956205322</v>
       </c>
       <c r="G11">
-        <v>8.345256541575864E-06</v>
+        <v>8.345259737738896E-06</v>
       </c>
       <c r="H11">
-        <v>9.295380197528751E-07</v>
+        <v>9.295385165964689E-07</v>
       </c>
       <c r="I11">
-        <v>0.00131913913611985</v>
+        <v>0.001319141372456874</v>
       </c>
       <c r="J11">
-        <v>0.03585378127252752</v>
+        <v>0.03585380716495409</v>
       </c>
       <c r="K11">
-        <v>0.002159293057558163</v>
+        <v>0.002159293235239561</v>
       </c>
       <c r="L11">
-        <v>0.02217131344598108</v>
+        <v>0.02217131452086362</v>
       </c>
       <c r="M11">
-        <v>0.0001706929511810258</v>
+        <v>0.0001706931972966579</v>
       </c>
       <c r="N11">
-        <v>3.055951295309402E-08</v>
+        <v>3.055951298963994E-08</v>
       </c>
       <c r="O11">
-        <v>4.754999187964739E-05</v>
+        <v>4.755000369495574E-05</v>
       </c>
       <c r="P11">
-        <v>0.0001204879588517646</v>
+        <v>0.00012048796473331</v>
       </c>
       <c r="Q11">
-        <v>0.0001248143922132404</v>
+        <v>0.0001248144007228</v>
       </c>
       <c r="R11">
-        <v>0.0001862645550263244</v>
+        <v>0.0001862645751459542</v>
       </c>
       <c r="S11">
-        <v>3.34076973989355E-10</v>
+        <v>3.340770165984623E-10</v>
       </c>
       <c r="T11">
-        <v>7.277984748471305E-08</v>
+        <v>7.277987461292724E-08</v>
       </c>
       <c r="U11">
-        <v>0.002909588032531282</v>
+        <v>0.002909588696240292</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.001225404858660206</v>
+        <v>0.001225404857362813</v>
       </c>
       <c r="B12">
-        <v>0.3596575809732344</v>
+        <v>0.3596575800381319</v>
       </c>
       <c r="C12">
-        <v>0.05932092971929017</v>
+        <v>0.05932092985180337</v>
       </c>
       <c r="D12">
-        <v>0.07687203045911177</v>
+        <v>0.07687203061898892</v>
       </c>
       <c r="E12">
-        <v>2.64001334027947</v>
+        <v>2.640013351493983</v>
       </c>
       <c r="F12">
-        <v>0.0987572289653329</v>
+        <v>0.09875722881237362</v>
       </c>
       <c r="G12">
-        <v>0.000967351809970295</v>
+        <v>0.0009673518097026102</v>
       </c>
       <c r="H12">
-        <v>8.656564887183221E-05</v>
+        <v>8.656564885373215E-05</v>
       </c>
       <c r="I12">
-        <v>0.07228523044211968</v>
+        <v>0.07228522936129762</v>
       </c>
       <c r="J12">
-        <v>1.092900189345585</v>
+        <v>1.092900191252121</v>
       </c>
       <c r="K12">
-        <v>0.1123189111341974</v>
+        <v>0.1123189110150814</v>
       </c>
       <c r="L12">
-        <v>0.0270235483641989</v>
+        <v>0.0270235463284491</v>
       </c>
       <c r="M12">
-        <v>0.01416299811854428</v>
+        <v>0.01416299806597731</v>
       </c>
       <c r="N12">
-        <v>2.224221774937241E-07</v>
+        <v>2.224221777972448E-07</v>
       </c>
       <c r="O12">
-        <v>0.0005965242304222534</v>
+        <v>0.0005965242284794236</v>
       </c>
       <c r="P12">
-        <v>0.0007182496947494149</v>
+        <v>0.0007182496925193517</v>
       </c>
       <c r="Q12">
-        <v>0.0007490651315458754</v>
+        <v>0.0007490651293868345</v>
       </c>
       <c r="R12">
-        <v>0.004636492216301772</v>
+        <v>0.004636492207499946</v>
       </c>
       <c r="S12">
-        <v>2.331503440293802E-09</v>
+        <v>2.331503419108061E-09</v>
       </c>
       <c r="T12">
-        <v>1.209861960963116E-06</v>
+        <v>1.20986195569707E-06</v>
       </c>
       <c r="U12">
-        <v>0.02856603594106475</v>
+        <v>0.02856603592606512</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.001869213834522643</v>
+        <v>0.001869213838775074</v>
       </c>
       <c r="B13">
-        <v>0.6965425985544885</v>
+        <v>0.6965425982880363</v>
       </c>
       <c r="C13">
-        <v>0.1716688029809308</v>
+        <v>0.1716688034326676</v>
       </c>
       <c r="D13">
-        <v>0.223293519471181</v>
+        <v>0.2232935200445303</v>
       </c>
       <c r="E13">
-        <v>3.135536774312063</v>
+        <v>3.135536819319552</v>
       </c>
       <c r="F13">
-        <v>0.1795537257917346</v>
+        <v>0.1795537256436437</v>
       </c>
       <c r="G13">
-        <v>0.000390001954240131</v>
+        <v>0.0003900019547386716</v>
       </c>
       <c r="H13">
-        <v>0.000170579472933589</v>
+        <v>0.0001705794729911895</v>
       </c>
       <c r="I13">
-        <v>0.07681691275272368</v>
+        <v>0.07681691157487636</v>
       </c>
       <c r="J13">
-        <v>3.217340517885148</v>
+        <v>3.217340525385727</v>
       </c>
       <c r="K13">
-        <v>0.2073903114320157</v>
+        <v>0.2073903114566624</v>
       </c>
       <c r="L13">
-        <v>0.02327111275848594</v>
+        <v>0.02327110850990248</v>
       </c>
       <c r="M13">
-        <v>0.01145433288906104</v>
+        <v>0.01145433289738068</v>
       </c>
       <c r="N13">
-        <v>3.532376652522539E-07</v>
+        <v>3.532376661266119E-07</v>
       </c>
       <c r="O13">
-        <v>0.0007945734413406723</v>
+        <v>0.0007945734420292664</v>
       </c>
       <c r="P13">
-        <v>0.001220736641164315</v>
+        <v>0.001220736638972229</v>
       </c>
       <c r="Q13">
-        <v>0.00128035882245453</v>
+        <v>0.001280358819700123</v>
       </c>
       <c r="R13">
-        <v>0.006508606841317146</v>
+        <v>0.006508606838509973</v>
       </c>
       <c r="S13">
-        <v>3.158134573428266E-09</v>
+        <v>3.158134536734475E-09</v>
       </c>
       <c r="T13">
-        <v>2.152021531272691E-06</v>
+        <v>2.152021529248564E-06</v>
       </c>
       <c r="U13">
-        <v>0.05041359473599652</v>
+        <v>0.05041359467556211</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.00147294189807181</v>
+        <v>0.001472941906095809</v>
       </c>
       <c r="B14">
-        <v>0.4466068063428399</v>
+        <v>0.4466068087435549</v>
       </c>
       <c r="C14">
-        <v>0.06155749428565324</v>
+        <v>0.06155749460566039</v>
       </c>
       <c r="D14">
-        <v>0.08070113126300506</v>
+        <v>0.08070113167723783</v>
       </c>
       <c r="E14">
-        <v>4.132010317957384</v>
+        <v>4.132010352306919</v>
       </c>
       <c r="F14">
-        <v>0.1258350356557165</v>
+        <v>0.1258350361740646</v>
       </c>
       <c r="G14">
-        <v>0.0009776636127698532</v>
+        <v>0.0009776636132083406</v>
       </c>
       <c r="H14">
-        <v>8.922302589972731E-05</v>
+        <v>8.922302595724042E-05</v>
       </c>
       <c r="I14">
-        <v>0.07847873347650684</v>
+        <v>0.0784787335706123</v>
       </c>
       <c r="J14">
-        <v>1.160180125425597</v>
+        <v>1.16018013056762</v>
       </c>
       <c r="K14">
-        <v>0.1157339477456081</v>
+        <v>0.1157339477090277</v>
       </c>
       <c r="L14">
-        <v>0.03126211851484977</v>
+        <v>0.03126211903590206</v>
       </c>
       <c r="M14">
-        <v>0.01528680287070055</v>
+        <v>0.01528680292747587</v>
       </c>
       <c r="N14">
-        <v>2.443636068084985E-07</v>
+        <v>2.443636076886799E-07</v>
       </c>
       <c r="O14">
-        <v>0.0007059248027374721</v>
+        <v>0.0007059248068630926</v>
       </c>
       <c r="P14">
-        <v>0.001177074656259157</v>
+        <v>0.001177074663879396</v>
       </c>
       <c r="Q14">
-        <v>0.001227075509183028</v>
+        <v>0.001227075517434827</v>
       </c>
       <c r="R14">
-        <v>0.004837597880280282</v>
+        <v>0.004837597884449766</v>
       </c>
       <c r="S14">
-        <v>2.752645520773568E-09</v>
+        <v>2.752645535837996E-09</v>
       </c>
       <c r="T14">
-        <v>1.39613806111739E-06</v>
+        <v>1.396138067438857E-06</v>
       </c>
       <c r="U14">
-        <v>0.03991210031047379</v>
+        <v>0.03991210051993891</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>-0.00649074865779057</v>
+        <v>-0.00649074866143967</v>
       </c>
       <c r="B15">
-        <v>-0.5144198927376311</v>
+        <v>-0.5144198940112453</v>
       </c>
       <c r="C15">
-        <v>-0.5126269711307359</v>
+        <v>-0.5126269713118093</v>
       </c>
       <c r="D15">
-        <v>-0.6554899398878297</v>
+        <v>-0.6554899401146334</v>
       </c>
       <c r="E15">
-        <v>-44.95788829667786</v>
+        <v>-44.9578883148497</v>
       </c>
       <c r="F15">
-        <v>-0.1431501698507925</v>
+        <v>-0.1431501703079882</v>
       </c>
       <c r="G15">
-        <v>-0.0007222434625496883</v>
+        <v>-0.0007222434628029746</v>
       </c>
       <c r="H15">
-        <v>-2.227253947725568E-05</v>
+        <v>-2.227253948978364E-05</v>
       </c>
       <c r="I15">
-        <v>-0.07328943143050801</v>
+        <v>-0.07328943097796974</v>
       </c>
       <c r="J15">
-        <v>-7.49209189811323</v>
+        <v>-7.492091900660042</v>
       </c>
       <c r="K15">
-        <v>-0.05105694581306389</v>
+        <v>-0.05105694586002996</v>
       </c>
       <c r="L15">
-        <v>-0.03497458519678949</v>
+        <v>-0.03497458709541598</v>
       </c>
       <c r="M15">
-        <v>-0.02634864218873325</v>
+        <v>-0.02634864216178695</v>
       </c>
       <c r="N15">
-        <v>-2.485598672993032E-07</v>
+        <v>-2.485598678245925E-07</v>
       </c>
       <c r="O15">
-        <v>-0.00225676292797217</v>
+        <v>-0.002256762929976308</v>
       </c>
       <c r="P15">
-        <v>-0.001651215662990735</v>
+        <v>-0.001651215667293442</v>
       </c>
       <c r="Q15">
-        <v>-0.001720588479489097</v>
+        <v>-0.001720588484531068</v>
       </c>
       <c r="R15">
-        <v>-0.004639160356071589</v>
+        <v>-0.004639160356581482</v>
       </c>
       <c r="S15">
-        <v>-4.769793984311576E-09</v>
+        <v>-4.769794006681663E-09</v>
       </c>
       <c r="T15">
-        <v>-3.858391520955202E-06</v>
+        <v>-3.858391522480322E-06</v>
       </c>
       <c r="U15">
-        <v>-0.04691174406834112</v>
+        <v>-0.04691174425317467</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>-0.01477945737483096</v>
+        <v>-0.01477945733674968</v>
       </c>
       <c r="B16">
-        <v>-4.899457811496877</v>
+        <v>-4.899457802727003</v>
       </c>
       <c r="C16">
-        <v>-0.1584830886335537</v>
+        <v>-0.1584830879239958</v>
       </c>
       <c r="D16">
-        <v>-0.2086313412810821</v>
+        <v>-0.2086313403176616</v>
       </c>
       <c r="E16">
-        <v>-11.62089068529231</v>
+        <v>-11.62089064141924</v>
       </c>
       <c r="F16">
-        <v>-1.332573647226714</v>
+        <v>-1.332573645323749</v>
       </c>
       <c r="G16">
-        <v>-0.001880765832033861</v>
+        <v>-0.00188076582812616</v>
       </c>
       <c r="H16">
-        <v>-0.0006523007277250895</v>
+        <v>-0.0006523007271023787</v>
       </c>
       <c r="I16">
-        <v>-0.2268308858169016</v>
+        <v>-0.2268308804953399</v>
       </c>
       <c r="J16">
-        <v>-5.272234527738359</v>
+        <v>-5.272234515521822</v>
       </c>
       <c r="K16">
-        <v>-0.3160806240329819</v>
+        <v>-0.3160806234777306</v>
       </c>
       <c r="L16">
-        <v>-1.228870037577046</v>
+        <v>-1.228870019586123</v>
       </c>
       <c r="M16">
-        <v>-0.1589581654432085</v>
+        <v>-0.1589581646366544</v>
       </c>
       <c r="N16">
-        <v>-2.482102611437164E-06</v>
+        <v>-2.482102610450142E-06</v>
       </c>
       <c r="O16">
-        <v>-0.008112575553630996</v>
+        <v>-0.008112575537276219</v>
       </c>
       <c r="P16">
-        <v>-0.0110269854428055</v>
+        <v>-0.01102698542091862</v>
       </c>
       <c r="Q16">
-        <v>-0.01143249772639864</v>
+        <v>-0.01143249770362361</v>
       </c>
       <c r="R16">
-        <v>-0.05176817047935793</v>
+        <v>-0.05176817040681326</v>
       </c>
       <c r="S16">
-        <v>-3.075355016325887E-08</v>
+        <v>-3.075354996427606E-08</v>
       </c>
       <c r="T16">
-        <v>-1.172974962603067E-05</v>
+        <v>-1.172974958697322E-05</v>
       </c>
       <c r="U16">
-        <v>-0.3912979450010488</v>
+        <v>-0.3912979444293165</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>-0.0002716546419893319</v>
+        <v>-0.0002716546425852424</v>
       </c>
       <c r="B17">
-        <v>-2.372984746263621</v>
+        <v>-2.37298474627025</v>
       </c>
       <c r="C17">
-        <v>-0.1201199389094082</v>
+        <v>-0.1201199389477323</v>
       </c>
       <c r="D17">
-        <v>-0.1599610760594772</v>
+        <v>-0.1599610761084842</v>
       </c>
       <c r="E17">
-        <v>-1.265781190632968</v>
+        <v>-1.265781193329061</v>
       </c>
       <c r="F17">
-        <v>-0.00790346449178907</v>
+        <v>-0.00790346448288038</v>
       </c>
       <c r="G17">
-        <v>-5.236324551259911E-06</v>
+        <v>-5.236324573757964E-06</v>
       </c>
       <c r="H17">
-        <v>-2.145683915285555E-05</v>
+        <v>-2.145683915596469E-05</v>
       </c>
       <c r="I17">
-        <v>-0.02399119030078739</v>
+        <v>-0.02399119026760103</v>
       </c>
       <c r="J17">
-        <v>-2.349946984123985</v>
+        <v>-2.34994698470158</v>
       </c>
       <c r="K17">
-        <v>-0.001044696345890269</v>
+        <v>-0.001044696339055782</v>
       </c>
       <c r="L17">
-        <v>-0.0005566574588216275</v>
+        <v>-0.0005566584369066808</v>
       </c>
       <c r="M17">
-        <v>-0.001265723195852779</v>
+        <v>-0.001265723195818493</v>
       </c>
       <c r="N17">
-        <v>-1.017244141819374E-06</v>
+        <v>-1.01724414183662E-06</v>
       </c>
       <c r="O17">
-        <v>-9.178312977706743E-05</v>
+        <v>-9.178312988392925E-05</v>
       </c>
       <c r="P17">
-        <v>-0.000602711975793123</v>
+        <v>-0.000602711975809151</v>
       </c>
       <c r="Q17">
-        <v>-0.0006068256958547078</v>
+        <v>-0.0006068256958359865</v>
       </c>
       <c r="R17">
-        <v>-0.003723410346812716</v>
+        <v>-0.003723410346660742</v>
       </c>
       <c r="S17">
-        <v>-6.903281044447504E-09</v>
+        <v>-6.903281053349681E-09</v>
       </c>
       <c r="T17">
-        <v>-2.88495638757538E-06</v>
+        <v>-2.884956387669762E-06</v>
       </c>
       <c r="U17">
-        <v>-0.002983724677594332</v>
+        <v>-0.00298372467339641</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>-0.0001933860013899225</v>
+        <v>-0.000193386001472579</v>
       </c>
       <c r="B18">
-        <v>-3.020426940240809</v>
+        <v>-3.02042694025943</v>
       </c>
       <c r="C18">
-        <v>-0.1585863090764416</v>
+        <v>-0.1585863090817574</v>
       </c>
       <c r="D18">
-        <v>-0.2296331743876543</v>
+        <v>-0.2296331743942411</v>
       </c>
       <c r="E18">
-        <v>-8.833295455406681</v>
+        <v>-8.833295455541094</v>
       </c>
       <c r="F18">
-        <v>-0.005003262144704338</v>
+        <v>-0.005003262146999435</v>
       </c>
       <c r="G18">
-        <v>-2.655623046479146E-06</v>
+        <v>-2.655623052247751E-06</v>
       </c>
       <c r="H18">
-        <v>-4.732000231781817E-06</v>
+        <v>-4.73200023275603E-06</v>
       </c>
       <c r="I18">
-        <v>-0.009831377204850977</v>
+        <v>-0.009831377178758247</v>
       </c>
       <c r="J18">
-        <v>-1.917643191047012</v>
+        <v>-1.917643191127929</v>
       </c>
       <c r="K18">
-        <v>-0.0004283465276711557</v>
+        <v>-0.0004283465293205613</v>
       </c>
       <c r="L18">
-        <v>-0.0003125672916751712</v>
+        <v>-0.0003125670624852081</v>
       </c>
       <c r="M18">
-        <v>-0.0006251338114321465</v>
+        <v>-0.0006251338095324346</v>
       </c>
       <c r="N18">
-        <v>-2.204923862603592E-07</v>
+        <v>-2.204923862688835E-07</v>
       </c>
       <c r="O18">
-        <v>-6.373949609938178E-05</v>
+        <v>-6.373949611222355E-05</v>
       </c>
       <c r="P18">
-        <v>-0.0004646641419594134</v>
+        <v>-0.0004646641419886641</v>
       </c>
       <c r="Q18">
-        <v>-0.0004671485314254795</v>
+        <v>-0.0004671485314504116</v>
       </c>
       <c r="R18">
-        <v>-0.00152760090072256</v>
+        <v>-0.001527600900598688</v>
       </c>
       <c r="S18">
-        <v>-8.798283386358718E-09</v>
+        <v>-8.798283384406926E-09</v>
       </c>
       <c r="T18">
-        <v>-3.317026254611205E-06</v>
+        <v>-3.317026254568142E-06</v>
       </c>
       <c r="U18">
-        <v>-0.00183659398481217</v>
+        <v>-0.00183659398485209</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>-0.0001646121332497429</v>
+        <v>-0.0001646121336709881</v>
       </c>
       <c r="B19">
-        <v>-2.551055179390857</v>
+        <v>-2.551055179489615</v>
       </c>
       <c r="C19">
-        <v>-0.1339373210451603</v>
+        <v>-0.1339373210701486</v>
       </c>
       <c r="D19">
-        <v>-0.1939394978514523</v>
+        <v>-0.1939394978832586</v>
       </c>
       <c r="E19">
-        <v>-7.460966732782711</v>
+        <v>-7.460966734526934</v>
       </c>
       <c r="F19">
-        <v>-0.004357871320122282</v>
+        <v>-0.004357871348959656</v>
       </c>
       <c r="G19">
-        <v>-2.414200861832819E-06</v>
+        <v>-2.414200901613054E-06</v>
       </c>
       <c r="H19">
-        <v>-4.015526136217845E-06</v>
+        <v>-4.015526139260103E-06</v>
       </c>
       <c r="I19">
-        <v>-0.008600984290298517</v>
+        <v>-0.008600984290267767</v>
       </c>
       <c r="J19">
-        <v>-1.619602095118539</v>
+        <v>-1.619602095453831</v>
       </c>
       <c r="K19">
-        <v>-0.0003773715135177746</v>
+        <v>-0.0003773715181216493</v>
       </c>
       <c r="L19">
-        <v>-0.0002772527242663134</v>
+        <v>-0.0002772543490248927</v>
       </c>
       <c r="M19">
-        <v>-0.0005834807727662344</v>
+        <v>-0.0005834807739726791</v>
       </c>
       <c r="N19">
-        <v>-1.862772741829126E-07</v>
+        <v>-1.862772742019743E-07</v>
       </c>
       <c r="O19">
-        <v>-5.554319236948371E-05</v>
+        <v>-5.554319254917374E-05</v>
       </c>
       <c r="P19">
-        <v>-0.0003938720994614068</v>
+        <v>-0.0003938720997319522</v>
       </c>
       <c r="Q19">
-        <v>-0.0003961234665591266</v>
+        <v>-0.0003961234668686076</v>
       </c>
       <c r="R19">
-        <v>-0.001449330889933806</v>
+        <v>-0.001449330890247568</v>
       </c>
       <c r="S19">
-        <v>-7.431743763013776E-09</v>
+        <v>-7.431743777909255E-09</v>
       </c>
       <c r="T19">
-        <v>-2.803970325416097E-06</v>
+        <v>-2.803970325697976E-06</v>
       </c>
       <c r="U19">
-        <v>-0.001600391991036589</v>
+        <v>-0.001600392001454094</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20">
-        <v>-0.001398397578669631</v>
+        <v>-0.001398397580323501</v>
       </c>
       <c r="B20">
-        <v>-0.7567638647252366</v>
+        <v>-0.7567638649589038</v>
       </c>
       <c r="C20">
-        <v>-0.01833915528877259</v>
+        <v>-0.01833915538423217</v>
       </c>
       <c r="D20">
-        <v>-0.02434508692979676</v>
+        <v>-0.02434508705156621</v>
       </c>
       <c r="E20">
-        <v>-0.1475127895405423</v>
+        <v>-0.1475127976251882</v>
       </c>
       <c r="F20">
-        <v>-0.02691727957926885</v>
+        <v>-0.0269172796306468</v>
       </c>
       <c r="G20">
-        <v>-9.761806786663452E-06</v>
+        <v>-9.76180692259046E-06</v>
       </c>
       <c r="H20">
-        <v>-0.0002333030147581472</v>
+        <v>-0.0002333030147669224</v>
       </c>
       <c r="I20">
-        <v>-0.006488520616780465</v>
+        <v>-0.006488520561903736</v>
       </c>
       <c r="J20">
-        <v>-0.4347469512774518</v>
+        <v>-0.4347469526426163</v>
       </c>
       <c r="K20">
-        <v>-0.001827152492403534</v>
+        <v>-0.001827152512334962</v>
       </c>
       <c r="L20">
-        <v>-0.0007984192090999061</v>
+        <v>-0.0007984192730159006</v>
       </c>
       <c r="M20">
-        <v>-0.00209815645860112</v>
+        <v>-0.002098156461794743</v>
       </c>
       <c r="N20">
-        <v>-1.167375885956806E-05</v>
+        <v>-1.167375885966656E-05</v>
       </c>
       <c r="O20">
-        <v>-0.0004388303999166483</v>
+        <v>-0.0004388304006354559</v>
       </c>
       <c r="P20">
-        <v>-0.003158334709651818</v>
+        <v>-0.003158334710619672</v>
       </c>
       <c r="Q20">
-        <v>-0.00316901231274738</v>
+        <v>-0.00316901231372349</v>
       </c>
       <c r="R20">
-        <v>-0.002121980058820605</v>
+        <v>-0.002121980059431058</v>
       </c>
       <c r="S20">
-        <v>-2.854796010598465E-09</v>
+        <v>-2.854796012558846E-09</v>
       </c>
       <c r="T20">
-        <v>-1.113230964378514E-06</v>
+        <v>-1.113230965178566E-06</v>
       </c>
       <c r="U20">
-        <v>-0.009696643863760972</v>
+        <v>-0.009696643879731275</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
-        <v>0.0001261905832902587</v>
+        <v>0.0001261905833000716</v>
       </c>
       <c r="B21">
-        <v>0.02879883961612777</v>
+        <v>0.02879883963567704</v>
       </c>
       <c r="C21">
-        <v>0.001112296767643082</v>
+        <v>0.001112296767996457</v>
       </c>
       <c r="D21">
-        <v>0.001234720911258017</v>
+        <v>0.001234720911514134</v>
       </c>
       <c r="E21">
-        <v>0.0696760945512564</v>
+        <v>0.06967609457228906</v>
       </c>
       <c r="F21">
-        <v>0.01615642984511982</v>
+        <v>0.01615642985007198</v>
       </c>
       <c r="G21">
-        <v>1.054829811123456E-05</v>
+        <v>1.054829811047178E-05</v>
       </c>
       <c r="H21">
-        <v>4.407674555049166E-05</v>
+        <v>4.407674555006979E-05</v>
       </c>
       <c r="I21">
-        <v>0.001160680091883637</v>
+        <v>0.001160680084656151</v>
       </c>
       <c r="J21">
-        <v>0.02244031919934285</v>
+        <v>0.02244031919179636</v>
       </c>
       <c r="K21">
-        <v>0.001612776862709809</v>
+        <v>0.001612776862380963</v>
       </c>
       <c r="L21">
-        <v>0.006488737466411556</v>
+        <v>0.00648873742239016</v>
       </c>
       <c r="M21">
-        <v>0.0001793382156141309</v>
+        <v>0.000179338215133674</v>
       </c>
       <c r="N21">
-        <v>5.482244097883116E-08</v>
+        <v>5.482244099388259E-08</v>
       </c>
       <c r="O21">
-        <v>3.862852102494761E-05</v>
+        <v>3.862852106419503E-05</v>
       </c>
       <c r="P21">
-        <v>0.0005472006679630721</v>
+        <v>0.000547200668078621</v>
       </c>
       <c r="Q21">
-        <v>0.0008460368456357974</v>
+        <v>0.0008460368457599219</v>
       </c>
       <c r="R21">
-        <v>0.004795436072083539</v>
+        <v>0.004795436072070286</v>
       </c>
       <c r="S21">
-        <v>2.829306155139395E-10</v>
+        <v>2.829306151960231E-10</v>
       </c>
       <c r="T21">
-        <v>7.115852824495504E-08</v>
+        <v>7.115852826213993E-08</v>
       </c>
       <c r="U21">
-        <v>0.006193426804717912</v>
+        <v>0.006193426807046861</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_apos/data_uniquie_case1_apos_recipe.xlsx
+++ b/results/case1_apos/data_uniquie_case1_apos_recipe.xlsx
@@ -507,1302 +507,1302 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.0007188410688181114</v>
+        <v>0.0007188410684669359</v>
       </c>
       <c r="B2">
-        <v>0.2476679222535662</v>
+        <v>0.2476679220817101</v>
       </c>
       <c r="C2">
-        <v>0.007819008443233445</v>
+        <v>0.007819008420326993</v>
       </c>
       <c r="D2">
-        <v>0.01032083075189385</v>
+        <v>0.01032083072170793</v>
       </c>
       <c r="E2">
-        <v>0.6751939126713836</v>
+        <v>0.6751939095156287</v>
       </c>
       <c r="F2">
-        <v>0.1497597987121301</v>
+        <v>0.1497597986749921</v>
       </c>
       <c r="G2">
-        <v>5.541603628602147E-05</v>
+        <v>5.541603623090033E-05</v>
       </c>
       <c r="H2">
-        <v>7.917951220843568E-06</v>
+        <v>7.917951223635653E-06</v>
       </c>
       <c r="I2">
-        <v>0.009957978216722818</v>
+        <v>0.009957978218235153</v>
       </c>
       <c r="J2">
-        <v>0.1553442016476101</v>
+        <v>0.1553442012202316</v>
       </c>
       <c r="K2">
-        <v>0.01109665182775785</v>
+        <v>0.01109665181970701</v>
       </c>
       <c r="L2">
-        <v>0.004202585638243206</v>
+        <v>0.004202585224711323</v>
       </c>
       <c r="M2">
-        <v>0.002064264928475684</v>
+        <v>0.002064264930722576</v>
       </c>
       <c r="N2">
-        <v>4.733841623983167E-08</v>
+        <v>4.733841617004039E-08</v>
       </c>
       <c r="O2">
-        <v>0.0003099037460717971</v>
+        <v>0.0003099037457471415</v>
       </c>
       <c r="P2">
-        <v>0.0005818799014602584</v>
+        <v>0.0005818799008687123</v>
       </c>
       <c r="Q2">
-        <v>0.0006164943883204066</v>
+        <v>0.0006164943877003351</v>
       </c>
       <c r="R2">
-        <v>0.001999873817636385</v>
+        <v>0.001999873817407977</v>
       </c>
       <c r="S2">
-        <v>1.014262290290017E-09</v>
+        <v>1.014262285891513E-09</v>
       </c>
       <c r="T2">
-        <v>4.981149010363303E-07</v>
+        <v>4.98114900579222E-07</v>
       </c>
       <c r="U2">
-        <v>0.05704845730150517</v>
+        <v>0.05704845729009904</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>0.002056820246415286</v>
+        <v>0.002056820148630195</v>
       </c>
       <c r="B3">
-        <v>0.708735877779695</v>
+        <v>0.7087358545188976</v>
       </c>
       <c r="C3">
-        <v>0.02236901630473332</v>
+        <v>0.02236901460884153</v>
       </c>
       <c r="D3">
-        <v>0.02952715371769564</v>
+        <v>0.02952715142374949</v>
       </c>
       <c r="E3">
-        <v>1.930445825678544</v>
+        <v>1.930445713791319</v>
       </c>
       <c r="F3">
-        <v>0.4284511363619727</v>
+        <v>0.4284511315917903</v>
       </c>
       <c r="G3">
-        <v>0.0001588899875303657</v>
+        <v>0.0001588899813206231</v>
       </c>
       <c r="H3">
-        <v>2.293561188337563E-05</v>
+        <v>2.293561039610919E-05</v>
       </c>
       <c r="I3">
-        <v>0.02851046434974896</v>
+        <v>0.02851045320299205</v>
       </c>
       <c r="J3">
-        <v>0.4448102659529137</v>
+        <v>0.4448102338338779</v>
       </c>
       <c r="K3">
-        <v>0.03191441613022367</v>
+        <v>0.03191441610177578</v>
       </c>
       <c r="L3">
-        <v>0.01225291908811051</v>
+        <v>0.01225291854347221</v>
       </c>
       <c r="M3">
-        <v>0.005902617311554139</v>
+        <v>0.00590261480038326</v>
       </c>
       <c r="N3">
-        <v>1.357905787739765E-07</v>
+        <v>1.357905755382743E-07</v>
       </c>
       <c r="O3">
-        <v>0.0008865846998670577</v>
+        <v>0.0008865846647012072</v>
       </c>
       <c r="P3">
-        <v>0.001665485038799347</v>
+        <v>0.001665485007118165</v>
       </c>
       <c r="Q3">
-        <v>0.001764860100161653</v>
+        <v>0.001764860065669635</v>
       </c>
       <c r="R3">
-        <v>0.005755802310238077</v>
+        <v>0.005755802165086748</v>
       </c>
       <c r="S3">
-        <v>2.90467980620386E-09</v>
+        <v>2.904679704194998E-09</v>
       </c>
       <c r="T3">
-        <v>1.425453255595169E-06</v>
+        <v>1.425453167222215E-06</v>
       </c>
       <c r="U3">
-        <v>0.1631995366567615</v>
+        <v>0.16319953493617</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>0.0005662344372311302</v>
+        <v>0.0005662344370910012</v>
       </c>
       <c r="B4">
-        <v>0.1315540978836215</v>
+        <v>0.1315540978692973</v>
       </c>
       <c r="C4">
-        <v>0.006450304166968747</v>
+        <v>0.006450304088869</v>
       </c>
       <c r="D4">
-        <v>0.008476544288695192</v>
+        <v>0.008476544190125404</v>
       </c>
       <c r="E4">
-        <v>0.2358170355968278</v>
+        <v>0.2358170274997637</v>
       </c>
       <c r="F4">
-        <v>0.02980682454029658</v>
+        <v>0.02980682452678323</v>
       </c>
       <c r="G4">
-        <v>4.773918685736534E-05</v>
+        <v>4.77391868302904E-05</v>
       </c>
       <c r="H4">
-        <v>5.645374439666783E-06</v>
+        <v>5.645374461798076E-06</v>
       </c>
       <c r="I4">
-        <v>0.02352566090728283</v>
+        <v>0.02352566104608692</v>
       </c>
       <c r="J4">
-        <v>0.134033070292281</v>
+        <v>0.1340330692758133</v>
       </c>
       <c r="K4">
-        <v>0.008631318388153893</v>
+        <v>0.008631318383394494</v>
       </c>
       <c r="L4">
-        <v>0.002500412963400862</v>
+        <v>0.00250041400370423</v>
       </c>
       <c r="M4">
-        <v>0.00198275794356299</v>
+        <v>0.001982757961639609</v>
       </c>
       <c r="N4">
-        <v>3.309745584084949E-08</v>
+        <v>3.30974558027566E-08</v>
       </c>
       <c r="O4">
-        <v>0.0002471262926336372</v>
+        <v>0.0002471262923733465</v>
       </c>
       <c r="P4">
-        <v>0.000331375603226376</v>
+        <v>0.0003313756026217556</v>
       </c>
       <c r="Q4">
-        <v>0.0003385902811505313</v>
+        <v>0.0003385902804963232</v>
       </c>
       <c r="R4">
-        <v>0.001359127826133977</v>
+        <v>0.001359127827080146</v>
       </c>
       <c r="S4">
-        <v>5.943899713978106E-10</v>
+        <v>5.943899803031924E-10</v>
       </c>
       <c r="T4">
-        <v>3.894019620439676E-07</v>
+        <v>3.894019620977916E-07</v>
       </c>
       <c r="U4">
-        <v>0.006498822394409311</v>
+        <v>0.006498822384203171</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>0.0003375193116747448</v>
+        <v>0.0003375193113414828</v>
       </c>
       <c r="B5">
-        <v>0.07834074977410017</v>
+        <v>0.07834074972223885</v>
       </c>
       <c r="C5">
-        <v>0.003844363663734047</v>
+        <v>0.003844363603123032</v>
       </c>
       <c r="D5">
-        <v>0.005052136045631236</v>
+        <v>0.005052135969256101</v>
       </c>
       <c r="E5">
-        <v>0.1400615285849755</v>
+        <v>0.1400615227754251</v>
       </c>
       <c r="F5">
-        <v>0.01768277797316052</v>
+        <v>0.01768277795133429</v>
       </c>
       <c r="G5">
-        <v>2.844634319946657E-05</v>
+        <v>2.844634316315735E-05</v>
       </c>
       <c r="H5">
-        <v>3.360063786841998E-06</v>
+        <v>3.36006379813254E-06</v>
       </c>
       <c r="I5">
-        <v>0.01404455210112787</v>
+        <v>0.01404455217334484</v>
       </c>
       <c r="J5">
-        <v>0.07984152189365282</v>
+        <v>0.07984152110500621</v>
       </c>
       <c r="K5">
-        <v>0.005140764788151633</v>
+        <v>0.005140764783287154</v>
       </c>
       <c r="L5">
-        <v>0.001490272391741565</v>
+        <v>0.001490274089137119</v>
       </c>
       <c r="M5">
-        <v>0.001178581921807905</v>
+        <v>0.001178581930708326</v>
       </c>
       <c r="N5">
-        <v>1.970057247375477E-08</v>
+        <v>1.970057243337958E-08</v>
       </c>
       <c r="O5">
-        <v>0.0001472691224094413</v>
+        <v>0.0001472691221860516</v>
       </c>
       <c r="P5">
-        <v>0.0001974127742468106</v>
+        <v>0.000197412773757239</v>
       </c>
       <c r="Q5">
-        <v>0.0002016768074404066</v>
+        <v>0.000201676806900386</v>
       </c>
       <c r="R5">
-        <v>0.000807209970878467</v>
+        <v>0.0008072099712024455</v>
       </c>
       <c r="S5">
-        <v>3.540568319936464E-10</v>
+        <v>3.540568466348266E-10</v>
       </c>
       <c r="T5">
-        <v>2.320725501981917E-07</v>
+        <v>2.320725500699558E-07</v>
       </c>
       <c r="U5">
-        <v>0.003837961279216322</v>
+        <v>0.003837961267805111</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.009244926009621887</v>
+        <v>0.00924492640427396</v>
       </c>
       <c r="B6">
-        <v>2.671091277372696</v>
+        <v>2.671091311737981</v>
       </c>
       <c r="C6">
-        <v>0.5528632807117868</v>
+        <v>0.55286330653953</v>
       </c>
       <c r="D6">
-        <v>0.6978898606958379</v>
+        <v>0.6978898940021314</v>
       </c>
       <c r="E6">
-        <v>28.38506398706884</v>
+        <v>28.38506607311929</v>
       </c>
       <c r="F6">
-        <v>0.6839581783732882</v>
+        <v>0.6839581855251136</v>
       </c>
       <c r="G6">
-        <v>0.002701484597395535</v>
+        <v>0.00270148464180165</v>
       </c>
       <c r="H6">
-        <v>0.001849573442843842</v>
+        <v>0.001849573446613156</v>
       </c>
       <c r="I6">
-        <v>0.2576171932155026</v>
+        <v>0.2576172152183735</v>
       </c>
       <c r="J6">
-        <v>8.056914319575567</v>
+        <v>8.05691470932603</v>
       </c>
       <c r="K6">
-        <v>0.7222524739958364</v>
+        <v>0.7222524791401981</v>
       </c>
       <c r="L6">
-        <v>0.5164372410978649</v>
+        <v>0.5164372883707581</v>
       </c>
       <c r="M6">
-        <v>0.04237845053284757</v>
+        <v>0.0423784541995537</v>
       </c>
       <c r="N6">
-        <v>3.232912208087276E-06</v>
+        <v>3.232912223793147E-06</v>
       </c>
       <c r="O6">
-        <v>0.00322026383684673</v>
+        <v>0.003220263974632607</v>
       </c>
       <c r="P6">
-        <v>0.005711522309615105</v>
+        <v>0.005711522370614103</v>
       </c>
       <c r="Q6">
-        <v>0.005856924803621222</v>
+        <v>0.005856924863975395</v>
       </c>
       <c r="R6">
-        <v>0.049985746235892</v>
+        <v>0.04998574673988878</v>
       </c>
       <c r="S6">
-        <v>1.736799337566692E-08</v>
+        <v>1.736799405789916E-08</v>
       </c>
       <c r="T6">
-        <v>7.318253049963492E-06</v>
+        <v>7.318253331538318E-06</v>
       </c>
       <c r="U6">
-        <v>0.1417827378254704</v>
+        <v>0.1417827398071989</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.02902244541532001</v>
+        <v>0.02902244537245927</v>
       </c>
       <c r="B7">
-        <v>6.228141694375229</v>
+        <v>6.228141690053278</v>
       </c>
       <c r="C7">
-        <v>0.6640835473617424</v>
+        <v>0.6640835415773827</v>
       </c>
       <c r="D7">
-        <v>0.8329495197502665</v>
+        <v>0.8329495123590279</v>
       </c>
       <c r="E7">
-        <v>12.80552592903006</v>
+        <v>12.80552541064933</v>
       </c>
       <c r="F7">
-        <v>1.348170306087478</v>
+        <v>1.348170304922726</v>
       </c>
       <c r="G7">
-        <v>0.002040920523587257</v>
+        <v>0.002040920517965922</v>
       </c>
       <c r="H7">
-        <v>0.0001908085481710489</v>
+        <v>0.0001908085488961863</v>
       </c>
       <c r="I7">
-        <v>1.273275913386787</v>
+        <v>1.273275914377628</v>
       </c>
       <c r="J7">
-        <v>7.119922546909668</v>
+        <v>7.119922468892383</v>
       </c>
       <c r="K7">
-        <v>0.1261886644690972</v>
+        <v>0.126188663990565</v>
       </c>
       <c r="L7">
-        <v>0.1229539595374769</v>
+        <v>0.1229539695145957</v>
       </c>
       <c r="M7">
-        <v>0.1164501325702554</v>
+        <v>0.1164501324495914</v>
       </c>
       <c r="N7">
-        <v>1.446783626101809E-06</v>
+        <v>1.446783623133225E-06</v>
       </c>
       <c r="O7">
-        <v>0.01272392791921053</v>
+        <v>0.01272392789369645</v>
       </c>
       <c r="P7">
-        <v>0.01684244705332465</v>
+        <v>0.01684244701384223</v>
       </c>
       <c r="Q7">
-        <v>0.01720047766222816</v>
+        <v>0.01720047762141012</v>
       </c>
       <c r="R7">
-        <v>0.04159120134728763</v>
+        <v>0.0415912013199099</v>
       </c>
       <c r="S7">
-        <v>2.896670100155324E-08</v>
+        <v>2.896670104920175E-08</v>
       </c>
       <c r="T7">
-        <v>1.973293164829094E-05</v>
+        <v>1.973293161365402E-05</v>
       </c>
       <c r="U7">
-        <v>0.2827709749895398</v>
+        <v>0.2827709744270761</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.0005067527176985609</v>
+        <v>0.000506752700960917</v>
       </c>
       <c r="B8">
-        <v>0.2090725115758673</v>
+        <v>0.2090725073413573</v>
       </c>
       <c r="C8">
-        <v>0.01296366985750785</v>
+        <v>0.01296366953888443</v>
       </c>
       <c r="D8">
-        <v>0.01690435080076138</v>
+        <v>0.01690435036636048</v>
       </c>
       <c r="E8">
-        <v>0.5827243824888295</v>
+        <v>0.5827243446171322</v>
       </c>
       <c r="F8">
-        <v>0.05504801692790403</v>
+        <v>0.05504801599084599</v>
       </c>
       <c r="G8">
-        <v>0.0001737504510888624</v>
+        <v>0.0001737504497515173</v>
       </c>
       <c r="H8">
-        <v>1.504736291283238E-05</v>
+        <v>1.504736274412935E-05</v>
       </c>
       <c r="I8">
-        <v>0.01732092560914586</v>
+        <v>0.01732092374272522</v>
       </c>
       <c r="J8">
-        <v>0.309129717024079</v>
+        <v>0.309129711050614</v>
       </c>
       <c r="K8">
-        <v>0.06332675959254629</v>
+        <v>0.06332675941432402</v>
       </c>
       <c r="L8">
-        <v>0.04609385930889889</v>
+        <v>0.04609385774652319</v>
       </c>
       <c r="M8">
-        <v>0.001418518136169515</v>
+        <v>0.001418517913623621</v>
       </c>
       <c r="N8">
-        <v>2.385586323112936E-07</v>
+        <v>2.38558631493899E-07</v>
       </c>
       <c r="O8">
-        <v>0.0001724650673120828</v>
+        <v>0.0001724650586030115</v>
       </c>
       <c r="P8">
-        <v>0.0004212607830807439</v>
+        <v>0.0004212607698495703</v>
       </c>
       <c r="Q8">
-        <v>0.0004307690180929723</v>
+        <v>0.0004307690041585343</v>
       </c>
       <c r="R8">
-        <v>0.003780097125934899</v>
+        <v>0.003780097097384757</v>
       </c>
       <c r="S8">
-        <v>1.291043697351583E-09</v>
+        <v>1.291043664684126E-09</v>
       </c>
       <c r="T8">
-        <v>4.398194394688895E-07</v>
+        <v>4.398194224296374E-07</v>
       </c>
       <c r="U8">
-        <v>0.01027810286867833</v>
+        <v>0.01027810259611292</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.006306594972814803</v>
+        <v>0.00630659496729797</v>
       </c>
       <c r="B9">
-        <v>2.380157110881844</v>
+        <v>2.380157109448896</v>
       </c>
       <c r="C9">
-        <v>0.05477910999585692</v>
+        <v>0.05477910967663514</v>
       </c>
       <c r="D9">
-        <v>0.07305764543035871</v>
+        <v>0.07305764501424344</v>
       </c>
       <c r="E9">
-        <v>5.04000252576428</v>
+        <v>5.040002493841628</v>
       </c>
       <c r="F9">
-        <v>1.712789172562715</v>
+        <v>1.712789172214629</v>
       </c>
       <c r="G9">
-        <v>0.0003918421289917295</v>
+        <v>0.0003918421283323512</v>
       </c>
       <c r="H9">
-        <v>3.966915190580232E-05</v>
+        <v>3.96691518919995E-05</v>
       </c>
       <c r="I9">
-        <v>0.08680592856962094</v>
+        <v>0.08680592837017281</v>
       </c>
       <c r="J9">
-        <v>1.158757393602279</v>
+        <v>1.158757388427436</v>
       </c>
       <c r="K9">
-        <v>0.04720858450824566</v>
+        <v>0.04720858442985165</v>
       </c>
       <c r="L9">
-        <v>0.01860277932275449</v>
+        <v>0.01860278234143792</v>
       </c>
       <c r="M9">
-        <v>0.01829508819205269</v>
+        <v>0.01829508815314997</v>
       </c>
       <c r="N9">
-        <v>2.736037831113597E-07</v>
+        <v>2.736037825554734E-07</v>
       </c>
       <c r="O9">
-        <v>0.002394198264205291</v>
+        <v>0.002394198261154628</v>
       </c>
       <c r="P9">
-        <v>0.004936109069098658</v>
+        <v>0.004936109064153906</v>
       </c>
       <c r="Q9">
-        <v>0.005285702030885995</v>
+        <v>0.005285702025611998</v>
       </c>
       <c r="R9">
-        <v>0.01750248340413676</v>
+        <v>0.0175024833979332</v>
       </c>
       <c r="S9">
-        <v>9.216777964954086E-09</v>
+        <v>9.216777984816431E-09</v>
       </c>
       <c r="T9">
-        <v>4.309032806327224E-06</v>
+        <v>4.309032801219187E-06</v>
       </c>
       <c r="U9">
-        <v>0.6779803073870259</v>
+        <v>0.6779803072699269</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>0.01200668550470083</v>
+        <v>0.01200668572318102</v>
       </c>
       <c r="B10">
-        <v>3.587523064945641</v>
+        <v>3.587523123215617</v>
       </c>
       <c r="C10">
-        <v>0.7517799173379576</v>
+        <v>0.7517799288339776</v>
       </c>
       <c r="D10">
-        <v>0.9481718606387881</v>
+        <v>0.9481718755358894</v>
       </c>
       <c r="E10">
-        <v>38.26011966849623</v>
+        <v>38.26012055146682</v>
       </c>
       <c r="F10">
-        <v>0.9240501213016415</v>
+        <v>0.9240501359295041</v>
       </c>
       <c r="G10">
-        <v>0.00342106530747394</v>
+        <v>0.003421065345463137</v>
       </c>
       <c r="H10">
-        <v>0.001526492568699814</v>
+        <v>0.001526492571583526</v>
       </c>
       <c r="I10">
-        <v>0.3391496317978354</v>
+        <v>0.3391496647536125</v>
       </c>
       <c r="J10">
-        <v>10.44930765982221</v>
+        <v>10.44930781017193</v>
       </c>
       <c r="K10">
-        <v>0.9969392014697847</v>
+        <v>0.9969392096111566</v>
       </c>
       <c r="L10">
-        <v>0.7087071235300108</v>
+        <v>0.7087070530315345</v>
       </c>
       <c r="M10">
-        <v>0.04612454562290797</v>
+        <v>0.04612455109324724</v>
       </c>
       <c r="N10">
-        <v>4.133021491025083E-06</v>
+        <v>4.133021507538921E-06</v>
       </c>
       <c r="O10">
-        <v>0.004170293577009299</v>
+        <v>0.004170293703748347</v>
       </c>
       <c r="P10">
-        <v>0.007611852940575151</v>
+        <v>0.00761185304513315</v>
       </c>
       <c r="Q10">
-        <v>0.007803646751476366</v>
+        <v>0.007803646864539098</v>
       </c>
       <c r="R10">
-        <v>0.06400324189566764</v>
+        <v>0.06400324240039161</v>
       </c>
       <c r="S10">
-        <v>2.323404030630559E-08</v>
+        <v>2.323403994964607E-08</v>
       </c>
       <c r="T10">
-        <v>9.617356812588197E-06</v>
+        <v>9.617357091289812E-06</v>
       </c>
       <c r="U10">
-        <v>0.1875386035154271</v>
+        <v>0.1875386078616478</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.0001096662879822454</v>
+        <v>0.0001192920222131825</v>
       </c>
       <c r="B11">
-        <v>0.03209301797611312</v>
+        <v>0.03489336703647047</v>
       </c>
       <c r="C11">
-        <v>0.00120794200893077</v>
+        <v>0.001836190451760931</v>
       </c>
       <c r="D11">
-        <v>0.001609858931282674</v>
+        <v>0.002402180159522521</v>
       </c>
       <c r="E11">
-        <v>0.1450459523512534</v>
+        <v>0.1782433519918326</v>
       </c>
       <c r="F11">
-        <v>0.009274710956205322</v>
+        <v>0.009993762558935509</v>
       </c>
       <c r="G11">
-        <v>8.345259737738896E-06</v>
+        <v>1.081382067393234E-05</v>
       </c>
       <c r="H11">
-        <v>9.295385165964689E-07</v>
+        <v>1.174327479891173E-06</v>
       </c>
       <c r="I11">
-        <v>0.001319141372456874</v>
+        <v>0.001592594373082295</v>
       </c>
       <c r="J11">
-        <v>0.03585380716495409</v>
+        <v>0.04410853384529426</v>
       </c>
       <c r="K11">
-        <v>0.002159293235239561</v>
+        <v>0.002933591654634009</v>
       </c>
       <c r="L11">
-        <v>0.02217131452086362</v>
+        <v>0.0227387209555955</v>
       </c>
       <c r="M11">
-        <v>0.0001706931972966579</v>
+        <v>0.0002055852298853573</v>
       </c>
       <c r="N11">
-        <v>3.055951298963994E-08</v>
+        <v>3.356011291726871E-08</v>
       </c>
       <c r="O11">
-        <v>4.755000369495574E-05</v>
+        <v>5.088116994713161E-05</v>
       </c>
       <c r="P11">
-        <v>0.00012048796473331</v>
+        <v>0.0001264467065677012</v>
       </c>
       <c r="Q11">
-        <v>0.0001248144007228</v>
+        <v>0.0001309211415162816</v>
       </c>
       <c r="R11">
-        <v>0.0001862645751459542</v>
+        <v>0.0002357833439264718</v>
       </c>
       <c r="S11">
-        <v>3.340770165984623E-10</v>
+        <v>3.523300268384307E-10</v>
       </c>
       <c r="T11">
-        <v>7.277987461292724E-08</v>
+        <v>8.03847908380906E-08</v>
       </c>
       <c r="U11">
-        <v>0.002909588696240292</v>
+        <v>0.003052921754009269</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.001225404857362813</v>
+        <v>0.001225404856692574</v>
       </c>
       <c r="B12">
-        <v>0.3596575800381319</v>
+        <v>0.3596575798827932</v>
       </c>
       <c r="C12">
-        <v>0.05932092985180337</v>
+        <v>0.05932092966827798</v>
       </c>
       <c r="D12">
-        <v>0.07687203061898892</v>
+        <v>0.07687203039436605</v>
       </c>
       <c r="E12">
-        <v>2.640013351493983</v>
+        <v>2.640013334865433</v>
       </c>
       <c r="F12">
-        <v>0.09875722881237362</v>
+        <v>0.09875722869087712</v>
       </c>
       <c r="G12">
-        <v>0.0009673518097026102</v>
+        <v>0.0009673518097471562</v>
       </c>
       <c r="H12">
-        <v>8.656564885373215E-05</v>
+        <v>8.656564888531563E-05</v>
       </c>
       <c r="I12">
-        <v>0.07228522936129762</v>
+        <v>0.07228523012348706</v>
       </c>
       <c r="J12">
-        <v>1.092900191252121</v>
+        <v>1.092900188980377</v>
       </c>
       <c r="K12">
-        <v>0.1123189110150814</v>
+        <v>0.1123189110383821</v>
       </c>
       <c r="L12">
-        <v>0.0270235463284491</v>
+        <v>0.02702354545057642</v>
       </c>
       <c r="M12">
-        <v>0.01416299806597731</v>
+        <v>0.01416299814807257</v>
       </c>
       <c r="N12">
-        <v>2.224221777972448E-07</v>
+        <v>2.22422177468427E-07</v>
       </c>
       <c r="O12">
-        <v>0.0005965242284794236</v>
+        <v>0.0005965242288082605</v>
       </c>
       <c r="P12">
-        <v>0.0007182496925193517</v>
+        <v>0.0007182496919438094</v>
       </c>
       <c r="Q12">
-        <v>0.0007490651293868345</v>
+        <v>0.0007490651284556011</v>
       </c>
       <c r="R12">
-        <v>0.004636492207499946</v>
+        <v>0.004636492212213316</v>
       </c>
       <c r="S12">
-        <v>2.331503419108061E-09</v>
+        <v>2.331503410307277E-09</v>
       </c>
       <c r="T12">
-        <v>1.20986195569707E-06</v>
+        <v>1.209861957783014E-06</v>
       </c>
       <c r="U12">
-        <v>0.02856603592606512</v>
+        <v>0.02856603586103765</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.001869213838775074</v>
+        <v>0.001869213845833173</v>
       </c>
       <c r="B13">
-        <v>0.6965425982880363</v>
+        <v>0.6965425991814639</v>
       </c>
       <c r="C13">
-        <v>0.1716688034326676</v>
+        <v>0.1716688034807619</v>
       </c>
       <c r="D13">
-        <v>0.2232935200445303</v>
+        <v>0.2232935201275308</v>
       </c>
       <c r="E13">
-        <v>3.135536819319552</v>
+        <v>3.135536817882004</v>
       </c>
       <c r="F13">
-        <v>0.1795537256436437</v>
+        <v>0.1795537257254838</v>
       </c>
       <c r="G13">
-        <v>0.0003900019547386716</v>
+        <v>0.0003900019554261739</v>
       </c>
       <c r="H13">
-        <v>0.0001705794729911895</v>
+        <v>0.0001705794731021137</v>
       </c>
       <c r="I13">
-        <v>0.07681691157487636</v>
+        <v>0.07681691352539452</v>
       </c>
       <c r="J13">
-        <v>3.217340525385727</v>
+        <v>3.21734052697564</v>
       </c>
       <c r="K13">
-        <v>0.2073903114566624</v>
+        <v>0.2073903114911852</v>
       </c>
       <c r="L13">
-        <v>0.02327110850990248</v>
+        <v>0.02327111380311131</v>
       </c>
       <c r="M13">
-        <v>0.01145433289738068</v>
+        <v>0.01145433317077531</v>
       </c>
       <c r="N13">
-        <v>3.532376661266119E-07</v>
+        <v>3.532376660570191E-07</v>
       </c>
       <c r="O13">
-        <v>0.0007945734420292664</v>
+        <v>0.0007945734451922377</v>
       </c>
       <c r="P13">
-        <v>0.001220736638972229</v>
+        <v>0.001220736641619891</v>
       </c>
       <c r="Q13">
-        <v>0.001280358819700123</v>
+        <v>0.001280358822065014</v>
       </c>
       <c r="R13">
-        <v>0.006508606838509973</v>
+        <v>0.006508606858232848</v>
       </c>
       <c r="S13">
-        <v>3.158134536734475E-09</v>
+        <v>3.158134588511185E-09</v>
       </c>
       <c r="T13">
-        <v>2.152021529248564E-06</v>
+        <v>2.152021538950692E-06</v>
       </c>
       <c r="U13">
-        <v>0.05041359467556211</v>
+        <v>0.05041359467947948</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.001472941906095809</v>
+        <v>0.001472941898920727</v>
       </c>
       <c r="B14">
-        <v>0.4466068087435549</v>
+        <v>0.4466068054593377</v>
       </c>
       <c r="C14">
-        <v>0.06155749460566039</v>
+        <v>0.06155749456168724</v>
       </c>
       <c r="D14">
-        <v>0.08070113167723783</v>
+        <v>0.0807011316159548</v>
       </c>
       <c r="E14">
-        <v>4.132010352306919</v>
+        <v>4.132010339616837</v>
       </c>
       <c r="F14">
-        <v>0.1258350361740646</v>
+        <v>0.12583503543311</v>
       </c>
       <c r="G14">
-        <v>0.0009776636132083406</v>
+        <v>0.0009776636130519104</v>
       </c>
       <c r="H14">
-        <v>8.922302595724042E-05</v>
+        <v>8.922302591781894E-05</v>
       </c>
       <c r="I14">
-        <v>0.0784787335706123</v>
+        <v>0.07847873343803512</v>
       </c>
       <c r="J14">
-        <v>1.16018013056762</v>
+        <v>1.160180129499339</v>
       </c>
       <c r="K14">
-        <v>0.1157339477090277</v>
+        <v>0.115733947777374</v>
       </c>
       <c r="L14">
-        <v>0.03126211903590206</v>
+        <v>0.03126211982426307</v>
       </c>
       <c r="M14">
-        <v>0.01528680292747587</v>
+        <v>0.01528680292255501</v>
       </c>
       <c r="N14">
-        <v>2.443636076886799E-07</v>
+        <v>2.443636066934989E-07</v>
       </c>
       <c r="O14">
-        <v>0.0007059248068630926</v>
+        <v>0.000705924802397719</v>
       </c>
       <c r="P14">
-        <v>0.001177074663879396</v>
+        <v>0.00117707465153991</v>
       </c>
       <c r="Q14">
-        <v>0.001227075517434827</v>
+        <v>0.001227075504155834</v>
       </c>
       <c r="R14">
-        <v>0.004837597884449766</v>
+        <v>0.004837597881225179</v>
       </c>
       <c r="S14">
-        <v>2.752645535837996E-09</v>
+        <v>2.752645530118338E-09</v>
       </c>
       <c r="T14">
-        <v>1.396138067438857E-06</v>
+        <v>1.396138060881968E-06</v>
       </c>
       <c r="U14">
-        <v>0.03991210051993891</v>
+        <v>0.03991210023056591</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>-0.00649074866143967</v>
+        <v>-0.006490748659192746</v>
       </c>
       <c r="B15">
-        <v>-0.5144198940112453</v>
+        <v>-0.5144198930742939</v>
       </c>
       <c r="C15">
-        <v>-0.5126269713118093</v>
+        <v>-0.5126269712407925</v>
       </c>
       <c r="D15">
-        <v>-0.6554899401146334</v>
+        <v>-0.6554899400302092</v>
       </c>
       <c r="E15">
-        <v>-44.9578883148497</v>
+        <v>-44.95788830331538</v>
       </c>
       <c r="F15">
-        <v>-0.1431501703079882</v>
+        <v>-0.1431501699721124</v>
       </c>
       <c r="G15">
-        <v>-0.0007222434628029746</v>
+        <v>-0.0007222434627808532</v>
       </c>
       <c r="H15">
-        <v>-2.227253948978364E-05</v>
+        <v>-2.227253951201725E-05</v>
       </c>
       <c r="I15">
-        <v>-0.07328943097796974</v>
+        <v>-0.07328943170197208</v>
       </c>
       <c r="J15">
-        <v>-7.492091900660042</v>
+        <v>-7.492091899696929</v>
       </c>
       <c r="K15">
-        <v>-0.05105694586002996</v>
+        <v>-0.05105694579631347</v>
       </c>
       <c r="L15">
-        <v>-0.03497458709541598</v>
+        <v>-0.03497458748204679</v>
       </c>
       <c r="M15">
-        <v>-0.02634864216178695</v>
+        <v>-0.0263486422412644</v>
       </c>
       <c r="N15">
-        <v>-2.485598678245925E-07</v>
+        <v>-2.485598673707074E-07</v>
       </c>
       <c r="O15">
-        <v>-0.002256762929976308</v>
+        <v>-0.002256762928346196</v>
       </c>
       <c r="P15">
-        <v>-0.001651215667293442</v>
+        <v>-0.001651215663103189</v>
       </c>
       <c r="Q15">
-        <v>-0.001720588484531068</v>
+        <v>-0.001720588479764509</v>
       </c>
       <c r="R15">
-        <v>-0.004639160356581482</v>
+        <v>-0.004639160359853301</v>
       </c>
       <c r="S15">
-        <v>-4.769794006681663E-09</v>
+        <v>-4.76979400619451E-09</v>
       </c>
       <c r="T15">
-        <v>-3.858391522480322E-06</v>
+        <v>-3.85839152277306E-06</v>
       </c>
       <c r="U15">
-        <v>-0.04691174425317467</v>
+        <v>-0.0469117441184283</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>-0.01477945733674968</v>
+        <v>-0.01477945739189157</v>
       </c>
       <c r="B16">
-        <v>-4.899457802727003</v>
+        <v>-4.899457814887314</v>
       </c>
       <c r="C16">
-        <v>-0.1584830879239958</v>
+        <v>-0.1584830898799402</v>
       </c>
       <c r="D16">
-        <v>-0.2086313403176616</v>
+        <v>-0.2086313429018356</v>
       </c>
       <c r="E16">
-        <v>-11.62089064141924</v>
+        <v>-11.62089079592405</v>
       </c>
       <c r="F16">
-        <v>-1.332573645323749</v>
+        <v>-1.332573648195479</v>
       </c>
       <c r="G16">
-        <v>-0.00188076582812616</v>
+        <v>-0.001880765834612224</v>
       </c>
       <c r="H16">
-        <v>-0.0006523007271023787</v>
+        <v>-0.0006523007277138846</v>
       </c>
       <c r="I16">
-        <v>-0.2268308804953399</v>
+        <v>-0.2268308893292433</v>
       </c>
       <c r="J16">
-        <v>-5.272234515521822</v>
+        <v>-5.272234545122501</v>
       </c>
       <c r="K16">
-        <v>-0.3160806234777306</v>
+        <v>-0.316080624101225</v>
       </c>
       <c r="L16">
-        <v>-1.228870019586123</v>
+        <v>-1.228870007891447</v>
       </c>
       <c r="M16">
-        <v>-0.1589581646366544</v>
+        <v>-0.1589581658453778</v>
       </c>
       <c r="N16">
-        <v>-2.482102610450142E-06</v>
+        <v>-2.482102612705998E-06</v>
       </c>
       <c r="O16">
-        <v>-0.008112575537276219</v>
+        <v>-0.008112575564751163</v>
       </c>
       <c r="P16">
-        <v>-0.01102698542091862</v>
+        <v>-0.01102698545943207</v>
       </c>
       <c r="Q16">
-        <v>-0.01143249770362361</v>
+        <v>-0.01143249774403556</v>
       </c>
       <c r="R16">
-        <v>-0.05176817040681326</v>
+        <v>-0.05176817050939423</v>
       </c>
       <c r="S16">
-        <v>-3.075354996427606E-08</v>
+        <v>-3.075354991915654E-08</v>
       </c>
       <c r="T16">
-        <v>-1.172974958697322E-05</v>
+        <v>-1.17297496518704E-05</v>
       </c>
       <c r="U16">
-        <v>-0.3912979444293165</v>
+        <v>-0.3912979453474557</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>-0.0002716546425852424</v>
+        <v>-0.0002716546416958429</v>
       </c>
       <c r="B17">
-        <v>-2.37298474627025</v>
+        <v>-2.372984745993655</v>
       </c>
       <c r="C17">
-        <v>-0.1201199389477323</v>
+        <v>-0.1201199388886673</v>
       </c>
       <c r="D17">
-        <v>-0.1599610761084842</v>
+        <v>-0.1599610760335157</v>
       </c>
       <c r="E17">
-        <v>-1.265781193329061</v>
+        <v>-1.265781189363938</v>
       </c>
       <c r="F17">
-        <v>-0.00790346448288038</v>
+        <v>-0.007903464396226474</v>
       </c>
       <c r="G17">
-        <v>-5.236324573757964E-06</v>
+        <v>-5.236324499337495E-06</v>
       </c>
       <c r="H17">
-        <v>-2.145683915596469E-05</v>
+        <v>-2.145683914938991E-05</v>
       </c>
       <c r="I17">
-        <v>-0.02399119026760103</v>
+        <v>-0.02399119023610284</v>
       </c>
       <c r="J17">
-        <v>-2.34994698470158</v>
+        <v>-2.349946984005501</v>
       </c>
       <c r="K17">
-        <v>-0.001044696339055782</v>
+        <v>-0.001044696339054984</v>
       </c>
       <c r="L17">
-        <v>-0.0005566584369066808</v>
+        <v>-0.0005566545956646788</v>
       </c>
       <c r="M17">
-        <v>-0.001265723195818493</v>
+        <v>-0.00126572318817554</v>
       </c>
       <c r="N17">
-        <v>-1.01724414183662E-06</v>
+        <v>-1.017244141799339E-06</v>
       </c>
       <c r="O17">
-        <v>-9.178312988392925E-05</v>
+        <v>-9.178312954108074E-05</v>
       </c>
       <c r="P17">
-        <v>-0.000602711975809151</v>
+        <v>-0.000602711975125205</v>
       </c>
       <c r="Q17">
-        <v>-0.0006068256958359865</v>
+        <v>-0.0006068256949990293</v>
       </c>
       <c r="R17">
-        <v>-0.003723410346660742</v>
+        <v>-0.003723410345944578</v>
       </c>
       <c r="S17">
-        <v>-6.903281053349681E-09</v>
+        <v>-6.903281018037066E-09</v>
       </c>
       <c r="T17">
-        <v>-2.884956387669762E-06</v>
+        <v>-2.884956386932209E-06</v>
       </c>
       <c r="U17">
-        <v>-0.00298372467339641</v>
+        <v>-0.002983724638213077</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>-0.000193386001472579</v>
+        <v>-0.0001933860012174173</v>
       </c>
       <c r="B18">
-        <v>-3.02042694025943</v>
+        <v>-3.020426940141304</v>
       </c>
       <c r="C18">
-        <v>-0.1585863090817574</v>
+        <v>-0.1585863090566345</v>
       </c>
       <c r="D18">
-        <v>-0.2296331743942411</v>
+        <v>-0.2296331743627066</v>
       </c>
       <c r="E18">
-        <v>-8.833295455541094</v>
+        <v>-8.833295453761567</v>
       </c>
       <c r="F18">
-        <v>-0.005003262146999435</v>
+        <v>-0.005003262105977058</v>
       </c>
       <c r="G18">
-        <v>-2.655623052247751E-06</v>
+        <v>-2.65562301786662E-06</v>
       </c>
       <c r="H18">
-        <v>-4.73200023275603E-06</v>
+        <v>-4.732000232212356E-06</v>
       </c>
       <c r="I18">
-        <v>-0.009831377178758247</v>
+        <v>-0.009831377185374083</v>
       </c>
       <c r="J18">
-        <v>-1.917643191127929</v>
+        <v>-1.91764319085484</v>
       </c>
       <c r="K18">
-        <v>-0.0004283465293205613</v>
+        <v>-0.0004283465251370795</v>
       </c>
       <c r="L18">
-        <v>-0.0003125670624852081</v>
+        <v>-0.0003125651451372739</v>
       </c>
       <c r="M18">
-        <v>-0.0006251338095324346</v>
+        <v>-0.0006251338088407954</v>
       </c>
       <c r="N18">
-        <v>-2.204923862688835E-07</v>
+        <v>-2.204923862465858E-07</v>
       </c>
       <c r="O18">
-        <v>-6.373949611222355E-05</v>
+        <v>-6.373949597655066E-05</v>
       </c>
       <c r="P18">
-        <v>-0.0004646641419886641</v>
+        <v>-0.0004646641416800694</v>
       </c>
       <c r="Q18">
-        <v>-0.0004671485314504116</v>
+        <v>-0.0004671485310649752</v>
       </c>
       <c r="R18">
-        <v>-0.001527600900598688</v>
+        <v>-0.001527600900462087</v>
       </c>
       <c r="S18">
-        <v>-8.798283384406926E-09</v>
+        <v>-8.798283366888499E-09</v>
       </c>
       <c r="T18">
-        <v>-3.317026254568142E-06</v>
+        <v>-3.317026254332378E-06</v>
       </c>
       <c r="U18">
-        <v>-0.00183659398485209</v>
+        <v>-0.001836593968085755</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>-0.0001646121336709881</v>
+        <v>-0.0001646121334341139</v>
       </c>
       <c r="B19">
-        <v>-2.551055179489615</v>
+        <v>-2.551055179404839</v>
       </c>
       <c r="C19">
-        <v>-0.1339373210701486</v>
+        <v>-0.1339373210460392</v>
       </c>
       <c r="D19">
-        <v>-0.1939394978832586</v>
+        <v>-0.1939394978527385</v>
       </c>
       <c r="E19">
-        <v>-7.460966734526934</v>
+        <v>-7.460966732758634</v>
       </c>
       <c r="F19">
-        <v>-0.004357871348959656</v>
+        <v>-0.004357871321642096</v>
       </c>
       <c r="G19">
-        <v>-2.414200901613054E-06</v>
+        <v>-2.414200869862027E-06</v>
       </c>
       <c r="H19">
-        <v>-4.015526139260103E-06</v>
+        <v>-4.015526138951434E-06</v>
       </c>
       <c r="I19">
-        <v>-0.008600984290267767</v>
+        <v>-0.00860098429241323</v>
       </c>
       <c r="J19">
-        <v>-1.619602095453831</v>
+        <v>-1.619602095184533</v>
       </c>
       <c r="K19">
-        <v>-0.0003773715181216493</v>
+        <v>-0.0003773715145485944</v>
       </c>
       <c r="L19">
-        <v>-0.0002772543490248927</v>
+        <v>-0.0002772542754778378</v>
       </c>
       <c r="M19">
-        <v>-0.0005834807739726791</v>
+        <v>-0.0005834807729167135</v>
       </c>
       <c r="N19">
-        <v>-1.862772742019743E-07</v>
+        <v>-1.862772741817579E-07</v>
       </c>
       <c r="O19">
-        <v>-5.554319254917374E-05</v>
+        <v>-5.554319241728053E-05</v>
       </c>
       <c r="P19">
-        <v>-0.0003938720997319522</v>
+        <v>-0.0003938720994992174</v>
       </c>
       <c r="Q19">
-        <v>-0.0003961234668686076</v>
+        <v>-0.0003961234665900536</v>
       </c>
       <c r="R19">
-        <v>-0.001449330890247568</v>
+        <v>-0.00144933089009208</v>
       </c>
       <c r="S19">
-        <v>-7.431743777909255E-09</v>
+        <v>-7.431743776871503E-09</v>
       </c>
       <c r="T19">
-        <v>-2.803970325697976E-06</v>
+        <v>-2.803970325481578E-06</v>
       </c>
       <c r="U19">
-        <v>-0.001600392001454094</v>
+        <v>-0.001600391990695953</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20">
-        <v>-0.001398397580323501</v>
+        <v>-0.001398397581184816</v>
       </c>
       <c r="B20">
-        <v>-0.7567638649589038</v>
+        <v>-0.756763864880609</v>
       </c>
       <c r="C20">
-        <v>-0.01833915538423217</v>
+        <v>-0.01833915536424115</v>
       </c>
       <c r="D20">
-        <v>-0.02434508705156621</v>
+        <v>-0.0243450870295093</v>
       </c>
       <c r="E20">
-        <v>-0.1475127976251882</v>
+        <v>-0.1475127955960535</v>
       </c>
       <c r="F20">
-        <v>-0.0269172796306468</v>
+        <v>-0.02691727956332792</v>
       </c>
       <c r="G20">
-        <v>-9.76180692259046E-06</v>
+        <v>-9.761806932078743E-06</v>
       </c>
       <c r="H20">
-        <v>-0.0002333030147669224</v>
+        <v>-0.0002333030147861567</v>
       </c>
       <c r="I20">
-        <v>-0.006488520561903736</v>
+        <v>-0.006488520754967942</v>
       </c>
       <c r="J20">
-        <v>-0.4347469526426163</v>
+        <v>-0.4347469527384233</v>
       </c>
       <c r="K20">
-        <v>-0.001827152512334962</v>
+        <v>-0.001827152487230087</v>
       </c>
       <c r="L20">
-        <v>-0.0007984192730159006</v>
+        <v>-0.0007984158734591196</v>
       </c>
       <c r="M20">
-        <v>-0.002098156461794743</v>
+        <v>-0.002098156488668818</v>
       </c>
       <c r="N20">
-        <v>-1.167375885966656E-05</v>
+        <v>-1.167375885963746E-05</v>
       </c>
       <c r="O20">
-        <v>-0.0004388304006354559</v>
+        <v>-0.0004388304007215506</v>
       </c>
       <c r="P20">
-        <v>-0.003158334710619672</v>
+        <v>-0.003158334710619624</v>
       </c>
       <c r="Q20">
-        <v>-0.00316901231372349</v>
+        <v>-0.00316901231354535</v>
       </c>
       <c r="R20">
-        <v>-0.002121980059431058</v>
+        <v>-0.002121980061079497</v>
       </c>
       <c r="S20">
-        <v>-2.854796012558846E-09</v>
+        <v>-2.854795982289358E-09</v>
       </c>
       <c r="T20">
-        <v>-1.113230965178566E-06</v>
+        <v>-1.113230965826369E-06</v>
       </c>
       <c r="U20">
-        <v>-0.009696643879731275</v>
+        <v>-0.009696643850768743</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
-        <v>0.0001261905833000716</v>
+        <v>0.0001261905832542976</v>
       </c>
       <c r="B21">
-        <v>0.02879883963567704</v>
+        <v>0.02879883961705175</v>
       </c>
       <c r="C21">
-        <v>0.001112296767996457</v>
+        <v>0.001112296765798904</v>
       </c>
       <c r="D21">
-        <v>0.001234720911514134</v>
+        <v>0.001234720908812559</v>
       </c>
       <c r="E21">
-        <v>0.06967609457228906</v>
+        <v>0.06967609431555769</v>
       </c>
       <c r="F21">
-        <v>0.01615642985007198</v>
+        <v>0.01615642984626422</v>
       </c>
       <c r="G21">
-        <v>1.054829811047178E-05</v>
+        <v>1.054829811230123E-05</v>
       </c>
       <c r="H21">
-        <v>4.407674555006979E-05</v>
+        <v>4.407674555061849E-05</v>
       </c>
       <c r="I21">
-        <v>0.001160680084656151</v>
+        <v>0.001160680096479592</v>
       </c>
       <c r="J21">
-        <v>0.02244031919179636</v>
+        <v>0.02244031916010066</v>
       </c>
       <c r="K21">
-        <v>0.001612776862380963</v>
+        <v>0.001612776862594742</v>
       </c>
       <c r="L21">
-        <v>0.00648873742239016</v>
+        <v>0.006488737409518705</v>
       </c>
       <c r="M21">
-        <v>0.000179338215133674</v>
+        <v>0.0001793382167446029</v>
       </c>
       <c r="N21">
-        <v>5.482244099388259E-08</v>
+        <v>5.482244098377742E-08</v>
       </c>
       <c r="O21">
-        <v>3.862852106419503E-05</v>
+        <v>3.862852102352074E-05</v>
       </c>
       <c r="P21">
-        <v>0.000547200668078621</v>
+        <v>0.0005472006679622113</v>
       </c>
       <c r="Q21">
-        <v>0.0008460368457599219</v>
+        <v>0.000846036845636313</v>
       </c>
       <c r="R21">
-        <v>0.004795436072070286</v>
+        <v>0.004795436072129097</v>
       </c>
       <c r="S21">
-        <v>2.829306151960231E-10</v>
+        <v>2.829306150004426E-10</v>
       </c>
       <c r="T21">
-        <v>7.115852826213993E-08</v>
+        <v>7.115852825133252E-08</v>
       </c>
       <c r="U21">
-        <v>0.006193426807046861</v>
+        <v>0.006193426805247373</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_apos/data_uniquie_case1_apos_recipe.xlsx
+++ b/results/case1_apos/data_uniquie_case1_apos_recipe.xlsx
@@ -507,1302 +507,1302 @@
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
-        <v>0.0007188410684669359</v>
+        <v>0.0007188409811598503</v>
       </c>
       <c r="B2">
-        <v>0.2476679220817101</v>
+        <v>0.247667884169238</v>
       </c>
       <c r="C2">
-        <v>0.007819008420326993</v>
+        <v>0.007819006924819134</v>
       </c>
       <c r="D2">
-        <v>0.01032083072170793</v>
+        <v>0.01032082863136484</v>
       </c>
       <c r="E2">
-        <v>0.6751939095156287</v>
+        <v>0.6751937338483626</v>
       </c>
       <c r="F2">
-        <v>0.1497597986749921</v>
+        <v>0.1497597922898768</v>
       </c>
       <c r="G2">
-        <v>5.541603623090033E-05</v>
+        <v>5.541602747309945E-05</v>
       </c>
       <c r="H2">
-        <v>7.917951223635653E-06</v>
+        <v>7.917950054207846E-06</v>
       </c>
       <c r="I2">
-        <v>0.009957978218235153</v>
+        <v>0.009957966219641127</v>
       </c>
       <c r="J2">
-        <v>0.1553442012202316</v>
+        <v>0.1553441636421933</v>
       </c>
       <c r="K2">
-        <v>0.01109665181970701</v>
+        <v>0.01109664910736055</v>
       </c>
       <c r="L2">
-        <v>0.004202585224711323</v>
+        <v>0.004202585039371011</v>
       </c>
       <c r="M2">
-        <v>0.002064264930722576</v>
+        <v>0.002064263609871142</v>
       </c>
       <c r="N2">
-        <v>4.733841617004039E-08</v>
+        <v>4.733840433402183E-08</v>
       </c>
       <c r="O2">
-        <v>0.0003099037457471415</v>
+        <v>0.0003099036910400239</v>
       </c>
       <c r="P2">
-        <v>0.0005818799008687123</v>
+        <v>0.000581879790948417</v>
       </c>
       <c r="Q2">
-        <v>0.0006164943877003351</v>
+        <v>0.0006164942737989614</v>
       </c>
       <c r="R2">
-        <v>0.001999873817407977</v>
+        <v>0.001999873638805205</v>
       </c>
       <c r="S2">
-        <v>1.014262285891513E-09</v>
+        <v>1.014262135748798E-09</v>
       </c>
       <c r="T2">
-        <v>4.98114900579222E-07</v>
+        <v>4.981147820756165E-07</v>
       </c>
       <c r="U2">
-        <v>0.05704845729009904</v>
+        <v>0.05704845509046995</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
-        <v>0.002056820148630195</v>
+        <v>0.002056819863669496</v>
       </c>
       <c r="B3">
-        <v>0.7087358545188976</v>
+        <v>0.7087357357939408</v>
       </c>
       <c r="C3">
-        <v>0.02236901460884153</v>
+        <v>0.02236901110695293</v>
       </c>
       <c r="D3">
-        <v>0.02952715142374949</v>
+        <v>0.02952714644563127</v>
       </c>
       <c r="E3">
-        <v>1.930445713791319</v>
+        <v>1.930445248609966</v>
       </c>
       <c r="F3">
-        <v>0.4284511315917903</v>
+        <v>0.4284511106208858</v>
       </c>
       <c r="G3">
-        <v>0.0001588899813206231</v>
+        <v>0.0001588899572898265</v>
       </c>
       <c r="H3">
-        <v>2.293561039610919E-05</v>
+        <v>2.293560697871747E-05</v>
       </c>
       <c r="I3">
-        <v>0.02851045320299205</v>
+        <v>0.02851041911020474</v>
       </c>
       <c r="J3">
-        <v>0.4448102338338779</v>
+        <v>0.4448101342144495</v>
       </c>
       <c r="K3">
-        <v>0.03191441610177578</v>
+        <v>0.03191440753664197</v>
       </c>
       <c r="L3">
-        <v>0.01225291854347221</v>
+        <v>0.01225292467247306</v>
       </c>
       <c r="M3">
-        <v>0.00590261480038326</v>
+        <v>0.005902611103434651</v>
       </c>
       <c r="N3">
-        <v>1.357905755382743E-07</v>
+        <v>1.357905332916981E-07</v>
       </c>
       <c r="O3">
-        <v>0.0008865846647012072</v>
+        <v>0.0008865844769858729</v>
       </c>
       <c r="P3">
-        <v>0.001665485007118165</v>
+        <v>0.001665484544905806</v>
       </c>
       <c r="Q3">
-        <v>0.001764860065669635</v>
+        <v>0.001764859588806121</v>
       </c>
       <c r="R3">
-        <v>0.005755802165086748</v>
+        <v>0.005755801669799746</v>
       </c>
       <c r="S3">
-        <v>2.904679704194998E-09</v>
+        <v>2.904679279849177E-09</v>
       </c>
       <c r="T3">
-        <v>1.425453167222215E-06</v>
+        <v>1.425452801509515E-06</v>
       </c>
       <c r="U3">
-        <v>0.16319953493617</v>
+        <v>0.1631995272607774</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
-        <v>0.0005662344370910012</v>
+        <v>0.2943253364861671</v>
       </c>
       <c r="B4">
-        <v>0.1315540978692973</v>
+        <v>68.45320096704866</v>
       </c>
       <c r="C4">
-        <v>0.006450304088869</v>
+        <v>3.357965299457031</v>
       </c>
       <c r="D4">
-        <v>0.008476544190125404</v>
+        <v>4.413773657875671</v>
       </c>
       <c r="E4">
-        <v>0.2358170274997637</v>
+        <v>123.2518287154059</v>
       </c>
       <c r="F4">
-        <v>0.02980682452678323</v>
+        <v>15.56085508066393</v>
       </c>
       <c r="G4">
-        <v>4.77391868302904E-05</v>
+        <v>0.02520925911386088</v>
       </c>
       <c r="H4">
-        <v>5.645374461798076E-06</v>
+        <v>0.002979222698428767</v>
       </c>
       <c r="I4">
-        <v>0.02352566104608692</v>
+        <v>12.1628743265193</v>
       </c>
       <c r="J4">
-        <v>0.1340330692758133</v>
+        <v>70.09164908170568</v>
       </c>
       <c r="K4">
-        <v>0.008631318383394494</v>
+        <v>4.85972027396117</v>
       </c>
       <c r="L4">
-        <v>0.00250041400370423</v>
+        <v>1.402616518486413</v>
       </c>
       <c r="M4">
-        <v>0.001982757961639609</v>
+        <v>1.034702680667639</v>
       </c>
       <c r="N4">
-        <v>3.30974558027566E-08</v>
+        <v>1.742734936460307E-05</v>
       </c>
       <c r="O4">
-        <v>0.0002471262923733465</v>
+        <v>0.1282485280677441</v>
       </c>
       <c r="P4">
-        <v>0.0003313756026217556</v>
+        <v>0.1722988581972937</v>
       </c>
       <c r="Q4">
-        <v>0.0003385902804963232</v>
+        <v>0.1761100088324129</v>
       </c>
       <c r="R4">
-        <v>0.001359127827080146</v>
+        <v>0.7084157546181228</v>
       </c>
       <c r="S4">
-        <v>5.943899803031924E-10</v>
+        <v>3.103666033653715E-07</v>
       </c>
       <c r="T4">
-        <v>3.894019620977916E-07</v>
+        <v>0.0002022324333532054</v>
       </c>
       <c r="U4">
-        <v>0.006498822384203171</v>
+        <v>3.403498115676458</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
-        <v>0.0003375193113414828</v>
+        <v>0.1754461283452135</v>
       </c>
       <c r="B5">
-        <v>0.07834074972223885</v>
+        <v>40.76598375884162</v>
       </c>
       <c r="C5">
-        <v>0.003844363603123032</v>
+        <v>2.001412983339527</v>
       </c>
       <c r="D5">
-        <v>0.005052135969256101</v>
+        <v>2.630768078118329</v>
       </c>
       <c r="E5">
-        <v>0.1400615227754251</v>
+        <v>73.21254494712655</v>
       </c>
       <c r="F5">
-        <v>0.01768277795133429</v>
+        <v>9.232569719436176</v>
       </c>
       <c r="G5">
-        <v>2.844634316315735E-05</v>
+        <v>0.01502262953052239</v>
       </c>
       <c r="H5">
-        <v>3.36006379813254E-06</v>
+        <v>0.001773394472304132</v>
       </c>
       <c r="I5">
-        <v>0.01404455217334484</v>
+        <v>7.261148097207887</v>
       </c>
       <c r="J5">
-        <v>0.07984152110500621</v>
+        <v>41.75501460043354</v>
       </c>
       <c r="K5">
-        <v>0.005140764783287154</v>
+        <v>2.895257098238357</v>
       </c>
       <c r="L5">
-        <v>0.001490274089137119</v>
+        <v>0.8361562203688041</v>
       </c>
       <c r="M5">
-        <v>0.001178581930708326</v>
+        <v>0.6150978310236598</v>
       </c>
       <c r="N5">
-        <v>1.970057243337958E-08</v>
+        <v>1.037429756664022E-05</v>
       </c>
       <c r="O5">
-        <v>0.0001472691221860516</v>
+        <v>0.07642905857131102</v>
       </c>
       <c r="P5">
-        <v>0.000197412773757239</v>
+        <v>0.1026489581295644</v>
       </c>
       <c r="Q5">
-        <v>0.000201676806900386</v>
+        <v>0.1049021476112367</v>
       </c>
       <c r="R5">
-        <v>0.0008072099712024455</v>
+        <v>0.4207809715685594</v>
       </c>
       <c r="S5">
-        <v>3.540568466348266E-10</v>
+        <v>1.848844153649208E-07</v>
       </c>
       <c r="T5">
-        <v>2.320725500699558E-07</v>
+        <v>0.0001205286435282702</v>
       </c>
       <c r="U5">
-        <v>0.003837961267805111</v>
+        <v>2.010463317994915</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
-        <v>0.00924492640427396</v>
+        <v>0.009244927357283961</v>
       </c>
       <c r="B6">
-        <v>2.671091311737981</v>
+        <v>2.67109178263346</v>
       </c>
       <c r="C6">
-        <v>0.55286330653953</v>
+        <v>0.5528633179231774</v>
       </c>
       <c r="D6">
-        <v>0.6978898940021314</v>
+        <v>0.6978899106676054</v>
       </c>
       <c r="E6">
-        <v>28.38506607311929</v>
+        <v>28.38506774815999</v>
       </c>
       <c r="F6">
-        <v>0.6839581855251136</v>
+        <v>0.683958264938031</v>
       </c>
       <c r="G6">
-        <v>0.00270148464180165</v>
+        <v>0.002701484737707213</v>
       </c>
       <c r="H6">
-        <v>0.001849573446613156</v>
+        <v>0.001849573459869806</v>
       </c>
       <c r="I6">
-        <v>0.2576172152183735</v>
+        <v>0.2576173483686454</v>
       </c>
       <c r="J6">
-        <v>8.05691470932603</v>
+        <v>8.056915080367936</v>
       </c>
       <c r="K6">
-        <v>0.7222524791401981</v>
+        <v>0.7222525116859611</v>
       </c>
       <c r="L6">
-        <v>0.5164372883707581</v>
+        <v>0.5164372540471424</v>
       </c>
       <c r="M6">
-        <v>0.0423784541995537</v>
+        <v>0.04237846803616288</v>
       </c>
       <c r="N6">
-        <v>3.232912223793147E-06</v>
+        <v>3.23291237344853E-06</v>
       </c>
       <c r="O6">
-        <v>0.003220263974632607</v>
+        <v>0.003220264615257348</v>
       </c>
       <c r="P6">
-        <v>0.005711522370614103</v>
+        <v>0.005711523730011547</v>
       </c>
       <c r="Q6">
-        <v>0.005856924863975395</v>
+        <v>0.00585692627832647</v>
       </c>
       <c r="R6">
-        <v>0.04998574673988878</v>
+        <v>0.04998574872872378</v>
       </c>
       <c r="S6">
-        <v>1.736799405789916E-08</v>
+        <v>1.73679955493725E-08</v>
       </c>
       <c r="T6">
-        <v>7.318253331538318E-06</v>
+        <v>7.318254703954673E-06</v>
       </c>
       <c r="U6">
-        <v>0.1417827398071989</v>
+        <v>0.1417827677061511</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
-        <v>0.02902244537245927</v>
+        <v>0.02902244542430192</v>
       </c>
       <c r="B7">
-        <v>6.228141690053278</v>
+        <v>6.228141668946606</v>
       </c>
       <c r="C7">
-        <v>0.6640835415773827</v>
+        <v>0.6640835483571231</v>
       </c>
       <c r="D7">
-        <v>0.8329495123590279</v>
+        <v>0.8329495209904196</v>
       </c>
       <c r="E7">
-        <v>12.80552541064933</v>
+        <v>12.80552593346495</v>
       </c>
       <c r="F7">
-        <v>1.348170304922726</v>
+        <v>1.348170301411043</v>
       </c>
       <c r="G7">
-        <v>0.002040920517965922</v>
+        <v>0.002040920522992525</v>
       </c>
       <c r="H7">
-        <v>0.0001908085488961863</v>
+        <v>0.0001908085488379462</v>
       </c>
       <c r="I7">
-        <v>1.273275914377628</v>
+        <v>1.273275911686027</v>
       </c>
       <c r="J7">
-        <v>7.119922468892383</v>
+        <v>7.119922562361025</v>
       </c>
       <c r="K7">
-        <v>0.126188663990565</v>
+        <v>0.1261886621416076</v>
       </c>
       <c r="L7">
-        <v>0.1229539695145957</v>
+        <v>0.1229539570839675</v>
       </c>
       <c r="M7">
-        <v>0.1164501324495914</v>
+        <v>0.1164501329155831</v>
       </c>
       <c r="N7">
-        <v>1.446783623133225E-06</v>
+        <v>1.446783614455184E-06</v>
       </c>
       <c r="O7">
-        <v>0.01272392789369645</v>
+        <v>0.01272392788614249</v>
       </c>
       <c r="P7">
-        <v>0.01684244701384223</v>
+        <v>0.0168424469298209</v>
       </c>
       <c r="Q7">
-        <v>0.01720047762141012</v>
+        <v>0.01720047753422898</v>
       </c>
       <c r="R7">
-        <v>0.0415912013199099</v>
+        <v>0.04159120130286757</v>
       </c>
       <c r="S7">
-        <v>2.896670104920175E-08</v>
+        <v>2.896670089442743E-08</v>
       </c>
       <c r="T7">
-        <v>1.973293161365402E-05</v>
+        <v>1.973293160153449E-05</v>
       </c>
       <c r="U7">
-        <v>0.2827709744270761</v>
+        <v>0.2827709731700116</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
-        <v>0.000506752700960917</v>
+        <v>0.0005067527180322667</v>
       </c>
       <c r="B8">
-        <v>0.2090725073413573</v>
+        <v>0.2090725152406045</v>
       </c>
       <c r="C8">
-        <v>0.01296366953888443</v>
+        <v>0.01296366966570273</v>
       </c>
       <c r="D8">
-        <v>0.01690435036636048</v>
+        <v>0.01690435056183636</v>
       </c>
       <c r="E8">
-        <v>0.5827243446171322</v>
+        <v>0.5827243694076568</v>
       </c>
       <c r="F8">
-        <v>0.05504801599084599</v>
+        <v>0.05504801745321211</v>
       </c>
       <c r="G8">
-        <v>0.0001737504497515173</v>
+        <v>0.000173750451443888</v>
       </c>
       <c r="H8">
-        <v>1.504736274412935E-05</v>
+        <v>1.504736300358873E-05</v>
       </c>
       <c r="I8">
-        <v>0.01732092374272522</v>
+        <v>0.01732092611953631</v>
       </c>
       <c r="J8">
-        <v>0.309129711050614</v>
+        <v>0.3091297156698722</v>
       </c>
       <c r="K8">
-        <v>0.06332675941432402</v>
+        <v>0.06332676010098229</v>
       </c>
       <c r="L8">
-        <v>0.04609385774652319</v>
+        <v>0.04609386010113955</v>
       </c>
       <c r="M8">
-        <v>0.001418517913623621</v>
+        <v>0.001418518081755819</v>
       </c>
       <c r="N8">
-        <v>2.38558631493899E-07</v>
+        <v>2.385586339756088E-07</v>
       </c>
       <c r="O8">
-        <v>0.0001724650586030115</v>
+        <v>0.0001724650706276629</v>
       </c>
       <c r="P8">
-        <v>0.0004212607698495703</v>
+        <v>0.0004212607913515487</v>
       </c>
       <c r="Q8">
-        <v>0.0004307690041585343</v>
+        <v>0.0004307690267208157</v>
       </c>
       <c r="R8">
-        <v>0.003780097097384757</v>
+        <v>0.003780097135753995</v>
       </c>
       <c r="S8">
-        <v>1.291043664684126E-09</v>
+        <v>1.291043715760717E-09</v>
       </c>
       <c r="T8">
-        <v>4.398194224296374E-07</v>
+        <v>4.398194463762911E-07</v>
       </c>
       <c r="U8">
-        <v>0.01027810259611292</v>
+        <v>0.01027810306893028</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
-        <v>0.00630659496729797</v>
+        <v>0.006306595076696156</v>
       </c>
       <c r="B9">
-        <v>2.380157109448896</v>
+        <v>2.380157149725954</v>
       </c>
       <c r="C9">
-        <v>0.05477910967663514</v>
+        <v>0.05477911221292024</v>
       </c>
       <c r="D9">
-        <v>0.07305764501424344</v>
+        <v>0.07305764844927197</v>
       </c>
       <c r="E9">
-        <v>5.040002493841628</v>
+        <v>5.04000275768492</v>
       </c>
       <c r="F9">
-        <v>1.712789172214629</v>
+        <v>1.712789179389748</v>
       </c>
       <c r="G9">
-        <v>0.0003918421283323512</v>
+        <v>0.0003918421386882798</v>
       </c>
       <c r="H9">
-        <v>3.96691518919995E-05</v>
+        <v>3.966915328287343E-05</v>
       </c>
       <c r="I9">
-        <v>0.08680592837017281</v>
+        <v>0.08680594111722587</v>
       </c>
       <c r="J9">
-        <v>1.158757388427436</v>
+        <v>1.158757442432083</v>
       </c>
       <c r="K9">
-        <v>0.04720858442985165</v>
+        <v>0.04720858713935897</v>
       </c>
       <c r="L9">
-        <v>0.01860278234143792</v>
+        <v>0.0186027238699317</v>
       </c>
       <c r="M9">
-        <v>0.01829508815314997</v>
+        <v>0.01829508963380733</v>
       </c>
       <c r="N9">
-        <v>2.736037825554734E-07</v>
+        <v>2.736037944043718E-07</v>
       </c>
       <c r="O9">
-        <v>0.002394198261154628</v>
+        <v>0.002394198322372369</v>
       </c>
       <c r="P9">
-        <v>0.004936109064153906</v>
+        <v>0.004936109179712056</v>
       </c>
       <c r="Q9">
-        <v>0.005285702025611998</v>
+        <v>0.005285702146274324</v>
       </c>
       <c r="R9">
-        <v>0.0175024833979332</v>
+        <v>0.01750248359093526</v>
       </c>
       <c r="S9">
-        <v>9.216777984816431E-09</v>
+        <v>9.216777629394418E-09</v>
       </c>
       <c r="T9">
-        <v>4.309032801219187E-06</v>
+        <v>4.309032932274201E-06</v>
       </c>
       <c r="U9">
-        <v>0.6779803072699269</v>
+        <v>0.6779803097664738</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
-        <v>0.01200668572318102</v>
+        <v>0.01200669501731978</v>
       </c>
       <c r="B10">
-        <v>3.587523123215617</v>
+        <v>3.587527167681221</v>
       </c>
       <c r="C10">
-        <v>0.7517799288339776</v>
+        <v>0.751780094754973</v>
       </c>
       <c r="D10">
-        <v>0.9481718755358894</v>
+        <v>0.9481721065714852</v>
       </c>
       <c r="E10">
-        <v>38.26012055146682</v>
+        <v>38.26014001619105</v>
       </c>
       <c r="F10">
-        <v>0.9240501359295041</v>
+        <v>0.9240508134104934</v>
       </c>
       <c r="G10">
-        <v>0.003421065345463137</v>
+        <v>0.003421066274917377</v>
       </c>
       <c r="H10">
-        <v>0.001526492571583526</v>
+        <v>0.001526492695096433</v>
       </c>
       <c r="I10">
-        <v>0.3391496647536125</v>
+        <v>0.339150916410115</v>
       </c>
       <c r="J10">
-        <v>10.44930781017193</v>
+        <v>10.44931193834718</v>
       </c>
       <c r="K10">
-        <v>0.9969392096111566</v>
+        <v>0.9969395000393261</v>
       </c>
       <c r="L10">
-        <v>0.7087070530315345</v>
+        <v>0.7087071701528006</v>
       </c>
       <c r="M10">
-        <v>0.04612455109324724</v>
+        <v>0.04612468537678639</v>
       </c>
       <c r="N10">
-        <v>4.133021507538921E-06</v>
+        <v>4.133022779551359E-06</v>
       </c>
       <c r="O10">
-        <v>0.004170293703748347</v>
+        <v>0.004170299532101615</v>
       </c>
       <c r="P10">
-        <v>0.00761185304513315</v>
+        <v>0.007611864789971657</v>
       </c>
       <c r="Q10">
-        <v>0.007803646864539098</v>
+        <v>0.0078036590336304</v>
       </c>
       <c r="R10">
-        <v>0.06400324240039161</v>
+        <v>0.06400326114254189</v>
       </c>
       <c r="S10">
-        <v>2.323403994964607E-08</v>
+        <v>2.323405683930358E-08</v>
       </c>
       <c r="T10">
-        <v>9.617357091289812E-06</v>
+        <v>9.617369660744428E-06</v>
       </c>
       <c r="U10">
-        <v>0.1875386078616478</v>
+        <v>0.1875388418715514</v>
       </c>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
-        <v>0.0001192920222131825</v>
+        <v>0.0001192919942190336</v>
       </c>
       <c r="B11">
-        <v>0.03489336703647047</v>
+        <v>0.03489336449649328</v>
       </c>
       <c r="C11">
-        <v>0.001836190451760931</v>
+        <v>0.001836189680271531</v>
       </c>
       <c r="D11">
-        <v>0.002402180159522521</v>
+        <v>0.002402179161878274</v>
       </c>
       <c r="E11">
-        <v>0.1782433519918326</v>
+        <v>0.1782433139086191</v>
       </c>
       <c r="F11">
-        <v>0.009993762558935509</v>
+        <v>0.009993761397962625</v>
       </c>
       <c r="G11">
-        <v>1.081382067393234E-05</v>
+        <v>1.081381872372696E-05</v>
       </c>
       <c r="H11">
-        <v>1.174327479891173E-06</v>
+        <v>1.174327190801555E-06</v>
       </c>
       <c r="I11">
-        <v>0.001592594373082295</v>
+        <v>0.001592593921083646</v>
       </c>
       <c r="J11">
-        <v>0.04410853384529426</v>
+        <v>0.04410852360494653</v>
       </c>
       <c r="K11">
-        <v>0.002933591654634009</v>
+        <v>0.002933591597419476</v>
       </c>
       <c r="L11">
-        <v>0.0227387209555955</v>
+        <v>0.0227387215741626</v>
       </c>
       <c r="M11">
-        <v>0.0002055852298853573</v>
+        <v>0.0002055848488548233</v>
       </c>
       <c r="N11">
-        <v>3.356011291726871E-08</v>
+        <v>3.356010980238366E-08</v>
       </c>
       <c r="O11">
-        <v>5.088116994713161E-05</v>
+        <v>5.088115800759438E-05</v>
       </c>
       <c r="P11">
-        <v>0.0001264467065677012</v>
+        <v>0.000126446665693797</v>
       </c>
       <c r="Q11">
-        <v>0.0001309211415162816</v>
+        <v>0.000130921099157314</v>
       </c>
       <c r="R11">
-        <v>0.0002357833439264718</v>
+        <v>0.0002357832895261517</v>
       </c>
       <c r="S11">
-        <v>3.523300268384307E-10</v>
+        <v>3.523300114386923E-10</v>
       </c>
       <c r="T11">
-        <v>8.03847908380906E-08</v>
+        <v>8.038477697917249E-08</v>
       </c>
       <c r="U11">
-        <v>0.003052921754009269</v>
+        <v>0.003052921226578205</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
-        <v>0.001225404856692574</v>
+        <v>0.001225405255125609</v>
       </c>
       <c r="B12">
-        <v>0.3596575798827932</v>
+        <v>0.3596577519011653</v>
       </c>
       <c r="C12">
-        <v>0.05932092966827798</v>
+        <v>0.05932093670139797</v>
       </c>
       <c r="D12">
-        <v>0.07687203039436605</v>
+        <v>0.07687204019777517</v>
       </c>
       <c r="E12">
-        <v>2.640013334865433</v>
+        <v>2.64001415494378</v>
       </c>
       <c r="F12">
-        <v>0.09875722869087712</v>
+        <v>0.09875725767406704</v>
       </c>
       <c r="G12">
-        <v>0.0009673518097471562</v>
+        <v>0.000967351849628441</v>
       </c>
       <c r="H12">
-        <v>8.656564888531563E-05</v>
+        <v>8.656565416524509E-05</v>
       </c>
       <c r="I12">
-        <v>0.07228523012348706</v>
+        <v>0.07228528409934581</v>
       </c>
       <c r="J12">
-        <v>1.092900188980377</v>
+        <v>1.092900364094804</v>
       </c>
       <c r="K12">
-        <v>0.1123189110383821</v>
+        <v>0.1123189233456233</v>
       </c>
       <c r="L12">
-        <v>0.02702354545057642</v>
+        <v>0.02702355209507778</v>
       </c>
       <c r="M12">
-        <v>0.01416299814807257</v>
+        <v>0.014163003941753</v>
       </c>
       <c r="N12">
-        <v>2.22422177468427E-07</v>
+        <v>2.224222304956049E-07</v>
       </c>
       <c r="O12">
-        <v>0.0005965242288082605</v>
+        <v>0.0005965244767426632</v>
       </c>
       <c r="P12">
-        <v>0.0007182496919438094</v>
+        <v>0.0007182501884638835</v>
       </c>
       <c r="Q12">
-        <v>0.0007490651284556011</v>
+        <v>0.0007490656431143103</v>
       </c>
       <c r="R12">
-        <v>0.004636492212213316</v>
+        <v>0.004636493014504755</v>
       </c>
       <c r="S12">
-        <v>2.331503410307277E-09</v>
+        <v>2.331504143834504E-09</v>
       </c>
       <c r="T12">
-        <v>1.209861957783014E-06</v>
+        <v>1.209862494772185E-06</v>
       </c>
       <c r="U12">
-        <v>0.02856603586103765</v>
+        <v>0.02856604582000053</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
-        <v>0.001869213845833173</v>
+        <v>0.001869213879636863</v>
       </c>
       <c r="B13">
-        <v>0.6965425991814639</v>
+        <v>0.6965426144847113</v>
       </c>
       <c r="C13">
-        <v>0.1716688034807619</v>
+        <v>0.1716688042405482</v>
       </c>
       <c r="D13">
-        <v>0.2232935201275308</v>
+        <v>0.2232935211604057</v>
       </c>
       <c r="E13">
-        <v>3.135536817882004</v>
+        <v>3.135536898534566</v>
       </c>
       <c r="F13">
-        <v>0.1795537257254838</v>
+        <v>0.1795537284480844</v>
       </c>
       <c r="G13">
-        <v>0.0003900019554261739</v>
+        <v>0.0003900019588005032</v>
       </c>
       <c r="H13">
-        <v>0.0001705794731021137</v>
+        <v>0.0001705794734936328</v>
       </c>
       <c r="I13">
-        <v>0.07681691352539452</v>
+        <v>0.07681691755326893</v>
       </c>
       <c r="J13">
-        <v>3.21734052697564</v>
+        <v>3.217340543590129</v>
       </c>
       <c r="K13">
-        <v>0.2073903114911852</v>
+        <v>0.2073903125455679</v>
       </c>
       <c r="L13">
-        <v>0.02327111380311131</v>
+        <v>0.02327110551937604</v>
       </c>
       <c r="M13">
-        <v>0.01145433317077531</v>
+        <v>0.01145433343303307</v>
       </c>
       <c r="N13">
-        <v>3.532376660570191E-07</v>
+        <v>3.532376705967434E-07</v>
       </c>
       <c r="O13">
-        <v>0.0007945734451922377</v>
+        <v>0.0007945734662841682</v>
       </c>
       <c r="P13">
-        <v>0.001220736641619891</v>
+        <v>0.001220736686937845</v>
       </c>
       <c r="Q13">
-        <v>0.001280358822065014</v>
+        <v>0.001280358869473724</v>
       </c>
       <c r="R13">
-        <v>0.006508606858232848</v>
+        <v>0.006508606919128702</v>
       </c>
       <c r="S13">
-        <v>3.158134588511185E-09</v>
+        <v>3.158134574930751E-09</v>
       </c>
       <c r="T13">
-        <v>2.152021538950692E-06</v>
+        <v>2.152021583759921E-06</v>
       </c>
       <c r="U13">
-        <v>0.05041359467947948</v>
+        <v>0.0504135956176171</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
-        <v>0.001472941898920727</v>
+        <v>0.00147294246815741</v>
       </c>
       <c r="B14">
-        <v>0.4466068054593377</v>
+        <v>0.4466070528062167</v>
       </c>
       <c r="C14">
-        <v>0.06155749456168724</v>
+        <v>0.0615575046791542</v>
       </c>
       <c r="D14">
-        <v>0.0807011316159548</v>
+        <v>0.0807011456742821</v>
       </c>
       <c r="E14">
-        <v>4.132010339616837</v>
+        <v>4.13201149552279</v>
       </c>
       <c r="F14">
-        <v>0.12583503543311</v>
+        <v>0.1258350790650298</v>
       </c>
       <c r="G14">
-        <v>0.0009776636130519104</v>
+        <v>0.0009776636694720777</v>
       </c>
       <c r="H14">
-        <v>8.922302591781894E-05</v>
+        <v>8.922303349407196E-05</v>
       </c>
       <c r="I14">
-        <v>0.07847873343803512</v>
+        <v>0.07847880907935992</v>
       </c>
       <c r="J14">
-        <v>1.160180129499339</v>
+        <v>1.160180375042015</v>
       </c>
       <c r="K14">
-        <v>0.115733947777374</v>
+        <v>0.1157339649409933</v>
       </c>
       <c r="L14">
-        <v>0.03126211982426307</v>
+        <v>0.03126212708170972</v>
       </c>
       <c r="M14">
-        <v>0.01528680292255501</v>
+        <v>0.01528681110933585</v>
       </c>
       <c r="N14">
-        <v>2.443636066934989E-07</v>
+        <v>2.443636817167052E-07</v>
       </c>
       <c r="O14">
-        <v>0.000705924802397719</v>
+        <v>0.0007059251542423356</v>
       </c>
       <c r="P14">
-        <v>0.00117707465153991</v>
+        <v>0.00117707536675197</v>
       </c>
       <c r="Q14">
-        <v>0.001227075504155834</v>
+        <v>0.001227076251461097</v>
       </c>
       <c r="R14">
-        <v>0.004837597881225179</v>
+        <v>0.00483759901822747</v>
       </c>
       <c r="S14">
-        <v>2.752645530118338E-09</v>
+        <v>2.752646563751495E-09</v>
       </c>
       <c r="T14">
-        <v>1.396138060881968E-06</v>
+        <v>1.39613882207963E-06</v>
       </c>
       <c r="U14">
-        <v>0.03991210023056591</v>
+        <v>0.03991211549488457</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
-        <v>-0.006490748659192746</v>
+        <v>-0.006490748638718747</v>
       </c>
       <c r="B15">
-        <v>-0.5144198930742939</v>
+        <v>-0.5144198822255708</v>
       </c>
       <c r="C15">
-        <v>-0.5126269712407925</v>
+        <v>-0.5126269711284011</v>
       </c>
       <c r="D15">
-        <v>-0.6554899400302092</v>
+        <v>-0.6554899398296109</v>
       </c>
       <c r="E15">
-        <v>-44.95788830331538</v>
+        <v>-44.95788827996456</v>
       </c>
       <c r="F15">
-        <v>-0.1431501699721124</v>
+        <v>-0.1431501683468742</v>
       </c>
       <c r="G15">
-        <v>-0.0007222434627808532</v>
+        <v>-0.0007222434605418949</v>
       </c>
       <c r="H15">
-        <v>-2.227253951201725E-05</v>
+        <v>-2.227253914985674E-05</v>
       </c>
       <c r="I15">
-        <v>-0.07328943170197208</v>
+        <v>-0.07328942778704862</v>
       </c>
       <c r="J15">
-        <v>-7.492091899696929</v>
+        <v>-7.492091893189921</v>
       </c>
       <c r="K15">
-        <v>-0.05105694579631347</v>
+        <v>-0.05105694502204599</v>
       </c>
       <c r="L15">
-        <v>-0.03497458748204679</v>
+        <v>-0.03497458415132625</v>
       </c>
       <c r="M15">
-        <v>-0.0263486422412644</v>
+        <v>-0.02634864177197328</v>
       </c>
       <c r="N15">
-        <v>-2.485598673707074E-07</v>
+        <v>-2.485598641004931E-07</v>
       </c>
       <c r="O15">
-        <v>-0.002256762928346196</v>
+        <v>-0.002256762914553191</v>
       </c>
       <c r="P15">
-        <v>-0.001651215663103189</v>
+        <v>-0.001651215637087004</v>
       </c>
       <c r="Q15">
-        <v>-0.001720588479764509</v>
+        <v>-0.001720588453068935</v>
       </c>
       <c r="R15">
-        <v>-0.004639160359853301</v>
+        <v>-0.004639160304899525</v>
       </c>
       <c r="S15">
-        <v>-4.76979400619451E-09</v>
+        <v>-4.7697939365985E-09</v>
       </c>
       <c r="T15">
-        <v>-3.85839152277306E-06</v>
+        <v>-3.858391489398647E-06</v>
       </c>
       <c r="U15">
-        <v>-0.0469117441184283</v>
+        <v>-0.04691174357357726</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
-        <v>-0.01477945739189157</v>
+        <v>-0.01476381588194658</v>
       </c>
       <c r="B16">
-        <v>-4.899457814887314</v>
+        <v>-4.903203330181445</v>
       </c>
       <c r="C16">
-        <v>-0.1584830898799402</v>
+        <v>-0.1583765789874584</v>
       </c>
       <c r="D16">
-        <v>-0.2086313429018356</v>
+        <v>-0.2084479361248384</v>
       </c>
       <c r="E16">
-        <v>-11.62089079592405</v>
+        <v>-11.58397909973412</v>
       </c>
       <c r="F16">
-        <v>-1.332573648195479</v>
+        <v>-1.331877408586121</v>
       </c>
       <c r="G16">
-        <v>-0.001880765834612224</v>
+        <v>-0.001881148465885649</v>
       </c>
       <c r="H16">
-        <v>-0.0006523007277138846</v>
+        <v>-0.0006427168145688388</v>
       </c>
       <c r="I16">
-        <v>-0.2268308893292433</v>
+        <v>-0.2269238291412554</v>
       </c>
       <c r="J16">
-        <v>-5.272234545122501</v>
+        <v>-5.258884978842222</v>
       </c>
       <c r="K16">
-        <v>-0.316080624101225</v>
+        <v>-0.3174956659840177</v>
       </c>
       <c r="L16">
-        <v>-1.228870007891447</v>
+        <v>-1.228873525466516</v>
       </c>
       <c r="M16">
-        <v>-0.1589581658453778</v>
+        <v>-0.1589738701316502</v>
       </c>
       <c r="N16">
-        <v>-2.482102612705998E-06</v>
+        <v>-2.487532935270503E-06</v>
       </c>
       <c r="O16">
-        <v>-0.008112575564751163</v>
+        <v>-0.008076954116851626</v>
       </c>
       <c r="P16">
-        <v>-0.01102698545943207</v>
+        <v>-0.01100910377708654</v>
       </c>
       <c r="Q16">
-        <v>-0.01143249774403556</v>
+        <v>-0.01141428005291815</v>
       </c>
       <c r="R16">
-        <v>-0.05176817050939423</v>
+        <v>-0.05179452408233267</v>
       </c>
       <c r="S16">
-        <v>-3.075354991915654E-08</v>
+        <v>-3.075812082220623E-08</v>
       </c>
       <c r="T16">
-        <v>-1.17297496518704E-05</v>
+        <v>-1.170814457294895E-05</v>
       </c>
       <c r="U16">
-        <v>-0.3912979453474557</v>
+        <v>-0.3912364610106914</v>
       </c>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
-        <v>-0.0002716546416958429</v>
+        <v>-0.0002716546743460533</v>
       </c>
       <c r="B17">
-        <v>-2.372984745993655</v>
+        <v>-2.372984759501264</v>
       </c>
       <c r="C17">
-        <v>-0.1201199388886673</v>
+        <v>-0.1201199395087179</v>
       </c>
       <c r="D17">
-        <v>-0.1599610760335157</v>
+        <v>-0.1599610768884556</v>
       </c>
       <c r="E17">
-        <v>-1.265781189363938</v>
+        <v>-1.265781258814501</v>
       </c>
       <c r="F17">
-        <v>-0.007903464396226474</v>
+        <v>-0.007903466749704159</v>
       </c>
       <c r="G17">
-        <v>-5.236324499337495E-06</v>
+        <v>-5.236327699030902E-06</v>
       </c>
       <c r="H17">
-        <v>-2.145683914938991E-05</v>
+        <v>-2.145683955733591E-05</v>
       </c>
       <c r="I17">
-        <v>-0.02399119023610284</v>
+        <v>-0.0239911945394458</v>
       </c>
       <c r="J17">
-        <v>-2.349946984005501</v>
+        <v>-2.349946998338898</v>
       </c>
       <c r="K17">
-        <v>-0.001044696339054984</v>
+        <v>-0.0010446972741067</v>
       </c>
       <c r="L17">
-        <v>-0.0005566545956646788</v>
+        <v>-0.0005566571239411703</v>
       </c>
       <c r="M17">
-        <v>-0.00126572318817554</v>
+        <v>-0.00126572364552167</v>
       </c>
       <c r="N17">
-        <v>-1.017244141799339E-06</v>
+        <v>-1.017244146071642E-06</v>
       </c>
       <c r="O17">
-        <v>-9.178312954108074E-05</v>
+        <v>-9.178314978858717E-05</v>
       </c>
       <c r="P17">
-        <v>-0.000602711975125205</v>
+        <v>-0.0006027120179277707</v>
       </c>
       <c r="Q17">
-        <v>-0.0006068256949990293</v>
+        <v>-0.0006068257393793119</v>
       </c>
       <c r="R17">
-        <v>-0.003723410345944578</v>
+        <v>-0.003723410408940495</v>
       </c>
       <c r="S17">
-        <v>-6.903281018037066E-09</v>
+        <v>-6.903281094408074E-09</v>
       </c>
       <c r="T17">
-        <v>-2.884956386932209E-06</v>
+        <v>-2.884956429940015E-06</v>
       </c>
       <c r="U17">
-        <v>-0.002983724638213077</v>
+        <v>-0.002983725458046985</v>
       </c>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
-        <v>-0.0001933860012174173</v>
+        <v>-0.0001933860104009694</v>
       </c>
       <c r="B18">
-        <v>-3.020426940141304</v>
+        <v>-3.020426943793808</v>
       </c>
       <c r="C18">
-        <v>-0.1585863090566345</v>
+        <v>-0.1585863092549245</v>
       </c>
       <c r="D18">
-        <v>-0.2296331743627066</v>
+        <v>-0.2296331746341369</v>
       </c>
       <c r="E18">
-        <v>-8.833295453761567</v>
+        <v>-8.833295475952461</v>
       </c>
       <c r="F18">
-        <v>-0.005003262105977058</v>
+        <v>-0.005003262758421083</v>
       </c>
       <c r="G18">
-        <v>-2.65562301786662E-06</v>
+        <v>-2.655623935642345E-06</v>
       </c>
       <c r="H18">
-        <v>-4.732000232212356E-06</v>
+        <v>-4.732000337915369E-06</v>
       </c>
       <c r="I18">
-        <v>-0.009831377185374083</v>
+        <v>-0.009831378371137903</v>
       </c>
       <c r="J18">
-        <v>-1.91764319085484</v>
+        <v>-1.917643195178854</v>
       </c>
       <c r="K18">
-        <v>-0.0004283465251370795</v>
+        <v>-0.000428346776960543</v>
       </c>
       <c r="L18">
-        <v>-0.0003125651451372739</v>
+        <v>-0.000312567099442515</v>
       </c>
       <c r="M18">
-        <v>-0.0006251338088407954</v>
+        <v>-0.0006251339260241882</v>
       </c>
       <c r="N18">
-        <v>-2.204923862465858E-07</v>
+        <v>-2.20492387435228E-07</v>
       </c>
       <c r="O18">
-        <v>-6.373949597655066E-05</v>
+        <v>-6.373950169363868E-05</v>
       </c>
       <c r="P18">
-        <v>-0.0004646641416800694</v>
+        <v>-0.0004646641540698428</v>
       </c>
       <c r="Q18">
-        <v>-0.0004671485310649752</v>
+        <v>-0.000467148543908501</v>
       </c>
       <c r="R18">
-        <v>-0.001527600900462087</v>
+        <v>-0.001527600917482931</v>
       </c>
       <c r="S18">
-        <v>-8.798283366888499E-09</v>
+        <v>-8.798283399102229E-09</v>
       </c>
       <c r="T18">
-        <v>-3.317026254332378E-06</v>
+        <v>-3.317026266290333E-06</v>
       </c>
       <c r="U18">
-        <v>-0.001836593968085755</v>
+        <v>-0.001836594195488294</v>
       </c>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
-        <v>-0.0001646121334341139</v>
+        <v>-0.0001646121403098488</v>
       </c>
       <c r="B19">
-        <v>-2.551055179404839</v>
+        <v>-2.551055182060567</v>
       </c>
       <c r="C19">
-        <v>-0.1339373210460392</v>
+        <v>-0.1339373212036464</v>
       </c>
       <c r="D19">
-        <v>-0.1939394978527385</v>
+        <v>-0.1939394980663949</v>
       </c>
       <c r="E19">
-        <v>-7.460966732758634</v>
+        <v>-7.460966749717919</v>
       </c>
       <c r="F19">
-        <v>-0.004357871321642096</v>
+        <v>-0.004357871794040472</v>
       </c>
       <c r="G19">
-        <v>-2.414200869862027E-06</v>
+        <v>-2.414201551910467E-06</v>
       </c>
       <c r="H19">
-        <v>-4.015526138951434E-06</v>
+        <v>-4.015526216764942E-06</v>
       </c>
       <c r="I19">
-        <v>-0.00860098429241323</v>
+        <v>-0.008600985168060685</v>
       </c>
       <c r="J19">
-        <v>-1.619602095184533</v>
+        <v>-1.619602098474255</v>
       </c>
       <c r="K19">
-        <v>-0.0003773715145485944</v>
+        <v>-0.0003773716988823912</v>
       </c>
       <c r="L19">
-        <v>-0.0002772542754778378</v>
+        <v>-0.000277255187921074</v>
       </c>
       <c r="M19">
-        <v>-0.0005834807729167135</v>
+        <v>-0.00058348085804307</v>
       </c>
       <c r="N19">
-        <v>-1.862772741817579E-07</v>
+        <v>-1.862772750528595E-07</v>
       </c>
       <c r="O19">
-        <v>-5.554319241728053E-05</v>
+        <v>-5.554319664904529E-05</v>
       </c>
       <c r="P19">
-        <v>-0.0003938720994992174</v>
+        <v>-0.0003938721086995282</v>
       </c>
       <c r="Q19">
-        <v>-0.0003961234665900536</v>
+        <v>-0.0003961234761029686</v>
       </c>
       <c r="R19">
-        <v>-0.00144933089009208</v>
+        <v>-0.001449330902589829</v>
       </c>
       <c r="S19">
-        <v>-7.431743776871503E-09</v>
+        <v>-7.431743795874824E-09</v>
       </c>
       <c r="T19">
-        <v>-2.803970325481578E-06</v>
+        <v>-2.803970334301692E-06</v>
       </c>
       <c r="U19">
-        <v>-0.001600391990695953</v>
+        <v>-0.0016003921544083</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20">
-        <v>-0.001398397581184816</v>
+        <v>-0.00139839759470386</v>
       </c>
       <c r="B20">
-        <v>-0.756763864880609</v>
+        <v>-0.7567638709402809</v>
       </c>
       <c r="C20">
-        <v>-0.01833915536424115</v>
+        <v>-0.0183391556741781</v>
       </c>
       <c r="D20">
-        <v>-0.0243450870295093</v>
+        <v>-0.02434508745291461</v>
       </c>
       <c r="E20">
-        <v>-0.1475127955960535</v>
+        <v>-0.1475128307940548</v>
       </c>
       <c r="F20">
-        <v>-0.02691727956332792</v>
+        <v>-0.02691728068745806</v>
       </c>
       <c r="G20">
-        <v>-9.761806932078743E-06</v>
+        <v>-9.76180840677953E-06</v>
       </c>
       <c r="H20">
-        <v>-0.0002333030147861567</v>
+        <v>-0.000233303014933875</v>
       </c>
       <c r="I20">
-        <v>-0.006488520754967942</v>
+        <v>-0.006488522555357709</v>
       </c>
       <c r="J20">
-        <v>-0.4347469527384233</v>
+        <v>-0.4347469594398666</v>
       </c>
       <c r="K20">
-        <v>-0.001827152487230087</v>
+        <v>-0.001827152931093627</v>
       </c>
       <c r="L20">
-        <v>-0.0007984158734591196</v>
+        <v>-0.0007984184340826287</v>
       </c>
       <c r="M20">
-        <v>-0.002098156488668818</v>
+        <v>-0.002098156650675921</v>
       </c>
       <c r="N20">
-        <v>-1.167375885963746E-05</v>
+        <v>-1.16737588616235E-05</v>
       </c>
       <c r="O20">
-        <v>-0.0004388304007215506</v>
+        <v>-0.000438830409828772</v>
       </c>
       <c r="P20">
-        <v>-0.003158334710619624</v>
+        <v>-0.003158334731072893</v>
       </c>
       <c r="Q20">
-        <v>-0.00316901231354535</v>
+        <v>-0.003169012334903813</v>
       </c>
       <c r="R20">
-        <v>-0.002121980061079497</v>
+        <v>-0.002121980087500718</v>
       </c>
       <c r="S20">
-        <v>-2.854795982289358E-09</v>
+        <v>-2.854796029258457E-09</v>
       </c>
       <c r="T20">
-        <v>-1.113230965826369E-06</v>
+        <v>-1.113230984762228E-06</v>
       </c>
       <c r="U20">
-        <v>-0.009696643850768743</v>
+        <v>-0.009696644248355811</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
-        <v>0.0001261905832542976</v>
+        <v>0.0001261905845031561</v>
       </c>
       <c r="B21">
-        <v>0.02879883961705175</v>
+        <v>0.02879883983355841</v>
       </c>
       <c r="C21">
-        <v>0.001112296765798904</v>
+        <v>0.001112296814764757</v>
       </c>
       <c r="D21">
-        <v>0.001234720908812559</v>
+        <v>0.0012347209715352</v>
       </c>
       <c r="E21">
-        <v>0.06967609431555769</v>
+        <v>0.06967609824560654</v>
       </c>
       <c r="F21">
-        <v>0.01615642984626422</v>
+        <v>0.01615642991562164</v>
       </c>
       <c r="G21">
-        <v>1.054829811230123E-05</v>
+        <v>1.054829821994841E-05</v>
       </c>
       <c r="H21">
-        <v>4.407674555061849E-05</v>
+        <v>4.40767455602505E-05</v>
       </c>
       <c r="I21">
-        <v>0.001160680096479592</v>
+        <v>0.001160680208123667</v>
       </c>
       <c r="J21">
-        <v>0.02244031916010066</v>
+        <v>0.02244031984168354</v>
       </c>
       <c r="K21">
-        <v>0.001612776862594742</v>
+        <v>0.001612776863802791</v>
       </c>
       <c r="L21">
-        <v>0.006488737409518705</v>
+        <v>0.006488737486137857</v>
       </c>
       <c r="M21">
-        <v>0.0001793382167446029</v>
+        <v>0.0001793382339907901</v>
       </c>
       <c r="N21">
-        <v>5.482244098377742E-08</v>
+        <v>5.482244103872996E-08</v>
       </c>
       <c r="O21">
-        <v>3.862852102352074E-05</v>
+        <v>3.862852156388514E-05</v>
       </c>
       <c r="P21">
-        <v>0.0005472006679622113</v>
+        <v>0.0005472006692145773</v>
       </c>
       <c r="Q21">
-        <v>0.000846036845636313</v>
+        <v>0.0008460368469738539</v>
       </c>
       <c r="R21">
-        <v>0.004795436072129097</v>
+        <v>0.004795436073604921</v>
       </c>
       <c r="S21">
-        <v>2.829306150004426E-10</v>
+        <v>2.829306168816325E-10</v>
       </c>
       <c r="T21">
-        <v>7.115852825133252E-08</v>
+        <v>7.115852932233049E-08</v>
       </c>
       <c r="U21">
-        <v>0.006193426805247373</v>
+        <v>0.006193426832380479</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_apos/data_uniquie_case1_apos_recipe.xlsx
+++ b/results/case1_apos/data_uniquie_case1_apos_recipe.xlsx
@@ -14,69 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'climate change', 'global warming potential (GWP1000)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'land use', 'agricultural land occupation (LOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'water use', 'water consumption potential (WCP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: ecosystem quality', 'ecosystem quality')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: human health', 'human health')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'climate change', 'global warming potential (GWP1000)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'land use', 'agricultural land occupation (LOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'water use', 'water consumption potential (WCP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: ecosystem quality', 'ecosystem quality')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: human health', 'human health')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) - no biogenic', 'total: natural resources', 'natural resources')</t>
+  </si>
+  <si>
+    <t>'H200' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'H400' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'alubox (large)' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'alubox (small)' (unit, GLO, None)</t>
+  </si>
+  <si>
+    <t>'autoclave' (unit, DK, None)</t>
+  </si>
+  <si>
+    <t>'market for aluminium, cast alloy' (kilogram, GLO, None)</t>
+  </si>
+  <si>
+    <t>'market for electricity, high voltage' (kilowatt hour, DK, None)</t>
+  </si>
+  <si>
+    <t>'market for polypropylene, granulate' (kilogram, GLO, None)</t>
+  </si>
+  <si>
+    <t>'mechanical disinfection' (unit, DK, None)</t>
+  </si>
+  <si>
+    <t>'mixed heating grid' (megajoule, DK, None)</t>
+  </si>
+  <si>
+    <t>'polyethylene production, high density, granulate, recycled' (kilogram, Europe without Switzerland, None)</t>
+  </si>
+  <si>
+    <t>'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)</t>
+  </si>
+  <si>
+    <t>'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)</t>
+  </si>
+  <si>
+    <t>'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)</t>
+  </si>
+  <si>
+    <t>'treatment of waste paper, unsorted, sorting' (kilogram, Europe without Switzerland, None)</t>
+  </si>
+  <si>
+    <t>'treatment of waste plastic, mixture, municipal incineration with fly ash extraction' (kilogram, CH, None)</t>
+  </si>
+  <si>
+    <t>'treatment of waste polyethylene, municipal incineration with fly ash extraction' (kilogram, CH, None)</t>
+  </si>
+  <si>
+    <t>'treatment of waste polypropylene, municipal incineration with fly ash extraction' (kilogram, CH, None)</t>
+  </si>
+  <si>
+    <t>'treatment of waste textile, soiled, municipal incineration with fly ash extraction' (kilogram, CH, None)</t>
+  </si>
+  <si>
+    <t>'wet wipe' (unit, GLO, None)</t>
   </si>
 </sst>
 </file>
@@ -434,1375 +494,1435 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2">
-        <v>0.0007188409811598503</v>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B2">
-        <v>0.247667884169238</v>
+        <v>0.000718840980205548</v>
       </c>
       <c r="C2">
-        <v>0.007819006924819134</v>
+        <v>0.2476678840660577</v>
       </c>
       <c r="D2">
-        <v>0.01032082863136484</v>
+        <v>0.007819006893290447</v>
       </c>
       <c r="E2">
-        <v>0.6751937338483626</v>
+        <v>0.01032082859007828</v>
       </c>
       <c r="F2">
-        <v>0.1497597922898768</v>
+        <v>0.6751937313387222</v>
       </c>
       <c r="G2">
-        <v>5.541602747309945E-05</v>
+        <v>0.1497597922734379</v>
       </c>
       <c r="H2">
-        <v>7.917950054207846E-06</v>
+        <v>5.541602741584954E-05</v>
       </c>
       <c r="I2">
-        <v>0.009957966219641127</v>
+        <v>7.917950045584797E-06</v>
       </c>
       <c r="J2">
-        <v>0.1553441636421933</v>
+        <v>0.009957966158240931</v>
       </c>
       <c r="K2">
-        <v>0.01109664910736055</v>
+        <v>0.1553441631352923</v>
       </c>
       <c r="L2">
-        <v>0.004202585039371011</v>
+        <v>0.01109664910730486</v>
       </c>
       <c r="M2">
-        <v>0.002064263609871142</v>
+        <v>0.004202584329120736</v>
       </c>
       <c r="N2">
-        <v>4.733840433402183E-08</v>
+        <v>0.002064263599177728</v>
       </c>
       <c r="O2">
-        <v>0.0003099036910400239</v>
+        <v>4.733840427421669E-08</v>
       </c>
       <c r="P2">
-        <v>0.000581879790948417</v>
+        <v>0.0003099036906428558</v>
       </c>
       <c r="Q2">
-        <v>0.0006164942737989614</v>
+        <v>0.0005818797899867289</v>
       </c>
       <c r="R2">
-        <v>0.001999873638805205</v>
+        <v>0.0006164942728512594</v>
       </c>
       <c r="S2">
-        <v>1.014262135748798E-09</v>
+        <v>0.001999873638186589</v>
       </c>
       <c r="T2">
-        <v>4.981147820756165E-07</v>
+        <v>1.014262128737483E-09</v>
       </c>
       <c r="U2">
-        <v>0.05704845509046995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3">
-        <v>0.002056819863669496</v>
+        <v>4.981147814084986E-07</v>
+      </c>
+      <c r="V2">
+        <v>0.05704845508441566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B3">
-        <v>0.7087357357939408</v>
+        <v>0.002056819901330693</v>
       </c>
       <c r="C3">
-        <v>0.02236901110695293</v>
+        <v>0.7087357402266669</v>
       </c>
       <c r="D3">
-        <v>0.02952714644563127</v>
+        <v>0.02236901011498017</v>
       </c>
       <c r="E3">
-        <v>1.930445248609966</v>
+        <v>0.02952714521218193</v>
       </c>
       <c r="F3">
-        <v>0.4284511106208858</v>
+        <v>1.93044519908796</v>
       </c>
       <c r="G3">
-        <v>0.0001588899572898265</v>
+        <v>0.4284511114593128</v>
       </c>
       <c r="H3">
-        <v>2.293560697871747E-05</v>
+        <v>0.0001588899561332311</v>
       </c>
       <c r="I3">
-        <v>0.02851041911020474</v>
+        <v>2.293560699892299E-05</v>
       </c>
       <c r="J3">
-        <v>0.4448101342144495</v>
+        <v>0.02851042171359949</v>
       </c>
       <c r="K3">
-        <v>0.03191440753664197</v>
+        <v>0.4448101220556533</v>
       </c>
       <c r="L3">
-        <v>0.01225292467247306</v>
+        <v>0.03191440722855571</v>
       </c>
       <c r="M3">
-        <v>0.005902611103434651</v>
+        <v>0.0122529328828411</v>
       </c>
       <c r="N3">
-        <v>1.357905332916981E-07</v>
+        <v>0.005902611033401841</v>
       </c>
       <c r="O3">
-        <v>0.0008865844769858729</v>
+        <v>1.357905381587454E-07</v>
       </c>
       <c r="P3">
-        <v>0.001665484544905806</v>
+        <v>0.0008865845041326379</v>
       </c>
       <c r="Q3">
-        <v>0.001764859588806121</v>
+        <v>0.001665484659144062</v>
       </c>
       <c r="R3">
-        <v>0.005755801669799746</v>
+        <v>0.00176485970165454</v>
       </c>
       <c r="S3">
-        <v>2.904679279849177E-09</v>
+        <v>0.005755801648569254</v>
       </c>
       <c r="T3">
-        <v>1.425452801509515E-06</v>
+        <v>2.904679385528601E-09</v>
       </c>
       <c r="U3">
-        <v>0.1631995272607774</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4">
-        <v>0.2943253364861671</v>
+        <v>1.425452828629E-06</v>
+      </c>
+      <c r="V3">
+        <v>0.1631995276265299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B4">
-        <v>68.45320096704866</v>
+        <v>0.2943253368859042</v>
       </c>
       <c r="C4">
-        <v>3.357965299457031</v>
+        <v>68.45320103502273</v>
       </c>
       <c r="D4">
-        <v>4.413773657875671</v>
+        <v>3.357965295212404</v>
       </c>
       <c r="E4">
-        <v>123.2518287154059</v>
+        <v>4.413773652082526</v>
       </c>
       <c r="F4">
-        <v>15.56085508066393</v>
+        <v>123.2518286943829</v>
       </c>
       <c r="G4">
-        <v>0.02520925911386088</v>
+        <v>15.56085510554304</v>
       </c>
       <c r="H4">
-        <v>0.002979222698428767</v>
+        <v>0.02520925910359249</v>
       </c>
       <c r="I4">
-        <v>12.1628743265193</v>
+        <v>0.002979222696783258</v>
       </c>
       <c r="J4">
-        <v>70.09164908170568</v>
+        <v>12.16287431258298</v>
       </c>
       <c r="K4">
-        <v>4.85972027396117</v>
+        <v>70.09164901054696</v>
       </c>
       <c r="L4">
-        <v>1.402616518486413</v>
+        <v>4.859720273497415</v>
       </c>
       <c r="M4">
-        <v>1.034702680667639</v>
+        <v>1.402616746362602</v>
       </c>
       <c r="N4">
-        <v>1.742734936460307E-05</v>
+        <v>1.03470267720871</v>
       </c>
       <c r="O4">
-        <v>0.1282485280677441</v>
+        <v>1.742734942378956E-05</v>
       </c>
       <c r="P4">
-        <v>0.1722988581972937</v>
+        <v>0.1282485283644108</v>
       </c>
       <c r="Q4">
-        <v>0.1761100088324129</v>
+        <v>0.1722988594941264</v>
       </c>
       <c r="R4">
-        <v>0.7084157546181228</v>
+        <v>0.1761100101566926</v>
       </c>
       <c r="S4">
-        <v>3.103666033653715E-07</v>
+        <v>0.7084157543968523</v>
       </c>
       <c r="T4">
-        <v>0.0002022324333532054</v>
+        <v>3.103666058234169E-07</v>
       </c>
       <c r="U4">
-        <v>3.403498115676458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5">
-        <v>0.1754461283452135</v>
+        <v>0.0002022324335411112</v>
+      </c>
+      <c r="V4">
+        <v>3.40349812716002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>40.76598375884162</v>
+        <v>0.1754461285550095</v>
       </c>
       <c r="C5">
-        <v>2.001412983339527</v>
+        <v>40.76598379367656</v>
       </c>
       <c r="D5">
-        <v>2.630768078118329</v>
+        <v>2.001412980002499</v>
       </c>
       <c r="E5">
-        <v>73.21254494712655</v>
+        <v>2.630768073702693</v>
       </c>
       <c r="F5">
-        <v>9.232569719436176</v>
+        <v>73.21254488173425</v>
       </c>
       <c r="G5">
-        <v>0.01502262953052239</v>
+        <v>9.232569732566866</v>
       </c>
       <c r="H5">
-        <v>0.001773394472304132</v>
+        <v>0.01502262952185446</v>
       </c>
       <c r="I5">
-        <v>7.261148097207887</v>
+        <v>0.001773394471117665</v>
       </c>
       <c r="J5">
-        <v>41.75501460043354</v>
+        <v>7.261148086792589</v>
       </c>
       <c r="K5">
-        <v>2.895257098238357</v>
+        <v>41.75501454431235</v>
       </c>
       <c r="L5">
-        <v>0.8361562203688041</v>
+        <v>2.895257097797135</v>
       </c>
       <c r="M5">
-        <v>0.6150978310236598</v>
+        <v>0.8361560546122228</v>
       </c>
       <c r="N5">
-        <v>1.037429756664022E-05</v>
+        <v>0.6150978286846447</v>
       </c>
       <c r="O5">
-        <v>0.07642905857131102</v>
+        <v>1.037429759882479E-05</v>
       </c>
       <c r="P5">
-        <v>0.1026489581295644</v>
+        <v>0.07642905873035111</v>
       </c>
       <c r="Q5">
-        <v>0.1049021476112367</v>
+        <v>0.1026489588486824</v>
       </c>
       <c r="R5">
-        <v>0.4207809715685594</v>
+        <v>0.104902148345052</v>
       </c>
       <c r="S5">
-        <v>1.848844153649208E-07</v>
+        <v>0.4207809714048858</v>
       </c>
       <c r="T5">
-        <v>0.0001205286435282702</v>
+        <v>1.84884414120908E-07</v>
       </c>
       <c r="U5">
-        <v>2.010463317994915</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6">
-        <v>0.009244927357283961</v>
+        <v>0.0001205286436135661</v>
+      </c>
+      <c r="V5">
+        <v>2.01046332417743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>2.67109178263346</v>
+        <v>0.009244927382398346</v>
       </c>
       <c r="C6">
-        <v>0.5528633179231774</v>
+        <v>2.671091788243652</v>
       </c>
       <c r="D6">
-        <v>0.6978899106676054</v>
+        <v>0.552863318080157</v>
       </c>
       <c r="E6">
-        <v>28.38506774815999</v>
+        <v>0.6978899108768714</v>
       </c>
       <c r="F6">
-        <v>0.683958264938031</v>
+        <v>28.38506776123183</v>
       </c>
       <c r="G6">
-        <v>0.002701484737707213</v>
+        <v>0.6839582667438484</v>
       </c>
       <c r="H6">
-        <v>0.001849573459869806</v>
+        <v>0.00270148473794219</v>
       </c>
       <c r="I6">
-        <v>0.2576173483686454</v>
+        <v>0.001849573459941016</v>
       </c>
       <c r="J6">
-        <v>8.056915080367936</v>
+        <v>0.2576173488822108</v>
       </c>
       <c r="K6">
-        <v>0.7222525116859611</v>
+        <v>8.056915081965801</v>
       </c>
       <c r="L6">
-        <v>0.5164372540471424</v>
+        <v>0.7222525116103895</v>
       </c>
       <c r="M6">
-        <v>0.04237846803616288</v>
+        <v>0.5164372548317208</v>
       </c>
       <c r="N6">
-        <v>3.23291237344853E-06</v>
+        <v>0.04237846818314783</v>
       </c>
       <c r="O6">
-        <v>0.003220264615257348</v>
+        <v>3.23291237584728E-06</v>
       </c>
       <c r="P6">
-        <v>0.005711523730011547</v>
+        <v>0.00322026462969583</v>
       </c>
       <c r="Q6">
-        <v>0.00585692627832647</v>
+        <v>0.005711523783248412</v>
       </c>
       <c r="R6">
-        <v>0.04998574872872378</v>
+        <v>0.005856926333987099</v>
       </c>
       <c r="S6">
-        <v>1.73679955493725E-08</v>
+        <v>0.04998574873710204</v>
       </c>
       <c r="T6">
-        <v>7.318254703954673E-06</v>
+        <v>1.73679955849907E-08</v>
       </c>
       <c r="U6">
-        <v>0.1417827677061511</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7">
-        <v>0.02902244542430192</v>
+        <v>7.318254720376952E-06</v>
+      </c>
+      <c r="V6">
+        <v>0.1417827684992751</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B7">
-        <v>6.228141668946606</v>
+        <v>0.02902244542582276</v>
       </c>
       <c r="C7">
-        <v>0.6640835483571231</v>
+        <v>6.228141670179149</v>
       </c>
       <c r="D7">
-        <v>0.8329495209904196</v>
+        <v>0.6640835463770041</v>
       </c>
       <c r="E7">
-        <v>12.80552593346495</v>
+        <v>0.8329495184351323</v>
       </c>
       <c r="F7">
-        <v>1.348170301411043</v>
+        <v>12.80552580944193</v>
       </c>
       <c r="G7">
-        <v>0.002040920522992525</v>
+        <v>1.348170302348766</v>
       </c>
       <c r="H7">
-        <v>0.0001908085488379462</v>
+        <v>0.002040920519859374</v>
       </c>
       <c r="I7">
-        <v>1.273275911686027</v>
+        <v>0.0001908085485220742</v>
       </c>
       <c r="J7">
-        <v>7.119922562361025</v>
+        <v>1.273275908951671</v>
       </c>
       <c r="K7">
-        <v>0.1261886621416076</v>
+        <v>7.119922533447167</v>
       </c>
       <c r="L7">
-        <v>0.1229539570839675</v>
+        <v>0.1261886621804321</v>
       </c>
       <c r="M7">
-        <v>0.1164501329155831</v>
+        <v>0.1229539586313589</v>
       </c>
       <c r="N7">
-        <v>1.446783614455184E-06</v>
+        <v>0.1164501321932272</v>
       </c>
       <c r="O7">
-        <v>0.01272392788614249</v>
+        <v>1.446783617787292E-06</v>
       </c>
       <c r="P7">
-        <v>0.0168424469298209</v>
+        <v>0.01272392789724118</v>
       </c>
       <c r="Q7">
-        <v>0.01720047753422898</v>
+        <v>0.01684244700782263</v>
       </c>
       <c r="R7">
-        <v>0.04159120130286757</v>
+        <v>0.01720047761346649</v>
       </c>
       <c r="S7">
-        <v>2.896670089442743E-08</v>
+        <v>0.04159120126204891</v>
       </c>
       <c r="T7">
-        <v>1.973293160153449E-05</v>
+        <v>2.896670091700548E-08</v>
       </c>
       <c r="U7">
-        <v>0.2827709731700116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8">
-        <v>0.0005067527180322667</v>
+        <v>1.973293159397893E-05</v>
+      </c>
+      <c r="V7">
+        <v>0.2827709736292372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B8">
-        <v>0.2090725152406045</v>
+        <v>0.0005067527199155063</v>
       </c>
       <c r="C8">
-        <v>0.01296366966570273</v>
+        <v>0.2090725156197414</v>
       </c>
       <c r="D8">
-        <v>0.01690435056183636</v>
+        <v>0.01296366969335356</v>
       </c>
       <c r="E8">
-        <v>0.5827243694076568</v>
+        <v>0.01690435059727246</v>
       </c>
       <c r="F8">
-        <v>0.05504801745321211</v>
+        <v>0.5827243720745789</v>
       </c>
       <c r="G8">
-        <v>0.000173750451443888</v>
+        <v>0.05504801758105256</v>
       </c>
       <c r="H8">
-        <v>1.504736300358873E-05</v>
+        <v>0.0001737504514651096</v>
       </c>
       <c r="I8">
-        <v>0.01732092611953631</v>
+        <v>1.504736300666641E-05</v>
       </c>
       <c r="J8">
-        <v>0.3091297156698722</v>
+        <v>0.01732092609949253</v>
       </c>
       <c r="K8">
-        <v>0.06332676010098229</v>
+        <v>0.309129716018389</v>
       </c>
       <c r="L8">
-        <v>0.04609386010113955</v>
+        <v>0.06332676009305073</v>
       </c>
       <c r="M8">
-        <v>0.001418518081755819</v>
+        <v>0.04609386079513141</v>
       </c>
       <c r="N8">
-        <v>2.385586339756088E-07</v>
+        <v>0.001418518085485317</v>
       </c>
       <c r="O8">
-        <v>0.0001724650706276629</v>
+        <v>2.385586341407993E-07</v>
       </c>
       <c r="P8">
-        <v>0.0004212607913515487</v>
+        <v>0.0001724650716542468</v>
       </c>
       <c r="Q8">
-        <v>0.0004307690267208157</v>
+        <v>0.0004212607950346689</v>
       </c>
       <c r="R8">
-        <v>0.003780097135753995</v>
+        <v>0.0004307690305891345</v>
       </c>
       <c r="S8">
-        <v>1.291043715760717E-09</v>
+        <v>0.003780097136074294</v>
       </c>
       <c r="T8">
-        <v>4.398194463762911E-07</v>
+        <v>1.291043723948638E-09</v>
       </c>
       <c r="U8">
-        <v>0.01027810306893028</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9">
-        <v>0.006306595076696156</v>
+        <v>4.398194473905907E-07</v>
+      </c>
+      <c r="V8">
+        <v>0.01027810312525576</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B9">
-        <v>2.380157149725954</v>
+        <v>0.006306595069387435</v>
       </c>
       <c r="C9">
-        <v>0.05477911221292024</v>
+        <v>2.380157148956604</v>
       </c>
       <c r="D9">
-        <v>0.07305764844927197</v>
+        <v>0.05477911200731081</v>
       </c>
       <c r="E9">
-        <v>5.04000275768492</v>
+        <v>0.07305764817929847</v>
       </c>
       <c r="F9">
-        <v>1.712789179389748</v>
+        <v>5.040002740236424</v>
       </c>
       <c r="G9">
-        <v>0.0003918421386882798</v>
+        <v>1.712789179243686</v>
       </c>
       <c r="H9">
-        <v>3.966915328287343E-05</v>
+        <v>0.0003918421383270658</v>
       </c>
       <c r="I9">
-        <v>0.08680594111722587</v>
+        <v>3.966915322578381E-05</v>
       </c>
       <c r="J9">
-        <v>1.158757442432083</v>
+        <v>0.08680594076498781</v>
       </c>
       <c r="K9">
-        <v>0.04720858713935897</v>
+        <v>1.158757439044073</v>
       </c>
       <c r="L9">
-        <v>0.0186027238699317</v>
+        <v>0.04720858711893604</v>
       </c>
       <c r="M9">
-        <v>0.01829508963380733</v>
+        <v>0.01860273576953305</v>
       </c>
       <c r="N9">
-        <v>2.736037944043718E-07</v>
+        <v>0.01829508957223332</v>
       </c>
       <c r="O9">
-        <v>0.002394198322372369</v>
+        <v>2.73603793903828E-07</v>
       </c>
       <c r="P9">
-        <v>0.004936109179712056</v>
+        <v>0.00239419831922199</v>
       </c>
       <c r="Q9">
-        <v>0.005285702146274324</v>
+        <v>0.004936109171216043</v>
       </c>
       <c r="R9">
-        <v>0.01750248359093526</v>
+        <v>0.0052857021378342</v>
       </c>
       <c r="S9">
-        <v>9.216777629394418E-09</v>
+        <v>0.01750248358708005</v>
       </c>
       <c r="T9">
-        <v>4.309032932274201E-06</v>
+        <v>9.216777729619526E-09</v>
       </c>
       <c r="U9">
-        <v>0.6779803097664738</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10">
-        <v>0.01200669501731978</v>
+        <v>4.309032927621152E-06</v>
+      </c>
+      <c r="V9">
+        <v>0.6779803097079687</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B10">
-        <v>3.587527167681221</v>
+        <v>0.01200669503936872</v>
       </c>
       <c r="C10">
-        <v>0.751780094754973</v>
+        <v>3.587527172670878</v>
       </c>
       <c r="D10">
-        <v>0.9481721065714852</v>
+        <v>0.7517800948365879</v>
       </c>
       <c r="E10">
-        <v>38.26014001619105</v>
+        <v>0.9481721066621143</v>
       </c>
       <c r="F10">
-        <v>0.9240508134104934</v>
+        <v>38.26014002198505</v>
       </c>
       <c r="G10">
-        <v>0.003421066274917377</v>
+        <v>0.9240508151475781</v>
       </c>
       <c r="H10">
-        <v>0.001526492695096433</v>
+        <v>0.003421066274629094</v>
       </c>
       <c r="I10">
-        <v>0.339150916410115</v>
+        <v>0.001526492695097333</v>
       </c>
       <c r="J10">
-        <v>10.44931193834718</v>
+        <v>0.3391509159211953</v>
       </c>
       <c r="K10">
-        <v>0.9969395000393261</v>
+        <v>10.44931193819133</v>
       </c>
       <c r="L10">
-        <v>0.7087071701528006</v>
+        <v>0.9969394998992946</v>
       </c>
       <c r="M10">
-        <v>0.04612468537678639</v>
+        <v>0.7087071472841276</v>
       </c>
       <c r="N10">
-        <v>4.133022779551359E-06</v>
+        <v>0.04612468544953988</v>
       </c>
       <c r="O10">
-        <v>0.004170299532101615</v>
+        <v>4.133022781868E-06</v>
       </c>
       <c r="P10">
-        <v>0.007611864789971657</v>
+        <v>0.004170299545198243</v>
       </c>
       <c r="Q10">
-        <v>0.0078036590336304</v>
+        <v>0.007611864843278575</v>
       </c>
       <c r="R10">
-        <v>0.06400326114254189</v>
+        <v>0.00780365908955673</v>
       </c>
       <c r="S10">
-        <v>2.323405683930358E-08</v>
+        <v>0.06400326114248159</v>
       </c>
       <c r="T10">
-        <v>9.617369660744428E-06</v>
+        <v>2.323405666210718E-08</v>
       </c>
       <c r="U10">
-        <v>0.1875388418715514</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11">
-        <v>0.0001192919942190336</v>
+        <v>9.617369672000205E-06</v>
+      </c>
+      <c r="V10">
+        <v>0.1875388426712963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B11">
-        <v>0.03489336449649328</v>
+        <v>0.0001192920017728328</v>
       </c>
       <c r="C11">
-        <v>0.001836189680271531</v>
+        <v>0.0348933602639895</v>
       </c>
       <c r="D11">
-        <v>0.002402179161878274</v>
+        <v>0.001836190399042761</v>
       </c>
       <c r="E11">
-        <v>0.1782433139086191</v>
+        <v>0.002402180078977048</v>
       </c>
       <c r="F11">
-        <v>0.009993761397962625</v>
+        <v>0.1782433733850398</v>
       </c>
       <c r="G11">
-        <v>1.081381872372696E-05</v>
+        <v>0.009993760319623823</v>
       </c>
       <c r="H11">
-        <v>1.174327190801555E-06</v>
+        <v>1.081381971816919E-05</v>
       </c>
       <c r="I11">
-        <v>0.001592593921083646</v>
+        <v>1.174327252372976E-06</v>
       </c>
       <c r="J11">
-        <v>0.04410852360494653</v>
+        <v>0.0015925935730114</v>
       </c>
       <c r="K11">
-        <v>0.002933591597419476</v>
+        <v>0.04410853316834273</v>
       </c>
       <c r="L11">
-        <v>0.0227387215741626</v>
+        <v>0.00293359192162567</v>
       </c>
       <c r="M11">
-        <v>0.0002055848488548233</v>
+        <v>0.02273872230624393</v>
       </c>
       <c r="N11">
-        <v>3.356010980238366E-08</v>
+        <v>0.0002055849636494421</v>
       </c>
       <c r="O11">
-        <v>5.088115800759438E-05</v>
+        <v>3.356011048393747E-08</v>
       </c>
       <c r="P11">
-        <v>0.000126446665693797</v>
+        <v>5.088115909670769E-05</v>
       </c>
       <c r="Q11">
-        <v>0.000130921099157314</v>
+        <v>0.0001264466650138051</v>
       </c>
       <c r="R11">
-        <v>0.0002357832895261517</v>
+        <v>0.0001309210964745711</v>
       </c>
       <c r="S11">
-        <v>3.523300114386923E-10</v>
+        <v>0.0002357833299913136</v>
       </c>
       <c r="T11">
-        <v>8.038477697917249E-08</v>
+        <v>3.523300092769585E-10</v>
       </c>
       <c r="U11">
-        <v>0.003052921226578205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12">
-        <v>0.001225405255125609</v>
+        <v>8.038477485257401E-08</v>
+      </c>
+      <c r="V11">
+        <v>0.003052920806661631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B12">
-        <v>0.3596577519011653</v>
+        <v>0.00122540525256899</v>
       </c>
       <c r="C12">
-        <v>0.05932093670139797</v>
+        <v>0.359657751453154</v>
       </c>
       <c r="D12">
-        <v>0.07687204019777517</v>
+        <v>0.0593209365871919</v>
       </c>
       <c r="E12">
-        <v>2.64001415494378</v>
+        <v>0.07687204004790035</v>
       </c>
       <c r="F12">
-        <v>0.09875725767406704</v>
+        <v>2.640014146246664</v>
       </c>
       <c r="G12">
-        <v>0.000967351849628441</v>
+        <v>0.09875725758626941</v>
       </c>
       <c r="H12">
-        <v>8.656565416524509E-05</v>
+        <v>0.0009673518493730556</v>
       </c>
       <c r="I12">
-        <v>0.07228528409934581</v>
+        <v>8.65656541283684E-05</v>
       </c>
       <c r="J12">
-        <v>1.092900364094804</v>
+        <v>0.07228528377388034</v>
       </c>
       <c r="K12">
-        <v>0.1123189233456233</v>
+        <v>1.092900362298434</v>
       </c>
       <c r="L12">
-        <v>0.02702355209507778</v>
+        <v>0.1123189233400318</v>
       </c>
       <c r="M12">
-        <v>0.014163003941753</v>
+        <v>0.02702355647682059</v>
       </c>
       <c r="N12">
-        <v>2.224222304956049E-07</v>
+        <v>0.01416300389969456</v>
       </c>
       <c r="O12">
-        <v>0.0005965244767426632</v>
+        <v>2.224222304333905E-07</v>
       </c>
       <c r="P12">
-        <v>0.0007182501884638835</v>
+        <v>0.000596524475890832</v>
       </c>
       <c r="Q12">
-        <v>0.0007490656431143103</v>
+        <v>0.000718250187666317</v>
       </c>
       <c r="R12">
-        <v>0.004636493014504755</v>
+        <v>0.0007490656422592388</v>
       </c>
       <c r="S12">
-        <v>2.331504143834504E-09</v>
+        <v>0.004636493010527078</v>
       </c>
       <c r="T12">
-        <v>1.209862494772185E-06</v>
+        <v>2.331504180457948E-09</v>
       </c>
       <c r="U12">
-        <v>0.02856604582000053</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13">
-        <v>0.001869213879636863</v>
+        <v>1.209862492321509E-06</v>
+      </c>
+      <c r="V12">
+        <v>0.02856604579256563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B13">
-        <v>0.6965426144847113</v>
+        <v>0.001869213875297631</v>
       </c>
       <c r="C13">
-        <v>0.1716688042405482</v>
+        <v>0.6965426138750324</v>
       </c>
       <c r="D13">
-        <v>0.2232935211604057</v>
+        <v>0.1716688040452173</v>
       </c>
       <c r="E13">
-        <v>3.135536898534566</v>
+        <v>0.2232935209057572</v>
       </c>
       <c r="F13">
-        <v>0.1795537284480844</v>
+        <v>3.135536884351248</v>
       </c>
       <c r="G13">
-        <v>0.0003900019588005032</v>
+        <v>0.1795537283347773</v>
       </c>
       <c r="H13">
-        <v>0.0001705794734936328</v>
+        <v>0.0003900019584094309</v>
       </c>
       <c r="I13">
-        <v>0.07681691755326893</v>
+        <v>0.0001705794734305935</v>
       </c>
       <c r="J13">
-        <v>3.217340543590129</v>
+        <v>0.07681691713581197</v>
       </c>
       <c r="K13">
-        <v>0.2073903125455679</v>
+        <v>3.217340540376335</v>
       </c>
       <c r="L13">
-        <v>0.02327110551937604</v>
+        <v>0.2073903125102883</v>
       </c>
       <c r="M13">
-        <v>0.01145433343303307</v>
+        <v>0.02327111062673545</v>
       </c>
       <c r="N13">
-        <v>3.532376705967434E-07</v>
+        <v>0.01145433339030529</v>
       </c>
       <c r="O13">
-        <v>0.0007945734662841682</v>
+        <v>3.532376705407584E-07</v>
       </c>
       <c r="P13">
-        <v>0.001220736686937845</v>
+        <v>0.0007945734650559217</v>
       </c>
       <c r="Q13">
-        <v>0.001280358869473724</v>
+        <v>0.00122073668622295</v>
       </c>
       <c r="R13">
-        <v>0.006508606919128702</v>
+        <v>0.00128035886869899</v>
       </c>
       <c r="S13">
-        <v>3.158134574930751E-09</v>
+        <v>0.006508606913602225</v>
       </c>
       <c r="T13">
-        <v>2.152021583759921E-06</v>
+        <v>3.158134616954405E-09</v>
       </c>
       <c r="U13">
-        <v>0.0504135956176171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14">
-        <v>0.00147294246815741</v>
+        <v>2.15202158029063E-06</v>
+      </c>
+      <c r="V13">
+        <v>0.05041359558734597</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B14">
-        <v>0.4466070528062167</v>
+        <v>0.001472942467240728</v>
       </c>
       <c r="C14">
-        <v>0.0615575046791542</v>
+        <v>0.4466070526052168</v>
       </c>
       <c r="D14">
-        <v>0.0807011456742821</v>
+        <v>0.06155750462626601</v>
       </c>
       <c r="E14">
-        <v>4.13201149552279</v>
+        <v>0.0807011456052843</v>
       </c>
       <c r="F14">
-        <v>0.1258350790650298</v>
+        <v>4.13201149199288</v>
       </c>
       <c r="G14">
-        <v>0.0009776636694720777</v>
+        <v>0.1258350790337625</v>
       </c>
       <c r="H14">
-        <v>8.922303349407196E-05</v>
+        <v>0.0009776636693426919</v>
       </c>
       <c r="I14">
-        <v>0.07847880907935992</v>
+        <v>8.922303347572905E-05</v>
       </c>
       <c r="J14">
-        <v>1.160180375042015</v>
+        <v>0.07847880885495724</v>
       </c>
       <c r="K14">
-        <v>0.1157339649409933</v>
+        <v>1.16018037428747</v>
       </c>
       <c r="L14">
-        <v>0.03126212708170972</v>
+        <v>0.1157339649256785</v>
       </c>
       <c r="M14">
-        <v>0.01528681110933585</v>
+        <v>0.03126211889338309</v>
       </c>
       <c r="N14">
-        <v>2.443636817167052E-07</v>
+        <v>0.01528681108499407</v>
       </c>
       <c r="O14">
-        <v>0.0007059251542423356</v>
+        <v>2.443636816957568E-07</v>
       </c>
       <c r="P14">
-        <v>0.00117707536675197</v>
+        <v>0.0007059251539245747</v>
       </c>
       <c r="Q14">
-        <v>0.001227076251461097</v>
+        <v>0.001177075366443883</v>
       </c>
       <c r="R14">
-        <v>0.00483759901822747</v>
+        <v>0.001227076251133789</v>
       </c>
       <c r="S14">
-        <v>2.752646563751495E-09</v>
+        <v>0.004837599015960918</v>
       </c>
       <c r="T14">
-        <v>1.39613882207963E-06</v>
+        <v>2.752646490095837E-09</v>
       </c>
       <c r="U14">
-        <v>0.03991211549488457</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15">
-        <v>-0.006490748638718747</v>
+        <v>1.396138820770964E-06</v>
+      </c>
+      <c r="V14">
+        <v>0.03991211548709336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B15">
-        <v>-0.5144198822255708</v>
+        <v>-0.006490748634554998</v>
       </c>
       <c r="C15">
-        <v>-0.5126269711284011</v>
+        <v>-0.514419881749405</v>
       </c>
       <c r="D15">
-        <v>-0.6554899398296109</v>
+        <v>-0.5126269709869956</v>
       </c>
       <c r="E15">
-        <v>-44.95788827996456</v>
+        <v>-0.6554899396483586</v>
       </c>
       <c r="F15">
-        <v>-0.1431501683468742</v>
+        <v>-44.95788826805604</v>
       </c>
       <c r="G15">
-        <v>-0.0007222434605418949</v>
+        <v>-0.1431501682460723</v>
       </c>
       <c r="H15">
-        <v>-2.227253914985674E-05</v>
+        <v>-0.0007222434603122123</v>
       </c>
       <c r="I15">
-        <v>-0.07328942778704862</v>
+        <v>-2.22725391175224E-05</v>
       </c>
       <c r="J15">
-        <v>-7.492091893189921</v>
+        <v>-0.07328942761866883</v>
       </c>
       <c r="K15">
-        <v>-0.05105694502204599</v>
+        <v>-7.492091890947863</v>
       </c>
       <c r="L15">
-        <v>-0.03497458415132625</v>
+        <v>-0.05105694501780383</v>
       </c>
       <c r="M15">
-        <v>-0.02634864177197328</v>
+        <v>-0.03497458528080142</v>
       </c>
       <c r="N15">
-        <v>-2.485598641004931E-07</v>
+        <v>-0.02634864175350404</v>
       </c>
       <c r="O15">
-        <v>-0.002256762914553191</v>
+        <v>-2.485598638545479E-07</v>
       </c>
       <c r="P15">
-        <v>-0.001651215637087004</v>
+        <v>-0.002256762912803831</v>
       </c>
       <c r="Q15">
-        <v>-0.001720588453068935</v>
+        <v>-0.001651215632803903</v>
       </c>
       <c r="R15">
-        <v>-0.004639160304899525</v>
+        <v>-0.001720588448756282</v>
       </c>
       <c r="S15">
-        <v>-4.7697939365985E-09</v>
+        <v>-0.004639160302638082</v>
       </c>
       <c r="T15">
-        <v>-3.858391489398647E-06</v>
+        <v>-4.769793943445486E-09</v>
       </c>
       <c r="U15">
-        <v>-0.04691174357357726</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16">
-        <v>-0.01476381588194658</v>
+        <v>-3.858391486777882E-06</v>
+      </c>
+      <c r="V15">
+        <v>-0.04691174353788619</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B16">
-        <v>-4.903203330181445</v>
+        <v>-0.01476381583009628</v>
       </c>
       <c r="C16">
-        <v>-0.1583765789874584</v>
+        <v>-4.903203323914648</v>
       </c>
       <c r="D16">
-        <v>-0.2084479361248384</v>
+        <v>-0.1583765773284243</v>
       </c>
       <c r="E16">
-        <v>-11.58397909973412</v>
+        <v>-0.2084479339676329</v>
       </c>
       <c r="F16">
-        <v>-1.331877408586121</v>
+        <v>-11.5839789646032</v>
       </c>
       <c r="G16">
-        <v>-0.001881148465885649</v>
+        <v>-1.33187740759489</v>
       </c>
       <c r="H16">
-        <v>-0.0006427168145688388</v>
+        <v>-0.001881148462664691</v>
       </c>
       <c r="I16">
-        <v>-0.2269238291412554</v>
+        <v>-0.0006427168141487833</v>
       </c>
       <c r="J16">
-        <v>-5.258884978842222</v>
+        <v>-0.2269238258204962</v>
       </c>
       <c r="K16">
-        <v>-0.3174956659840177</v>
+        <v>-5.258884950619854</v>
       </c>
       <c r="L16">
-        <v>-1.228873525466516</v>
+        <v>-0.3174956659891777</v>
       </c>
       <c r="M16">
-        <v>-0.1589738701316502</v>
+        <v>-1.228873500642377</v>
       </c>
       <c r="N16">
-        <v>-2.487532935270503E-06</v>
+        <v>-0.1589738694255415</v>
       </c>
       <c r="O16">
-        <v>-0.008076954116851626</v>
+        <v>-2.487532931912387E-06</v>
       </c>
       <c r="P16">
-        <v>-0.01100910377708654</v>
+        <v>-0.008076954094071737</v>
       </c>
       <c r="Q16">
-        <v>-0.01141428005291815</v>
+        <v>-0.01100910372320553</v>
       </c>
       <c r="R16">
-        <v>-0.05179452408233267</v>
+        <v>-0.01141427999987671</v>
       </c>
       <c r="S16">
-        <v>-3.075812082220623E-08</v>
+        <v>-0.05179452405680472</v>
       </c>
       <c r="T16">
-        <v>-1.170814457294895E-05</v>
+        <v>-3.075812056139163E-08</v>
       </c>
       <c r="U16">
-        <v>-0.3912364610106914</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17">
-        <v>-0.0002716546743460533</v>
+        <v>-1.170814453524649E-05</v>
+      </c>
+      <c r="V16">
+        <v>-0.3912364606472107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B17">
-        <v>-2.372984759501264</v>
+        <v>-0.0002716546704745839</v>
       </c>
       <c r="C17">
-        <v>-0.1201199395087179</v>
+        <v>-2.372984758928199</v>
       </c>
       <c r="D17">
-        <v>-0.1599610768884556</v>
+        <v>-0.1201199394554674</v>
       </c>
       <c r="E17">
-        <v>-1.265781258814501</v>
+        <v>-0.1599610768167155</v>
       </c>
       <c r="F17">
-        <v>-0.007903466749704159</v>
+        <v>-1.265781253462105</v>
       </c>
       <c r="G17">
-        <v>-5.236327699030902E-06</v>
+        <v>-0.007903466617444604</v>
       </c>
       <c r="H17">
-        <v>-2.145683955733591E-05</v>
+        <v>-5.23632756020323E-06</v>
       </c>
       <c r="I17">
-        <v>-0.0239911945394458</v>
+        <v>-2.145683954351817E-05</v>
       </c>
       <c r="J17">
-        <v>-2.349946998338898</v>
+        <v>-0.02399119430011366</v>
       </c>
       <c r="K17">
-        <v>-0.0010446972741067</v>
+        <v>-2.349946997539753</v>
       </c>
       <c r="L17">
-        <v>-0.0005566571239411703</v>
+        <v>-0.001044697260293203</v>
       </c>
       <c r="M17">
-        <v>-0.00126572364552167</v>
+        <v>-0.0005566587240602394</v>
       </c>
       <c r="N17">
-        <v>-1.017244146071642E-06</v>
+        <v>-0.001265723624587958</v>
       </c>
       <c r="O17">
-        <v>-9.178314978858717E-05</v>
+        <v>-1.017244145670435E-06</v>
       </c>
       <c r="P17">
-        <v>-0.0006027120179277707</v>
+        <v>-9.178314743956522E-05</v>
       </c>
       <c r="Q17">
-        <v>-0.0006068257393793119</v>
+        <v>-0.00060271200939533</v>
       </c>
       <c r="R17">
-        <v>-0.003723410408940495</v>
+        <v>-0.0006068257308359927</v>
       </c>
       <c r="S17">
-        <v>-6.903281094408074E-09</v>
+        <v>-0.003723410407314201</v>
       </c>
       <c r="T17">
-        <v>-2.884956429940015E-06</v>
+        <v>-6.903281104885802E-09</v>
       </c>
       <c r="U17">
-        <v>-0.002983725458046985</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18">
-        <v>-0.0001933860104009694</v>
+        <v>-2.884956426942507E-06</v>
+      </c>
+      <c r="V17">
+        <v>-0.00298372540332419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B18">
-        <v>-3.020426943793808</v>
+        <v>-0.0001933860078155203</v>
       </c>
       <c r="C18">
-        <v>-0.1585863092549245</v>
+        <v>-3.020426943445872</v>
       </c>
       <c r="D18">
-        <v>-0.2296331746341369</v>
+        <v>-0.1585863092189396</v>
       </c>
       <c r="E18">
-        <v>-8.833295475952461</v>
+        <v>-0.2296331745856378</v>
       </c>
       <c r="F18">
-        <v>-0.005003262758421083</v>
+        <v>-8.833295471831493</v>
       </c>
       <c r="G18">
-        <v>-2.655623935642345E-06</v>
+        <v>-0.005003262682622489</v>
       </c>
       <c r="H18">
-        <v>-4.732000337915369E-06</v>
+        <v>-2.655623841270295E-06</v>
       </c>
       <c r="I18">
-        <v>-0.009831378371137903</v>
+        <v>-4.732000328414847E-06</v>
       </c>
       <c r="J18">
-        <v>-1.917643195178854</v>
+        <v>-0.009831378216166389</v>
       </c>
       <c r="K18">
-        <v>-0.000428346776960543</v>
+        <v>-1.917643194599126</v>
       </c>
       <c r="L18">
-        <v>-0.000312567099442515</v>
+        <v>-0.0004283467691232901</v>
       </c>
       <c r="M18">
-        <v>-0.0006251339260241882</v>
+        <v>-0.000312566166828578</v>
       </c>
       <c r="N18">
-        <v>-2.20492387435228E-07</v>
+        <v>-0.0006251339119613217</v>
       </c>
       <c r="O18">
-        <v>-6.373950169363868E-05</v>
+        <v>-2.204923871764067E-07</v>
       </c>
       <c r="P18">
-        <v>-0.0004646641540698428</v>
+        <v>-6.373950016161156E-05</v>
       </c>
       <c r="Q18">
-        <v>-0.000467148543908501</v>
+        <v>-0.0004646641486928037</v>
       </c>
       <c r="R18">
-        <v>-0.001527600917482931</v>
+        <v>-0.0004671485385462169</v>
       </c>
       <c r="S18">
-        <v>-8.798283399102229E-09</v>
+        <v>-0.001527600916372158</v>
       </c>
       <c r="T18">
-        <v>-3.317026266290333E-06</v>
+        <v>-8.798283388469299E-09</v>
       </c>
       <c r="U18">
-        <v>-0.001836594195488294</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19">
-        <v>-0.0001646121403098488</v>
+        <v>-3.317026264349801E-06</v>
+      </c>
+      <c r="V18">
+        <v>-0.001836594164665639</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B19">
-        <v>-2.551055182060567</v>
+        <v>-0.0001646121381365227</v>
       </c>
       <c r="C19">
-        <v>-0.1339373212036464</v>
+        <v>-2.551055181754648</v>
       </c>
       <c r="D19">
-        <v>-0.1939394980663949</v>
+        <v>-0.1339373211787019</v>
       </c>
       <c r="E19">
-        <v>-7.460966749717919</v>
+        <v>-0.1939394980327657</v>
       </c>
       <c r="F19">
-        <v>-0.004357871794040472</v>
+        <v>-7.460966746768382</v>
       </c>
       <c r="G19">
-        <v>-2.414201551910467E-06</v>
+        <v>-0.004357871726520085</v>
       </c>
       <c r="H19">
-        <v>-4.015526216764942E-06</v>
+        <v>-2.414201474538429E-06</v>
       </c>
       <c r="I19">
-        <v>-0.008600985168060685</v>
+        <v>-4.015526207283107E-06</v>
       </c>
       <c r="J19">
-        <v>-1.619602098474255</v>
+        <v>-0.008600985039240731</v>
       </c>
       <c r="K19">
-        <v>-0.0003773716988823912</v>
+        <v>-1.619602098015365</v>
       </c>
       <c r="L19">
-        <v>-0.000277255187921074</v>
+        <v>-0.0003773716902590091</v>
       </c>
       <c r="M19">
-        <v>-0.00058348085804307</v>
+        <v>-0.0002772555796257859</v>
       </c>
       <c r="N19">
-        <v>-1.862772750528595E-07</v>
+        <v>-0.0005834808470224881</v>
       </c>
       <c r="O19">
-        <v>-5.554319664904529E-05</v>
+        <v>-1.862772748424075E-07</v>
       </c>
       <c r="P19">
-        <v>-0.0003938721086995282</v>
+        <v>-5.554319538891143E-05</v>
       </c>
       <c r="Q19">
-        <v>-0.0003961234761029686</v>
+        <v>-0.0003938721042525055</v>
       </c>
       <c r="R19">
-        <v>-0.001449330902589829</v>
+        <v>-0.0003961234716631669</v>
       </c>
       <c r="S19">
-        <v>-7.431743795874824E-09</v>
+        <v>-0.001449330901578295</v>
       </c>
       <c r="T19">
-        <v>-2.803970334301692E-06</v>
+        <v>-7.43174379735545E-09</v>
       </c>
       <c r="U19">
-        <v>-0.0016003921544083</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20">
-        <v>-0.00139839759470386</v>
+        <v>-2.803970332686575E-06</v>
+      </c>
+      <c r="V19">
+        <v>-0.001600392127303688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B20">
-        <v>-0.7567638709402809</v>
+        <v>-0.001398397590049627</v>
       </c>
       <c r="C20">
-        <v>-0.0183391556741781</v>
+        <v>-0.7567638703205365</v>
       </c>
       <c r="D20">
-        <v>-0.02434508745291461</v>
+        <v>-0.01833915560862331</v>
       </c>
       <c r="E20">
-        <v>-0.1475128307940548</v>
+        <v>-0.0243450873655054</v>
       </c>
       <c r="F20">
-        <v>-0.02691728068745806</v>
+        <v>-0.1475128231021348</v>
       </c>
       <c r="G20">
-        <v>-9.76180840677953E-06</v>
+        <v>-0.0269172805556722</v>
       </c>
       <c r="H20">
-        <v>-0.000233303014933875</v>
+        <v>-9.76180822305393E-06</v>
       </c>
       <c r="I20">
-        <v>-0.006488522555357709</v>
+        <v>-0.0002333030149127648</v>
       </c>
       <c r="J20">
-        <v>-0.4347469594398666</v>
+        <v>-0.006488522302843924</v>
       </c>
       <c r="K20">
-        <v>-0.001827152931093627</v>
+        <v>-0.4347469582385669</v>
       </c>
       <c r="L20">
-        <v>-0.0007984184340826287</v>
+        <v>-0.001827152907282805</v>
       </c>
       <c r="M20">
-        <v>-0.002098156650675921</v>
+        <v>-0.0007984170252812499</v>
       </c>
       <c r="N20">
-        <v>-1.16737588616235E-05</v>
+        <v>-0.002098156628242014</v>
       </c>
       <c r="O20">
-        <v>-0.000438830409828772</v>
+        <v>-1.16737588611773E-05</v>
       </c>
       <c r="P20">
-        <v>-0.003158334731072893</v>
+        <v>-0.0004388304071883963</v>
       </c>
       <c r="Q20">
-        <v>-0.003169012334903813</v>
+        <v>-0.003158334722113754</v>
       </c>
       <c r="R20">
-        <v>-0.002121980087500718</v>
+        <v>-0.003169012325980135</v>
       </c>
       <c r="S20">
-        <v>-2.854796029258457E-09</v>
+        <v>-0.002121980085358954</v>
       </c>
       <c r="T20">
-        <v>-1.113230984762228E-06</v>
+        <v>-2.854796012614282E-09</v>
       </c>
       <c r="U20">
-        <v>-0.009696644248355811</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21">
-        <v>0.0001261905845031561</v>
+        <v>-1.113230981401194E-06</v>
+      </c>
+      <c r="V20">
+        <v>-0.009696644196812361</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B21">
-        <v>0.02879883983355841</v>
+        <v>0.000126190583214441</v>
       </c>
       <c r="C21">
-        <v>0.001112296814764757</v>
+        <v>0.028798839479997</v>
       </c>
       <c r="D21">
-        <v>0.0012347209715352</v>
+        <v>0.001112296794346071</v>
       </c>
       <c r="E21">
-        <v>0.06967609824560654</v>
+        <v>0.001234720943875513</v>
       </c>
       <c r="F21">
-        <v>0.01615642991562164</v>
+        <v>0.06967609663472163</v>
       </c>
       <c r="G21">
-        <v>1.054829821994841E-05</v>
+        <v>0.01615642982300767</v>
       </c>
       <c r="H21">
-        <v>4.40767455602505E-05</v>
+        <v>1.054829811345095E-05</v>
       </c>
       <c r="I21">
-        <v>0.001160680208123667</v>
+        <v>4.407674554694965E-05</v>
       </c>
       <c r="J21">
-        <v>0.02244031984168354</v>
+        <v>0.00116068005719205</v>
       </c>
       <c r="K21">
-        <v>0.001612776863802791</v>
+        <v>0.02244031950082485</v>
       </c>
       <c r="L21">
-        <v>0.006488737486137857</v>
+        <v>0.001612776859142168</v>
       </c>
       <c r="M21">
-        <v>0.0001793382339907901</v>
+        <v>0.006488737374810467</v>
       </c>
       <c r="N21">
-        <v>5.482244103872996E-08</v>
+        <v>0.0001793382063060926</v>
       </c>
       <c r="O21">
-        <v>3.862852156388514E-05</v>
+        <v>5.482244094146897E-08</v>
       </c>
       <c r="P21">
-        <v>0.0005472006692145773</v>
+        <v>3.862852089093403E-05</v>
       </c>
       <c r="Q21">
-        <v>0.0008460368469738539</v>
+        <v>0.0005472006675511947</v>
       </c>
       <c r="R21">
-        <v>0.004795436073604921</v>
+        <v>0.0008460368452234538</v>
       </c>
       <c r="S21">
-        <v>2.829306168816325E-10</v>
+        <v>0.00479543607146066</v>
       </c>
       <c r="T21">
-        <v>7.115852932233049E-08</v>
+        <v>2.829306142975177E-10</v>
       </c>
       <c r="U21">
-        <v>0.006193426832380479</v>
+        <v>7.115852798606102E-08</v>
+      </c>
+      <c r="V21">
+        <v>0.006193426797228437</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_apos/data_uniquie_case1_apos_recipe.xlsx
+++ b/results/case1_apos/data_uniquie_case1_apos_recipe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)</t>
+  </si>
+  <si>
+    <t>'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)</t>
+  </si>
+  <si>
+    <t>'steel recycling' (kilogram, RER, None)</t>
   </si>
   <si>
     <t>'treatment of aluminium scrap, post-consumer, prepared for recycling, at remelter' (kilogram, RER, None)</t>
@@ -494,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +576,67 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>0.000718840980205548</v>
+        <v>0.0007188410825704091</v>
       </c>
       <c r="C2">
-        <v>0.2476678840660577</v>
+        <v>0.2476679280857501</v>
       </c>
       <c r="D2">
-        <v>0.007819006893290447</v>
+        <v>0.007819008709097365</v>
       </c>
       <c r="E2">
-        <v>0.01032082859007828</v>
+        <v>0.01032083111775802</v>
       </c>
       <c r="F2">
-        <v>0.6751937313387222</v>
+        <v>0.6751939407418635</v>
       </c>
       <c r="G2">
-        <v>0.1497597922734379</v>
+        <v>0.149759799744358</v>
       </c>
       <c r="H2">
-        <v>5.541602741584954E-05</v>
+        <v>5.541603765532319E-05</v>
       </c>
       <c r="I2">
-        <v>7.917950045584797E-06</v>
+        <v>7.917951413907697E-06</v>
       </c>
       <c r="J2">
-        <v>0.009957966158240931</v>
+        <v>0.009957980029370253</v>
       </c>
       <c r="K2">
-        <v>0.1553441631352923</v>
+        <v>0.1553442077641456</v>
       </c>
       <c r="L2">
-        <v>0.01109664910730486</v>
+        <v>0.01109665223627687</v>
       </c>
       <c r="M2">
-        <v>0.004202584329120736</v>
+        <v>0.004202583829486242</v>
       </c>
       <c r="N2">
-        <v>0.002064263599177728</v>
+        <v>0.002064265123913724</v>
       </c>
       <c r="O2">
-        <v>4.733840427421669E-08</v>
+        <v>4.733841793118019E-08</v>
       </c>
       <c r="P2">
-        <v>0.0003099036906428558</v>
+        <v>0.000309903754274031</v>
       </c>
       <c r="Q2">
-        <v>0.0005818797899867289</v>
+        <v>0.0005818799174145266</v>
       </c>
       <c r="R2">
-        <v>0.0006164942728512594</v>
+        <v>0.00061649440504491</v>
       </c>
       <c r="S2">
-        <v>0.001999873638186589</v>
+        <v>0.001999873844707333</v>
       </c>
       <c r="T2">
-        <v>1.014262128737483E-09</v>
+        <v>1.014262297099406E-09</v>
       </c>
       <c r="U2">
-        <v>4.981147814084986E-07</v>
+        <v>4.981149190963614E-07</v>
       </c>
       <c r="V2">
-        <v>0.05704845508441566</v>
+        <v>0.05704845766178669</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -638,67 +644,67 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>0.002056819901330693</v>
+        <v>0.002056820209709837</v>
       </c>
       <c r="C3">
-        <v>0.7087357402266669</v>
+        <v>0.7087358664701405</v>
       </c>
       <c r="D3">
-        <v>0.02236901011498017</v>
+        <v>0.0223690135629654</v>
       </c>
       <c r="E3">
-        <v>0.02952714521218193</v>
+        <v>0.02952715018187349</v>
       </c>
       <c r="F3">
-        <v>1.93044519908796</v>
+        <v>1.930445646149112</v>
       </c>
       <c r="G3">
-        <v>0.4284511114593128</v>
+        <v>0.4284511341481871</v>
       </c>
       <c r="H3">
-        <v>0.0001588899561332311</v>
+        <v>0.0001588899811829371</v>
       </c>
       <c r="I3">
-        <v>2.293560699892299E-05</v>
+        <v>2.293561073080597E-05</v>
       </c>
       <c r="J3">
-        <v>0.02851042171359949</v>
+        <v>0.02851045591263329</v>
       </c>
       <c r="K3">
-        <v>0.4448101220556533</v>
+        <v>0.4448102198623478</v>
       </c>
       <c r="L3">
-        <v>0.03191440722855571</v>
+        <v>0.03191441597688861</v>
       </c>
       <c r="M3">
-        <v>0.0122529328828411</v>
+        <v>0.01225291825624499</v>
       </c>
       <c r="N3">
-        <v>0.005902611033401841</v>
+        <v>0.005902614599457084</v>
       </c>
       <c r="O3">
-        <v>1.357905381587454E-07</v>
+        <v>1.357905812651281E-07</v>
       </c>
       <c r="P3">
-        <v>0.0008865845041326379</v>
+        <v>0.0008865846992986994</v>
       </c>
       <c r="Q3">
-        <v>0.001665484659144062</v>
+        <v>0.001665485124687642</v>
       </c>
       <c r="R3">
-        <v>0.00176485970165454</v>
+        <v>0.001764860183378448</v>
       </c>
       <c r="S3">
-        <v>0.005755801648569254</v>
+        <v>0.005755802196428514</v>
       </c>
       <c r="T3">
-        <v>2.904679385528601E-09</v>
+        <v>2.904679761529727E-09</v>
       </c>
       <c r="U3">
-        <v>1.425452828629E-06</v>
+        <v>1.425453206064599E-06</v>
       </c>
       <c r="V3">
-        <v>0.1631995276265299</v>
+        <v>0.1631995357377656</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -706,67 +712,67 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>0.2943253368859042</v>
+        <v>0.2920171173910733</v>
       </c>
       <c r="C4">
-        <v>68.45320103502273</v>
+        <v>67.96149366356597</v>
       </c>
       <c r="D4">
-        <v>3.357965295212404</v>
+        <v>3.343468380075887</v>
       </c>
       <c r="E4">
-        <v>4.413773652082526</v>
+        <v>4.397719426025473</v>
       </c>
       <c r="F4">
-        <v>123.2518286943829</v>
+        <v>129.483853868468</v>
       </c>
       <c r="G4">
-        <v>15.56085510554304</v>
+        <v>15.45702326102014</v>
       </c>
       <c r="H4">
-        <v>0.02520925910359249</v>
+        <v>0.02502958964819145</v>
       </c>
       <c r="I4">
-        <v>0.002979222696783258</v>
+        <v>0.002961696305852502</v>
       </c>
       <c r="J4">
-        <v>12.16287431258298</v>
+        <v>12.41772965492691</v>
       </c>
       <c r="K4">
-        <v>70.09164901054696</v>
+        <v>69.68109463655202</v>
       </c>
       <c r="L4">
-        <v>4.859720273497415</v>
+        <v>4.828782166520232</v>
       </c>
       <c r="M4">
-        <v>1.402616746362602</v>
+        <v>1.39878566758106</v>
       </c>
       <c r="N4">
-        <v>1.03470267720871</v>
+        <v>1.047634555768604</v>
       </c>
       <c r="O4">
-        <v>1.742734942378956E-05</v>
+        <v>1.731839318341536E-05</v>
       </c>
       <c r="P4">
-        <v>0.1282485283644108</v>
+        <v>0.1276862589593429</v>
       </c>
       <c r="Q4">
-        <v>0.1722988594941264</v>
+        <v>0.1710433636683062</v>
       </c>
       <c r="R4">
-        <v>0.1761100101566926</v>
+        <v>0.1748456140323374</v>
       </c>
       <c r="S4">
-        <v>0.7084157543968523</v>
+        <v>0.7054168332572308</v>
       </c>
       <c r="T4">
-        <v>3.103666058234169E-07</v>
+        <v>3.082419934625819E-07</v>
       </c>
       <c r="U4">
-        <v>0.0002022324335411112</v>
+        <v>0.0002021677456688179</v>
       </c>
       <c r="V4">
-        <v>3.40349812716002</v>
+        <v>3.388317492579762</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -774,67 +780,67 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>0.1754461285550095</v>
+        <v>0.1731474711570977</v>
       </c>
       <c r="C5">
-        <v>40.76598379367656</v>
+        <v>40.2771235529253</v>
       </c>
       <c r="D5">
-        <v>2.001412980002499</v>
+        <v>1.987228334684082</v>
       </c>
       <c r="E5">
-        <v>2.630768073702693</v>
+        <v>2.615115909291482</v>
       </c>
       <c r="F5">
-        <v>73.21254488173425</v>
+        <v>79.45644919498872</v>
       </c>
       <c r="G5">
-        <v>9.232569732566866</v>
+        <v>9.12950922299779</v>
       </c>
       <c r="H5">
-        <v>0.01502262952185446</v>
+        <v>0.01484490362894455</v>
       </c>
       <c r="I5">
-        <v>0.001773394471117665</v>
+        <v>0.001756211777978917</v>
       </c>
       <c r="J5">
-        <v>7.261148086792589</v>
+        <v>7.51624766364935</v>
       </c>
       <c r="K5">
-        <v>41.75501454431235</v>
+        <v>41.35000596057196</v>
       </c>
       <c r="L5">
-        <v>2.895257097797135</v>
+        <v>2.865398104017851</v>
       </c>
       <c r="M5">
-        <v>0.8361560546122228</v>
+        <v>0.8324449390818317</v>
       </c>
       <c r="N5">
-        <v>0.6150978286846447</v>
+        <v>0.6280576655331707</v>
       </c>
       <c r="O5">
-        <v>1.037429759882479E-05</v>
+        <v>1.026658768719198E-05</v>
       </c>
       <c r="P5">
-        <v>0.07642905873035111</v>
+        <v>0.07587061027607361</v>
       </c>
       <c r="Q5">
-        <v>0.1026489588486824</v>
+        <v>0.1013989013155334</v>
       </c>
       <c r="R5">
-        <v>0.104902148345052</v>
+        <v>0.1036435004369363</v>
       </c>
       <c r="S5">
-        <v>0.4207809714048858</v>
+        <v>0.4178150716631694</v>
       </c>
       <c r="T5">
-        <v>1.84884414120908E-07</v>
+        <v>1.827733044288003E-07</v>
       </c>
       <c r="U5">
-        <v>0.0001205286436135661</v>
+        <v>0.0001204711617628235</v>
       </c>
       <c r="V5">
-        <v>2.01046332417743</v>
+        <v>1.995477654019856</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -842,67 +848,67 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>0.009244927382398346</v>
+        <v>0.009244927533892115</v>
       </c>
       <c r="C6">
-        <v>2.671091788243652</v>
+        <v>2.671091862213708</v>
       </c>
       <c r="D6">
-        <v>0.552863318080157</v>
+        <v>0.5528633210505504</v>
       </c>
       <c r="E6">
-        <v>0.6978899108768714</v>
+        <v>0.6978899149931242</v>
       </c>
       <c r="F6">
-        <v>28.38506776123183</v>
+        <v>28.38506811177034</v>
       </c>
       <c r="G6">
-        <v>0.6839582667438484</v>
+        <v>0.6839582804410227</v>
       </c>
       <c r="H6">
-        <v>0.00270148473794219</v>
+        <v>0.002701484754564962</v>
       </c>
       <c r="I6">
-        <v>0.001849573459941016</v>
+        <v>0.001849573462062668</v>
       </c>
       <c r="J6">
-        <v>0.2576173488822108</v>
+        <v>0.2576173693739232</v>
       </c>
       <c r="K6">
-        <v>8.056915081965801</v>
+        <v>8.056915153088248</v>
       </c>
       <c r="L6">
-        <v>0.7222525116103895</v>
+        <v>0.7222525171593605</v>
       </c>
       <c r="M6">
-        <v>0.5164372548317208</v>
+        <v>0.5164372663178778</v>
       </c>
       <c r="N6">
-        <v>0.04237846818314783</v>
+        <v>0.04237847033704831</v>
       </c>
       <c r="O6">
-        <v>3.23291237584728E-06</v>
+        <v>3.232912397656487E-06</v>
       </c>
       <c r="P6">
-        <v>0.00322026462969583</v>
+        <v>0.003220264727265799</v>
       </c>
       <c r="Q6">
-        <v>0.005711523783248412</v>
+        <v>0.005711523980948939</v>
       </c>
       <c r="R6">
-        <v>0.005856926333987099</v>
+        <v>0.005856926543821672</v>
       </c>
       <c r="S6">
-        <v>0.04998574873710204</v>
+        <v>0.04998574905854331</v>
       </c>
       <c r="T6">
-        <v>1.73679955849907E-08</v>
+        <v>1.736799597090247E-08</v>
       </c>
       <c r="U6">
-        <v>7.318254720376952E-06</v>
+        <v>7.31825493555697E-06</v>
       </c>
       <c r="V6">
-        <v>0.1417827684992751</v>
+        <v>0.1417827733906299</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -910,67 +916,67 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>0.02902244542582276</v>
+        <v>0.02902244517054219</v>
       </c>
       <c r="C7">
-        <v>6.228141670179149</v>
+        <v>6.228141572607115</v>
       </c>
       <c r="D7">
-        <v>0.6640835463770041</v>
+        <v>0.6640835425328542</v>
       </c>
       <c r="E7">
-        <v>0.8329495184351323</v>
+        <v>0.8329495130741946</v>
       </c>
       <c r="F7">
-        <v>12.80552580944193</v>
+        <v>12.80552530734984</v>
       </c>
       <c r="G7">
-        <v>1.348170302348766</v>
+        <v>1.348170287603111</v>
       </c>
       <c r="H7">
-        <v>0.002040920519859374</v>
+        <v>0.002040920497645712</v>
       </c>
       <c r="I7">
-        <v>0.0001908085485220742</v>
+        <v>0.0001908085455908981</v>
       </c>
       <c r="J7">
-        <v>1.273275908951671</v>
+        <v>1.273275879095664</v>
       </c>
       <c r="K7">
-        <v>7.119922533447167</v>
+        <v>7.119922429174403</v>
       </c>
       <c r="L7">
-        <v>0.1261886621804321</v>
+        <v>0.1261886550480399</v>
       </c>
       <c r="M7">
-        <v>0.1229539586313589</v>
+        <v>0.1229539491675384</v>
       </c>
       <c r="N7">
-        <v>0.1164501321932272</v>
+        <v>0.116450129021873</v>
       </c>
       <c r="O7">
-        <v>1.446783617787292E-06</v>
+        <v>1.446783583142312E-06</v>
       </c>
       <c r="P7">
-        <v>0.01272392789724118</v>
+        <v>0.01272392773648099</v>
       </c>
       <c r="Q7">
-        <v>0.01684244700782263</v>
+        <v>0.01684244664902132</v>
       </c>
       <c r="R7">
-        <v>0.01720047761346649</v>
+        <v>0.01720047725034896</v>
       </c>
       <c r="S7">
-        <v>0.04159120126204891</v>
+        <v>0.04159120082261682</v>
       </c>
       <c r="T7">
-        <v>2.896670091700548E-08</v>
+        <v>2.896670043496871E-08</v>
       </c>
       <c r="U7">
-        <v>1.973293159397893E-05</v>
+        <v>1.97329312780846E-05</v>
       </c>
       <c r="V7">
-        <v>0.2827709736292372</v>
+        <v>0.2827709686434461</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -978,67 +984,67 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>0.0005067527199155063</v>
+        <v>0.0005067527282096669</v>
       </c>
       <c r="C8">
-        <v>0.2090725156197414</v>
+        <v>0.2090725192533206</v>
       </c>
       <c r="D8">
-        <v>0.01296366969335356</v>
+        <v>0.01296366987378601</v>
       </c>
       <c r="E8">
-        <v>0.01690435059727246</v>
+        <v>0.0169043508449616</v>
       </c>
       <c r="F8">
-        <v>0.5827243720745789</v>
+        <v>0.5827243933757391</v>
       </c>
       <c r="G8">
-        <v>0.05504801758105256</v>
+        <v>0.05504801823490682</v>
       </c>
       <c r="H8">
-        <v>0.0001737504514651096</v>
+        <v>0.0001737504523928795</v>
       </c>
       <c r="I8">
-        <v>1.504736300666641E-05</v>
+        <v>1.504736312311378E-05</v>
       </c>
       <c r="J8">
-        <v>0.01732092609949253</v>
+        <v>0.01732092724519925</v>
       </c>
       <c r="K8">
-        <v>0.309129716018389</v>
+        <v>0.3091297202707309</v>
       </c>
       <c r="L8">
-        <v>0.06332676009305073</v>
+        <v>0.06332676036466597</v>
       </c>
       <c r="M8">
-        <v>0.04609386079513141</v>
+        <v>0.04609386083651887</v>
       </c>
       <c r="N8">
-        <v>0.001418518085485317</v>
+        <v>0.001418518211422483</v>
       </c>
       <c r="O8">
-        <v>2.385586341407993E-07</v>
+        <v>2.385586352015112E-07</v>
       </c>
       <c r="P8">
-        <v>0.0001724650716542468</v>
+        <v>0.0001724650767193037</v>
       </c>
       <c r="Q8">
-        <v>0.0004212607950346689</v>
+        <v>0.000421260804540785</v>
       </c>
       <c r="R8">
-        <v>0.0004307690305891345</v>
+        <v>0.0004307690406099819</v>
       </c>
       <c r="S8">
-        <v>0.003780097136074294</v>
+        <v>0.003780097153348437</v>
       </c>
       <c r="T8">
-        <v>1.291043723948638E-09</v>
+        <v>1.291043738557842E-09</v>
       </c>
       <c r="U8">
-        <v>4.398194473905907E-07</v>
+        <v>4.398194587696227E-07</v>
       </c>
       <c r="V8">
-        <v>0.01027810312525576</v>
+        <v>0.01027810335363413</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1046,67 +1052,67 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>0.006306595069387435</v>
+        <v>0.006306595197059688</v>
       </c>
       <c r="C9">
-        <v>2.380157148956604</v>
+        <v>2.38015720375096</v>
       </c>
       <c r="D9">
-        <v>0.05477911200731081</v>
+        <v>0.0547791141247814</v>
       </c>
       <c r="E9">
-        <v>0.07305764817929847</v>
+        <v>0.07305765114569215</v>
       </c>
       <c r="F9">
-        <v>5.040002740236424</v>
+        <v>5.040002988158442</v>
       </c>
       <c r="G9">
-        <v>1.712789179243686</v>
+        <v>1.712789188359483</v>
       </c>
       <c r="H9">
-        <v>0.0003918421383270658</v>
+        <v>0.0003918421509256423</v>
       </c>
       <c r="I9">
-        <v>3.966915322578381E-05</v>
+        <v>3.966915494041318E-05</v>
       </c>
       <c r="J9">
-        <v>0.08680594076498781</v>
+        <v>0.08680595802706614</v>
       </c>
       <c r="K9">
-        <v>1.158757439044073</v>
+        <v>1.158757492757182</v>
       </c>
       <c r="L9">
-        <v>0.04720858711893604</v>
+        <v>0.04720859105373538</v>
       </c>
       <c r="M9">
-        <v>0.01860273576953305</v>
+        <v>0.018602744206305</v>
       </c>
       <c r="N9">
-        <v>0.01829508957223332</v>
+        <v>0.01829509145229594</v>
       </c>
       <c r="O9">
-        <v>2.73603793903828E-07</v>
+        <v>2.736038112206235E-07</v>
       </c>
       <c r="P9">
-        <v>0.00239419831922199</v>
+        <v>0.00239419839904705</v>
       </c>
       <c r="Q9">
-        <v>0.004936109171216043</v>
+        <v>0.00493610933266747</v>
       </c>
       <c r="R9">
-        <v>0.0052857021378342</v>
+        <v>0.005285702304576173</v>
       </c>
       <c r="S9">
-        <v>0.01750248358708005</v>
+        <v>0.01750248384286059</v>
       </c>
       <c r="T9">
-        <v>9.216777729619526E-09</v>
+        <v>9.216778019576731E-09</v>
       </c>
       <c r="U9">
-        <v>4.309032927621152E-06</v>
+        <v>4.309033098967507E-06</v>
       </c>
       <c r="V9">
-        <v>0.6779803097079687</v>
+        <v>0.6779803128276011</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1114,67 +1120,67 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>0.01200669503936872</v>
+        <v>0.01200668464149265</v>
       </c>
       <c r="C10">
-        <v>3.587527172670878</v>
+        <v>3.587522729513868</v>
       </c>
       <c r="D10">
-        <v>0.7517800948365879</v>
+        <v>0.7517799111518846</v>
       </c>
       <c r="E10">
-        <v>0.9481721066621143</v>
+        <v>0.948171850756478</v>
       </c>
       <c r="F10">
-        <v>38.26014002198505</v>
+        <v>38.2601187033333</v>
       </c>
       <c r="G10">
-        <v>0.9240508151475781</v>
+        <v>0.9240500713374129</v>
       </c>
       <c r="H10">
-        <v>0.003421066274629094</v>
+        <v>0.003421065237141964</v>
       </c>
       <c r="I10">
-        <v>0.001526492695097333</v>
+        <v>0.001526492556802938</v>
       </c>
       <c r="J10">
-        <v>0.3391509159211953</v>
+        <v>0.3391495050539702</v>
       </c>
       <c r="K10">
-        <v>10.44931193819133</v>
+        <v>10.44930739309672</v>
       </c>
       <c r="L10">
-        <v>0.9969394998992946</v>
+        <v>0.9969391821350818</v>
       </c>
       <c r="M10">
-        <v>0.7087071472841276</v>
+        <v>0.7087070071202999</v>
       </c>
       <c r="N10">
-        <v>0.04612468544953988</v>
+        <v>0.04612453051754377</v>
       </c>
       <c r="O10">
-        <v>4.133022781868E-06</v>
+        <v>4.133021394625751E-06</v>
       </c>
       <c r="P10">
-        <v>0.004170299545198243</v>
+        <v>0.004170293078843972</v>
       </c>
       <c r="Q10">
-        <v>0.007611864843278575</v>
+        <v>0.007611851929984925</v>
       </c>
       <c r="R10">
-        <v>0.00780365908955673</v>
+        <v>0.007803645726767817</v>
       </c>
       <c r="S10">
-        <v>0.06400326114248159</v>
+        <v>0.06400324017625825</v>
       </c>
       <c r="T10">
-        <v>2.323405666210718E-08</v>
+        <v>2.323403795499112E-08</v>
       </c>
       <c r="U10">
-        <v>9.617369672000205E-06</v>
+        <v>9.617355701567435E-06</v>
       </c>
       <c r="V10">
-        <v>0.1875388426712963</v>
+        <v>0.1875385873531575</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1182,67 +1188,67 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>0.0001192920017728328</v>
+        <v>0.0001192919684712111</v>
       </c>
       <c r="C11">
-        <v>0.0348933602639895</v>
+        <v>0.03489335477227</v>
       </c>
       <c r="D11">
-        <v>0.001836190399042761</v>
+        <v>0.001836189773818444</v>
       </c>
       <c r="E11">
-        <v>0.002402180078977048</v>
+        <v>0.002402179242597454</v>
       </c>
       <c r="F11">
-        <v>0.1782433733850398</v>
+        <v>0.1782432872961045</v>
       </c>
       <c r="G11">
-        <v>0.009993760319623823</v>
+        <v>0.009993759342148304</v>
       </c>
       <c r="H11">
-        <v>1.081381971816919E-05</v>
+        <v>1.08138184349319E-05</v>
       </c>
       <c r="I11">
-        <v>1.174327252372976E-06</v>
+        <v>1.174327131289286E-06</v>
       </c>
       <c r="J11">
-        <v>0.0015925935730114</v>
+        <v>0.001592590826129377</v>
       </c>
       <c r="K11">
-        <v>0.04410853316834273</v>
+        <v>0.04410852116162933</v>
       </c>
       <c r="L11">
-        <v>0.00293359192162567</v>
+        <v>0.002933591968323203</v>
       </c>
       <c r="M11">
-        <v>0.02273872230624393</v>
+        <v>0.02273871990876762</v>
       </c>
       <c r="N11">
-        <v>0.0002055849636494421</v>
+        <v>0.000205584630974569</v>
       </c>
       <c r="O11">
-        <v>3.356011048393747E-08</v>
+        <v>3.356010819074312E-08</v>
       </c>
       <c r="P11">
-        <v>5.088115909670769E-05</v>
+        <v>5.088114121685105E-05</v>
       </c>
       <c r="Q11">
-        <v>0.0001264466650138051</v>
+        <v>0.0001264466312377507</v>
       </c>
       <c r="R11">
-        <v>0.0001309210964745711</v>
+        <v>0.0001309210629184239</v>
       </c>
       <c r="S11">
-        <v>0.0002357833299913136</v>
+        <v>0.0002357832975898002</v>
       </c>
       <c r="T11">
-        <v>3.523300092769585E-10</v>
+        <v>3.523299588637592E-10</v>
       </c>
       <c r="U11">
-        <v>8.038477485257401E-08</v>
+        <v>8.038474655746025E-08</v>
       </c>
       <c r="V11">
-        <v>0.003052920806661631</v>
+        <v>0.003052920491925706</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1250,67 +1256,67 @@
         <v>31</v>
       </c>
       <c r="B12">
-        <v>0.00122540525256899</v>
+        <v>0.001225405707064747</v>
       </c>
       <c r="C12">
-        <v>0.359657751453154</v>
+        <v>0.359657945082091</v>
       </c>
       <c r="D12">
-        <v>0.0593209365871919</v>
+        <v>0.05932094496305134</v>
       </c>
       <c r="E12">
-        <v>0.07687204004790035</v>
+        <v>0.07687205166580575</v>
       </c>
       <c r="F12">
-        <v>2.640014146246664</v>
+        <v>2.640015100966622</v>
       </c>
       <c r="G12">
-        <v>0.09875725758626941</v>
+        <v>0.0987572903428435</v>
       </c>
       <c r="H12">
-        <v>0.0009673518493730556</v>
+        <v>0.0009673518949674804</v>
       </c>
       <c r="I12">
-        <v>8.65656541283684E-05</v>
+        <v>8.656566017478403E-05</v>
       </c>
       <c r="J12">
-        <v>0.07228528377388034</v>
+        <v>0.07228534511882162</v>
       </c>
       <c r="K12">
-        <v>1.092900362298434</v>
+        <v>1.09290056445386</v>
       </c>
       <c r="L12">
-        <v>0.1123189233400318</v>
+        <v>0.1123189371184071</v>
       </c>
       <c r="M12">
-        <v>0.02702355647682059</v>
+        <v>0.02702354843021461</v>
       </c>
       <c r="N12">
-        <v>0.01416300389969456</v>
+        <v>0.01416301069566175</v>
       </c>
       <c r="O12">
-        <v>2.224222304333905E-07</v>
+        <v>2.224222903833092E-07</v>
       </c>
       <c r="P12">
-        <v>0.000596524475890832</v>
+        <v>0.0005965247568344833</v>
       </c>
       <c r="Q12">
-        <v>0.000718250187666317</v>
+        <v>0.000718250745075739</v>
       </c>
       <c r="R12">
-        <v>0.0007490656422592388</v>
+        <v>0.0007490662202997359</v>
       </c>
       <c r="S12">
-        <v>0.004636493010527078</v>
+        <v>0.00463649392480675</v>
       </c>
       <c r="T12">
-        <v>2.331504180457948E-09</v>
+        <v>2.331504870639181E-09</v>
       </c>
       <c r="U12">
-        <v>1.209862492321509E-06</v>
+        <v>1.20986310106564E-06</v>
       </c>
       <c r="V12">
-        <v>0.02856604579256563</v>
+        <v>0.02856605707557902</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1318,67 +1324,67 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <v>0.001869213875297631</v>
+        <v>0.001869212846302972</v>
       </c>
       <c r="C13">
-        <v>0.6965426138750324</v>
+        <v>0.6965421684949183</v>
       </c>
       <c r="D13">
-        <v>0.1716688040452173</v>
+        <v>0.171668786528674</v>
       </c>
       <c r="E13">
-        <v>0.2232935209057572</v>
+        <v>0.2232934964135504</v>
       </c>
       <c r="F13">
-        <v>3.135536884351248</v>
+        <v>3.13553482363095</v>
       </c>
       <c r="G13">
-        <v>0.1795537283347773</v>
+        <v>0.1795536530115778</v>
       </c>
       <c r="H13">
-        <v>0.0003900019584094309</v>
+        <v>0.0003900018558833541</v>
       </c>
       <c r="I13">
-        <v>0.0001705794734305935</v>
+        <v>0.0001705794596749004</v>
       </c>
       <c r="J13">
-        <v>0.07681691713581197</v>
+        <v>0.07681677691939638</v>
       </c>
       <c r="K13">
-        <v>3.217340540376335</v>
+        <v>3.21734009951751</v>
       </c>
       <c r="L13">
-        <v>0.2073903125102883</v>
+        <v>0.2073902808323366</v>
       </c>
       <c r="M13">
-        <v>0.02327111062673545</v>
+        <v>0.02327111929514906</v>
       </c>
       <c r="N13">
-        <v>0.01145433339030529</v>
+        <v>0.01145431806072073</v>
       </c>
       <c r="O13">
-        <v>3.532376705407584E-07</v>
+        <v>3.532375317389339E-07</v>
       </c>
       <c r="P13">
-        <v>0.0007945734650559217</v>
+        <v>0.0007945728211815896</v>
       </c>
       <c r="Q13">
-        <v>0.00122073668622295</v>
+        <v>0.001220735386062791</v>
       </c>
       <c r="R13">
-        <v>0.00128035886869899</v>
+        <v>0.001280357520980437</v>
       </c>
       <c r="S13">
-        <v>0.006508606913602225</v>
+        <v>0.006508604828889924</v>
       </c>
       <c r="T13">
-        <v>3.158134616954405E-09</v>
+        <v>3.15813294777559E-09</v>
       </c>
       <c r="U13">
-        <v>2.15202158029063E-06</v>
+        <v>2.152020190013805E-06</v>
       </c>
       <c r="V13">
-        <v>0.05041359558734597</v>
+        <v>0.0504135696015955</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1386,67 +1392,67 @@
         <v>33</v>
       </c>
       <c r="B14">
-        <v>0.001472942467240728</v>
+        <v>0.001472942999896799</v>
       </c>
       <c r="C14">
-        <v>0.4466070526052168</v>
+        <v>0.4466072788904686</v>
       </c>
       <c r="D14">
-        <v>0.06155750462626601</v>
+        <v>0.06155751432060498</v>
       </c>
       <c r="E14">
-        <v>0.0807011456052843</v>
+        <v>0.0807011590800522</v>
       </c>
       <c r="F14">
-        <v>4.13201149199288</v>
+        <v>4.132012606788162</v>
       </c>
       <c r="G14">
-        <v>0.1258350790337625</v>
+        <v>0.1258351164916753</v>
       </c>
       <c r="H14">
-        <v>0.0009776636693426919</v>
+        <v>0.0009776637228651893</v>
       </c>
       <c r="I14">
-        <v>8.922303347572905E-05</v>
+        <v>8.922304058533279E-05</v>
       </c>
       <c r="J14">
-        <v>0.07847880885495724</v>
+        <v>0.07847888137855855</v>
       </c>
       <c r="K14">
-        <v>1.16018037428747</v>
+        <v>1.160180611673128</v>
       </c>
       <c r="L14">
-        <v>0.1157339649256785</v>
+        <v>0.1157339812474318</v>
       </c>
       <c r="M14">
-        <v>0.03126211889338309</v>
+        <v>0.03126212650696931</v>
       </c>
       <c r="N14">
-        <v>0.01528681108499407</v>
+        <v>0.01528681911692432</v>
       </c>
       <c r="O14">
-        <v>2.443636816957568E-07</v>
+        <v>2.44363752345104E-07</v>
       </c>
       <c r="P14">
-        <v>0.0007059251539245747</v>
+        <v>0.0007059254839059182</v>
       </c>
       <c r="Q14">
-        <v>0.001177075366443883</v>
+        <v>0.001177076016940907</v>
       </c>
       <c r="R14">
-        <v>0.001227076251133789</v>
+        <v>0.001227076923247848</v>
       </c>
       <c r="S14">
-        <v>0.004837599015960918</v>
+        <v>0.004837600092023953</v>
       </c>
       <c r="T14">
-        <v>2.752646490095837E-09</v>
+        <v>2.7526474476876E-09</v>
       </c>
       <c r="U14">
-        <v>1.396138820770964E-06</v>
+        <v>1.396139536265432E-06</v>
       </c>
       <c r="V14">
-        <v>0.03991211548709336</v>
+        <v>0.03991212828671442</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1454,67 +1460,67 @@
         <v>34</v>
       </c>
       <c r="B15">
-        <v>-0.006490748634554998</v>
+        <v>0.02014800575085809</v>
       </c>
       <c r="C15">
-        <v>-0.514419881749405</v>
+        <v>5.412138769641842</v>
       </c>
       <c r="D15">
-        <v>-0.5126269709869956</v>
+        <v>0.4790003116759409</v>
       </c>
       <c r="E15">
-        <v>-0.6554899396483586</v>
+        <v>0.6937658283710153</v>
       </c>
       <c r="F15">
-        <v>-44.95788826805604</v>
+        <v>162.4692170152318</v>
       </c>
       <c r="G15">
-        <v>-0.1431501682460723</v>
+        <v>1.263840859948373</v>
       </c>
       <c r="H15">
-        <v>-0.0007222434603122123</v>
+        <v>0.001859832182917046</v>
       </c>
       <c r="I15">
-        <v>-2.22725391175224E-05</v>
+        <v>0.0002025503367142516</v>
       </c>
       <c r="J15">
-        <v>-0.07328942761866883</v>
+        <v>8.707422220071429</v>
       </c>
       <c r="K15">
-        <v>-7.492091890947863</v>
+        <v>7.323945495338215</v>
       </c>
       <c r="L15">
-        <v>-0.05105694501780383</v>
+        <v>0.3025761826305667</v>
       </c>
       <c r="M15">
-        <v>-0.03497458528080142</v>
+        <v>0.1830157204854681</v>
       </c>
       <c r="N15">
-        <v>-0.02634864175350404</v>
+        <v>0.533213164260628</v>
       </c>
       <c r="O15">
-        <v>-2.485598638545479E-07</v>
+        <v>1.424550610561326E-06</v>
       </c>
       <c r="P15">
-        <v>-0.002256762912803831</v>
+        <v>0.01872213750616109</v>
       </c>
       <c r="Q15">
-        <v>-0.001651215632803903</v>
+        <v>0.01372950679172742</v>
       </c>
       <c r="R15">
-        <v>-0.001720588448756282</v>
+        <v>0.01433350493560152</v>
       </c>
       <c r="S15">
-        <v>-0.004639160302638082</v>
+        <v>0.04030595578400933</v>
       </c>
       <c r="T15">
-        <v>-4.769793943445486E-09</v>
+        <v>2.640655743116787E-08</v>
       </c>
       <c r="U15">
-        <v>-3.858391486777882E-06</v>
+        <v>4.747736597490065E-05</v>
       </c>
       <c r="V15">
-        <v>-0.04691174353788619</v>
+        <v>0.3970950246111924</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1522,67 +1528,67 @@
         <v>35</v>
       </c>
       <c r="B16">
-        <v>-0.01476381583009628</v>
+        <v>0.001354589648208326</v>
       </c>
       <c r="C16">
-        <v>-4.903203323914648</v>
+        <v>0.5250824041343829</v>
       </c>
       <c r="D16">
-        <v>-0.1583765773284243</v>
+        <v>0.1290970868494521</v>
       </c>
       <c r="E16">
-        <v>-0.2084479339676329</v>
+        <v>0.1886619137488534</v>
       </c>
       <c r="F16">
-        <v>-11.5839789646032</v>
+        <v>1.215319047439789</v>
       </c>
       <c r="G16">
-        <v>-1.33187740759489</v>
+        <v>0.1195787874209231</v>
       </c>
       <c r="H16">
-        <v>-0.001881148462664691</v>
+        <v>0.00032637940307945</v>
       </c>
       <c r="I16">
-        <v>-0.0006427168141487833</v>
+        <v>2.826348782646607E-05</v>
       </c>
       <c r="J16">
-        <v>-0.2269238258204962</v>
+        <v>7.526053583543959</v>
       </c>
       <c r="K16">
-        <v>-5.258884950619854</v>
+        <v>0.8990834724588607</v>
       </c>
       <c r="L16">
-        <v>-0.3174956659891777</v>
+        <v>0.169615578836549</v>
       </c>
       <c r="M16">
-        <v>-1.228873500642377</v>
+        <v>0.01479426198929931</v>
       </c>
       <c r="N16">
-        <v>-0.1589738694255415</v>
+        <v>0.02932617078704129</v>
       </c>
       <c r="O16">
-        <v>-2.487532931912387E-06</v>
+        <v>1.727342063030076E-07</v>
       </c>
       <c r="P16">
-        <v>-0.008076954094071737</v>
+        <v>0.0005579309175138098</v>
       </c>
       <c r="Q16">
-        <v>-0.01100910372320553</v>
+        <v>0.0009521020703669474</v>
       </c>
       <c r="R16">
-        <v>-0.01141427999987671</v>
+        <v>0.0009960458556011447</v>
       </c>
       <c r="S16">
-        <v>-0.05179452405680472</v>
+        <v>0.009474427311568032</v>
       </c>
       <c r="T16">
-        <v>-3.075812056139163E-08</v>
+        <v>2.359429830586301E-09</v>
       </c>
       <c r="U16">
-        <v>-1.170814453524649E-05</v>
+        <v>2.605191251401942E-05</v>
       </c>
       <c r="V16">
-        <v>-0.3912364606472107</v>
+        <v>0.03630745624072207</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1590,67 +1596,67 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>-0.0002716546704745839</v>
+        <v>-0.006490748646964205</v>
       </c>
       <c r="C17">
-        <v>-2.372984758928199</v>
+        <v>-0.5144198864942267</v>
       </c>
       <c r="D17">
-        <v>-0.1201199394554674</v>
+        <v>-0.5126269713888563</v>
       </c>
       <c r="E17">
-        <v>-0.1599610768167155</v>
+        <v>-0.6554899401805657</v>
       </c>
       <c r="F17">
-        <v>-1.265781253462105</v>
+        <v>-44.95788830647352</v>
       </c>
       <c r="G17">
-        <v>-0.007903466617444604</v>
+        <v>-0.1431501691382713</v>
       </c>
       <c r="H17">
-        <v>-5.23632756020323E-06</v>
+        <v>-0.0007222434616404957</v>
       </c>
       <c r="I17">
-        <v>-2.145683954351817E-05</v>
+        <v>-2.227253927315073E-05</v>
       </c>
       <c r="J17">
-        <v>-0.02399119430011366</v>
+        <v>-0.07328942910930242</v>
       </c>
       <c r="K17">
-        <v>-2.349946997539753</v>
+        <v>-7.492091898357436</v>
       </c>
       <c r="L17">
-        <v>-0.001044697260293203</v>
+        <v>-0.05105694532536151</v>
       </c>
       <c r="M17">
-        <v>-0.0005566587240602394</v>
+        <v>-0.03497458463221933</v>
       </c>
       <c r="N17">
-        <v>-0.001265723624587958</v>
+        <v>-0.02634864193161362</v>
       </c>
       <c r="O17">
-        <v>-1.017244145670435E-06</v>
+        <v>-2.485598651831844E-07</v>
       </c>
       <c r="P17">
-        <v>-9.178314743956522E-05</v>
+        <v>-0.002256762919672099</v>
       </c>
       <c r="Q17">
-        <v>-0.00060271200939533</v>
+        <v>-0.001651215644375298</v>
       </c>
       <c r="R17">
-        <v>-0.0006068257308359927</v>
+        <v>-0.001720588461083954</v>
       </c>
       <c r="S17">
-        <v>-0.003723410407314201</v>
+        <v>-0.004639160326034245</v>
       </c>
       <c r="T17">
-        <v>-6.903281104885802E-09</v>
+        <v>-4.769793956858727E-09</v>
       </c>
       <c r="U17">
-        <v>-2.884956426942507E-06</v>
+        <v>-3.858391502201901E-06</v>
       </c>
       <c r="V17">
-        <v>-0.00298372540332419</v>
+        <v>-0.04691174385070163</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1658,67 +1664,67 @@
         <v>37</v>
       </c>
       <c r="B18">
-        <v>-0.0001933860078155203</v>
+        <v>-0.01476381661553083</v>
       </c>
       <c r="C18">
-        <v>-3.020426943445872</v>
+        <v>-4.903203670246965</v>
       </c>
       <c r="D18">
-        <v>-0.1585863092189396</v>
+        <v>-0.1583765914901757</v>
       </c>
       <c r="E18">
-        <v>-0.2296331745856378</v>
+        <v>-0.2084479537057494</v>
       </c>
       <c r="F18">
-        <v>-8.833295471831493</v>
+        <v>-11.5839806094824</v>
       </c>
       <c r="G18">
-        <v>-0.005003262682622489</v>
+        <v>-1.331877465993844</v>
       </c>
       <c r="H18">
-        <v>-2.655623841270295E-06</v>
+        <v>-0.001881148543693356</v>
       </c>
       <c r="I18">
-        <v>-4.732000328414847E-06</v>
+        <v>-0.0006427168248259958</v>
       </c>
       <c r="J18">
-        <v>-0.009831378216166389</v>
+        <v>-0.2269239351178872</v>
       </c>
       <c r="K18">
-        <v>-1.917643194599126</v>
+        <v>-5.258885304457362</v>
       </c>
       <c r="L18">
-        <v>-0.0004283467691232901</v>
+        <v>-0.3174956906711384</v>
       </c>
       <c r="M18">
-        <v>-0.000312566166828578</v>
+        <v>-1.228873456217811</v>
       </c>
       <c r="N18">
-        <v>-0.0006251339119613217</v>
+        <v>-0.1589738814657723</v>
       </c>
       <c r="O18">
-        <v>-2.204923871764067E-07</v>
+        <v>-2.487533038350954E-06</v>
       </c>
       <c r="P18">
-        <v>-6.373950016161156E-05</v>
+        <v>-0.008076954585642556</v>
       </c>
       <c r="Q18">
-        <v>-0.0004646641486928037</v>
+        <v>-0.0110091046873003</v>
       </c>
       <c r="R18">
-        <v>-0.0004671485385462169</v>
+        <v>-0.01141428100095609</v>
       </c>
       <c r="S18">
-        <v>-0.001527600916372158</v>
+        <v>-0.05179452566432472</v>
       </c>
       <c r="T18">
-        <v>-8.798283388469299E-09</v>
+        <v>-3.075812151748456E-08</v>
       </c>
       <c r="U18">
-        <v>-3.317026264349801E-06</v>
+        <v>-1.170814561392106E-05</v>
       </c>
       <c r="V18">
-        <v>-0.001836594164665639</v>
+        <v>-0.3912364807039946</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1726,67 +1732,67 @@
         <v>38</v>
       </c>
       <c r="B19">
-        <v>-0.0001646121381365227</v>
+        <v>-0.000271654631429505</v>
       </c>
       <c r="C19">
-        <v>-2.551055181754648</v>
+        <v>-2.37298474226637</v>
       </c>
       <c r="D19">
-        <v>-0.1339373211787019</v>
+        <v>-0.1201199388588396</v>
       </c>
       <c r="E19">
-        <v>-0.1939394980327657</v>
+        <v>-0.1599610759801214</v>
       </c>
       <c r="F19">
-        <v>-7.460966746768382</v>
+        <v>-1.265781181251217</v>
       </c>
       <c r="G19">
-        <v>-0.004357871726520085</v>
+        <v>-0.007903463746588305</v>
       </c>
       <c r="H19">
-        <v>-2.414201474538429E-06</v>
+        <v>-5.236323857286842E-06</v>
       </c>
       <c r="I19">
-        <v>-4.015526207283107E-06</v>
+        <v>-2.14568390367407E-05</v>
       </c>
       <c r="J19">
-        <v>-0.008600985039240731</v>
+        <v>-0.02399118922430788</v>
       </c>
       <c r="K19">
-        <v>-1.619602098015365</v>
+        <v>-2.34994698222121</v>
       </c>
       <c r="L19">
-        <v>-0.0003773716902590091</v>
+        <v>-0.001044696103874601</v>
       </c>
       <c r="M19">
-        <v>-0.0002772555796257859</v>
+        <v>-0.0005566578131285625</v>
       </c>
       <c r="N19">
-        <v>-0.0005834808470224881</v>
+        <v>-0.001265723075485285</v>
       </c>
       <c r="O19">
-        <v>-1.862772748424075E-07</v>
+        <v>-1.017244140343621E-06</v>
       </c>
       <c r="P19">
-        <v>-5.554319538891143E-05</v>
+        <v>-9.178312287660067E-05</v>
       </c>
       <c r="Q19">
-        <v>-0.0003938721042525055</v>
+        <v>-0.0006027119571730201</v>
       </c>
       <c r="R19">
-        <v>-0.0003961234716631669</v>
+        <v>-0.0006068256767138338</v>
       </c>
       <c r="S19">
-        <v>-0.001449330901578295</v>
+        <v>-0.003723410331767502</v>
       </c>
       <c r="T19">
-        <v>-7.43174379735545E-09</v>
+        <v>-6.903281031075727E-09</v>
       </c>
       <c r="U19">
-        <v>-2.803970332686575E-06</v>
+        <v>-2.88495637546611E-06</v>
       </c>
       <c r="V19">
-        <v>-0.001600392127303688</v>
+        <v>-0.002983724402847853</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1794,67 +1800,67 @@
         <v>39</v>
       </c>
       <c r="B20">
-        <v>-0.001398397590049627</v>
+        <v>-0.0001933859996999687</v>
       </c>
       <c r="C20">
-        <v>-0.7567638703205365</v>
+        <v>-3.020426940058417</v>
       </c>
       <c r="D20">
-        <v>-0.01833915560862331</v>
+        <v>-0.1585863091133994</v>
       </c>
       <c r="E20">
-        <v>-0.0243450873655054</v>
+        <v>-0.2296331744372331</v>
       </c>
       <c r="F20">
-        <v>-0.1475128231021348</v>
+        <v>-8.833295458579006</v>
       </c>
       <c r="G20">
-        <v>-0.0269172805556722</v>
+        <v>-0.005003262065522243</v>
       </c>
       <c r="H20">
-        <v>-9.76180822305393E-06</v>
+        <v>-2.655623129119431E-06</v>
       </c>
       <c r="I20">
-        <v>-0.0002333030149127648</v>
+        <v>-4.732000227715966E-06</v>
       </c>
       <c r="J20">
-        <v>-0.006488522302843924</v>
+        <v>-0.009831377243927323</v>
       </c>
       <c r="K20">
-        <v>-0.4347469582385669</v>
+        <v>-1.917643191844702</v>
       </c>
       <c r="L20">
-        <v>-0.001827152907282805</v>
+        <v>-0.0004283465484905571</v>
       </c>
       <c r="M20">
-        <v>-0.0007984170252812499</v>
+        <v>-0.0003125674027287455</v>
       </c>
       <c r="N20">
-        <v>-0.002098156628242014</v>
+        <v>-0.0006251338101311141</v>
       </c>
       <c r="O20">
-        <v>-1.16737588611773E-05</v>
+        <v>-2.204923860709474E-07</v>
       </c>
       <c r="P20">
-        <v>-0.0004388304071883963</v>
+        <v>-6.373949506415626E-05</v>
       </c>
       <c r="Q20">
-        <v>-0.003158334722113754</v>
+        <v>-0.0004646641370429013</v>
       </c>
       <c r="R20">
-        <v>-0.003169012325980135</v>
+        <v>-0.0004671485264207166</v>
       </c>
       <c r="S20">
-        <v>-0.002121980085358954</v>
+        <v>-0.001527600901865622</v>
       </c>
       <c r="T20">
-        <v>-2.854796012614282E-09</v>
+        <v>-8.798283385952238E-09</v>
       </c>
       <c r="U20">
-        <v>-1.113230981401194E-06</v>
+        <v>-3.317026254100433E-06</v>
       </c>
       <c r="V20">
-        <v>-0.009696644196812361</v>
+        <v>-0.001836593944920299</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1862,67 +1868,203 @@
         <v>40</v>
       </c>
       <c r="B21">
-        <v>0.000126190583214441</v>
+        <v>-0.0001646121342466549</v>
       </c>
       <c r="C21">
-        <v>0.028798839479997</v>
+        <v>-2.551055180217032</v>
       </c>
       <c r="D21">
-        <v>0.001112296794346071</v>
+        <v>-0.1339373211411067</v>
       </c>
       <c r="E21">
-        <v>0.001234720943875513</v>
+        <v>-0.1939394979793798</v>
       </c>
       <c r="F21">
-        <v>0.06967609663472163</v>
+        <v>-7.460966741711091</v>
       </c>
       <c r="G21">
-        <v>0.01615642982300767</v>
+        <v>-0.004357871427623806</v>
       </c>
       <c r="H21">
-        <v>1.054829811345095E-05</v>
+        <v>-2.414201180407384E-06</v>
       </c>
       <c r="I21">
-        <v>4.407674554694965E-05</v>
+        <v>-4.015526162676491E-06</v>
       </c>
       <c r="J21">
-        <v>0.00116068005719205</v>
+        <v>-0.008600984634478935</v>
       </c>
       <c r="K21">
-        <v>0.02244031950082485</v>
+        <v>-1.619602097036889</v>
       </c>
       <c r="L21">
-        <v>0.001612776859142168</v>
+        <v>-0.0003773715989557769</v>
       </c>
       <c r="M21">
-        <v>0.006488737374810467</v>
+        <v>-0.0002772560084502824</v>
       </c>
       <c r="N21">
-        <v>0.0001793382063060926</v>
+        <v>-0.0005834808059301301</v>
       </c>
       <c r="O21">
-        <v>5.482244094146897E-08</v>
+        <v>-1.862772743108963E-07</v>
       </c>
       <c r="P21">
-        <v>3.862852089093403E-05</v>
+        <v>-5.554319294763976E-05</v>
       </c>
       <c r="Q21">
-        <v>0.0005472006675511947</v>
+        <v>-0.0003938720980763101</v>
       </c>
       <c r="R21">
-        <v>0.0008460368452234538</v>
+        <v>-0.0003961234652271663</v>
       </c>
       <c r="S21">
-        <v>0.00479543607146066</v>
+        <v>-0.001449330895532325</v>
       </c>
       <c r="T21">
-        <v>2.829306142975177E-10</v>
+        <v>-7.431743794914819E-09</v>
       </c>
       <c r="U21">
-        <v>7.115852798606102E-08</v>
+        <v>-2.803970328137808E-06</v>
       </c>
       <c r="V21">
-        <v>0.006193426797228437</v>
+        <v>-0.001600392018095094</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>-0.001398397523683161</v>
+      </c>
+      <c r="C22">
+        <v>-0.7567638416664285</v>
+      </c>
+      <c r="D22">
+        <v>-0.0183391545075601</v>
+      </c>
+      <c r="E22">
+        <v>-0.02434508582427817</v>
+      </c>
+      <c r="F22">
+        <v>-0.1475126934378189</v>
+      </c>
+      <c r="G22">
+        <v>-0.02691727564995615</v>
+      </c>
+      <c r="H22">
+        <v>-9.761801719536103E-06</v>
+      </c>
+      <c r="I22">
+        <v>-0.0002333030140363916</v>
+      </c>
+      <c r="J22">
+        <v>-0.006488513459913423</v>
+      </c>
+      <c r="K22">
+        <v>-0.4347469305292181</v>
+      </c>
+      <c r="L22">
+        <v>-0.001827150900525922</v>
+      </c>
+      <c r="M22">
+        <v>-0.0007984164399273361</v>
+      </c>
+      <c r="N22">
+        <v>-0.002098155665873459</v>
+      </c>
+      <c r="O22">
+        <v>-1.167375885220737E-05</v>
+      </c>
+      <c r="P22">
+        <v>-0.0004388303656122347</v>
+      </c>
+      <c r="Q22">
+        <v>-0.00315833463637916</v>
+      </c>
+      <c r="R22">
+        <v>-0.003169012237003845</v>
+      </c>
+      <c r="S22">
+        <v>-0.002121979953500192</v>
+      </c>
+      <c r="T22">
+        <v>-2.854795894868185E-09</v>
+      </c>
+      <c r="U22">
+        <v>-1.113230892604066E-06</v>
+      </c>
+      <c r="V22">
+        <v>-0.009696642493480671</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>0.0001658198645330549</v>
+      </c>
+      <c r="C23">
+        <v>0.04308496737246396</v>
+      </c>
+      <c r="D23">
+        <v>0.001500215628377664</v>
+      </c>
+      <c r="E23">
+        <v>0.001750483297936481</v>
+      </c>
+      <c r="F23">
+        <v>0.09889800740291893</v>
+      </c>
+      <c r="G23">
+        <v>0.02495321483986812</v>
+      </c>
+      <c r="H23">
+        <v>1.433269920432756E-05</v>
+      </c>
+      <c r="I23">
+        <v>4.459266681316375E-05</v>
+      </c>
+      <c r="J23">
+        <v>0.001754540921159541</v>
+      </c>
+      <c r="K23">
+        <v>0.03141541125386171</v>
+      </c>
+      <c r="L23">
+        <v>0.002786099924835055</v>
+      </c>
+      <c r="M23">
+        <v>0.006879360555001515</v>
+      </c>
+      <c r="N23">
+        <v>0.0002745385122945675</v>
+      </c>
+      <c r="O23">
+        <v>5.746169305669503E-08</v>
+      </c>
+      <c r="P23">
+        <v>5.543929647084078E-05</v>
+      </c>
+      <c r="Q23">
+        <v>0.0005802654388943119</v>
+      </c>
+      <c r="R23">
+        <v>0.000882377775384523</v>
+      </c>
+      <c r="S23">
+        <v>0.005025704125015044</v>
+      </c>
+      <c r="T23">
+        <v>3.426915568127474E-10</v>
+      </c>
+      <c r="U23">
+        <v>9.954835067191628E-08</v>
+      </c>
+      <c r="V23">
+        <v>0.00952049423031644</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_apos/data_uniquie_case1_apos_recipe.xlsx
+++ b/results/case1_apos/data_uniquie_case1_apos_recipe.xlsx
@@ -2004,67 +2004,67 @@
         <v>42</v>
       </c>
       <c r="B23">
-        <v>0.0001658198645330549</v>
+        <v>0.0001010172624413429</v>
       </c>
       <c r="C23">
-        <v>0.04308496737246396</v>
+        <v>0.01972400231716274</v>
       </c>
       <c r="D23">
-        <v>0.001500215628377664</v>
+        <v>0.0008658827728534651</v>
       </c>
       <c r="E23">
-        <v>0.001750483297936481</v>
+        <v>0.0009070980882871871</v>
       </c>
       <c r="F23">
-        <v>0.09889800740291893</v>
+        <v>0.05111373252076531</v>
       </c>
       <c r="G23">
-        <v>0.02495321483986812</v>
+        <v>0.01056853539929978</v>
       </c>
       <c r="H23">
-        <v>1.433269920432756E-05</v>
+        <v>8.144369994208369E-06</v>
       </c>
       <c r="I23">
-        <v>4.459266681316375E-05</v>
+        <v>4.374902194061818E-05</v>
       </c>
       <c r="J23">
-        <v>0.001754540921159541</v>
+        <v>0.0007834467865369193</v>
       </c>
       <c r="K23">
-        <v>0.03141541125386171</v>
+        <v>0.01673915749824312</v>
       </c>
       <c r="L23">
-        <v>0.002786099924835055</v>
+        <v>0.000867458374762874</v>
       </c>
       <c r="M23">
-        <v>0.006879360555001515</v>
+        <v>0.006240605807991459</v>
       </c>
       <c r="N23">
-        <v>0.0002745385122945675</v>
+        <v>0.0001188649506342946</v>
       </c>
       <c r="O23">
-        <v>5.746169305669503E-08</v>
+        <v>5.314593433066784E-08</v>
       </c>
       <c r="P23">
-        <v>5.543929647084078E-05</v>
+        <v>2.794997518718457E-05</v>
       </c>
       <c r="Q23">
-        <v>0.0005802654388943119</v>
+        <v>0.0005261972542679431</v>
       </c>
       <c r="R23">
-        <v>0.000882377775384523</v>
+        <v>0.0008229523499859586</v>
       </c>
       <c r="S23">
-        <v>0.005025704125015044</v>
+        <v>0.004649165179544731</v>
       </c>
       <c r="T23">
-        <v>3.426915568127474E-10</v>
+        <v>2.449692566921191E-10</v>
       </c>
       <c r="U23">
-        <v>9.954835067191628E-08</v>
+        <v>5.312473474680594E-08</v>
       </c>
       <c r="V23">
-        <v>0.00952049423031644</v>
+        <v>0.004080006796476822</v>
       </c>
     </row>
   </sheetData>

--- a/results/case1_apos/data_uniquie_case1_apos_recipe.xlsx
+++ b/results/case1_apos/data_uniquie_case1_apos_recipe.xlsx
@@ -576,67 +576,67 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>0.0007188410825704091</v>
+        <v>0.0007188410824671954</v>
       </c>
       <c r="C2">
-        <v>0.2476679280857501</v>
+        <v>0.2476679279440377</v>
       </c>
       <c r="D2">
-        <v>0.007819008709097365</v>
+        <v>0.007819008692750937</v>
       </c>
       <c r="E2">
-        <v>0.01032083111775802</v>
+        <v>0.01032083109607946</v>
       </c>
       <c r="F2">
-        <v>0.6751939407418635</v>
+        <v>0.6751939395950882</v>
       </c>
       <c r="G2">
-        <v>0.149759799744358</v>
+        <v>0.1497597997308772</v>
       </c>
       <c r="H2">
-        <v>5.541603765532319E-05</v>
+        <v>5.541603758887602E-05</v>
       </c>
       <c r="I2">
-        <v>7.917951413907697E-06</v>
+        <v>7.91795140838225E-06</v>
       </c>
       <c r="J2">
-        <v>0.009957980029370253</v>
+        <v>0.009957979953280259</v>
       </c>
       <c r="K2">
-        <v>0.1553442077641456</v>
+        <v>0.1553442074910721</v>
       </c>
       <c r="L2">
-        <v>0.01109665223627687</v>
+        <v>0.0110966522211597</v>
       </c>
       <c r="M2">
-        <v>0.004202583829486242</v>
+        <v>0.004202585243749521</v>
       </c>
       <c r="N2">
-        <v>0.002064265123913724</v>
+        <v>0.002064265115944929</v>
       </c>
       <c r="O2">
-        <v>4.733841793118019E-08</v>
+        <v>4.733841790902759E-08</v>
       </c>
       <c r="P2">
-        <v>0.000309903754274031</v>
+        <v>0.0003099037541995352</v>
       </c>
       <c r="Q2">
-        <v>0.0005818799174145266</v>
+        <v>0.0005818799178340467</v>
       </c>
       <c r="R2">
-        <v>0.00061649440504491</v>
+        <v>0.0006164944054713166</v>
       </c>
       <c r="S2">
-        <v>0.001999873844707333</v>
+        <v>0.001999873843632178</v>
       </c>
       <c r="T2">
-        <v>1.014262297099406E-09</v>
+        <v>1.014262309218479E-09</v>
       </c>
       <c r="U2">
-        <v>4.981149190963614E-07</v>
+        <v>4.981149186010898E-07</v>
       </c>
       <c r="V2">
-        <v>0.05704845766178669</v>
+        <v>0.05704845766080239</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -644,67 +644,67 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>0.002056820209709837</v>
+        <v>0.002056820253021734</v>
       </c>
       <c r="C3">
-        <v>0.7087358664701405</v>
+        <v>0.708735870176005</v>
       </c>
       <c r="D3">
-        <v>0.0223690135629654</v>
+        <v>0.02236901594278671</v>
       </c>
       <c r="E3">
-        <v>0.02952715018187349</v>
+        <v>0.02952715318720305</v>
       </c>
       <c r="F3">
-        <v>1.930445646149112</v>
+        <v>1.930445876821019</v>
       </c>
       <c r="G3">
-        <v>0.4284511341481871</v>
+        <v>0.4284511351937448</v>
       </c>
       <c r="H3">
-        <v>0.0001588899811829371</v>
+        <v>0.0001588899843878486</v>
       </c>
       <c r="I3">
-        <v>2.293561073080597E-05</v>
+        <v>2.293561090065144E-05</v>
       </c>
       <c r="J3">
-        <v>0.02851045591263329</v>
+        <v>0.02851045609849471</v>
       </c>
       <c r="K3">
-        <v>0.4448102198623478</v>
+        <v>0.4448102564863244</v>
       </c>
       <c r="L3">
-        <v>0.03191441597688861</v>
+        <v>0.03191441590267191</v>
       </c>
       <c r="M3">
-        <v>0.01225291825624499</v>
+        <v>0.01225293459294491</v>
       </c>
       <c r="N3">
-        <v>0.005902614599457084</v>
+        <v>0.005902614797402062</v>
       </c>
       <c r="O3">
-        <v>1.357905812651281E-07</v>
+        <v>1.35790582994853E-07</v>
       </c>
       <c r="P3">
-        <v>0.0008865846992986994</v>
+        <v>0.0008865847161812432</v>
       </c>
       <c r="Q3">
-        <v>0.001665485124687642</v>
+        <v>0.001665485154960589</v>
       </c>
       <c r="R3">
-        <v>0.001764860183378448</v>
+        <v>0.001764860214529789</v>
       </c>
       <c r="S3">
-        <v>0.005755802196428514</v>
+        <v>0.005755802200797022</v>
       </c>
       <c r="T3">
-        <v>2.904679761529727E-09</v>
+        <v>2.904679936864555E-09</v>
       </c>
       <c r="U3">
-        <v>1.425453206064599E-06</v>
+        <v>1.425453229115327E-06</v>
       </c>
       <c r="V3">
-        <v>0.1631995357377656</v>
+        <v>0.1631995361786758</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -712,67 +712,67 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>0.2920171173910733</v>
+        <v>0.2889171314904746</v>
       </c>
       <c r="C4">
-        <v>67.96149366356597</v>
+        <v>67.24209451060339</v>
       </c>
       <c r="D4">
-        <v>3.343468380075887</v>
+        <v>3.2966631389161</v>
       </c>
       <c r="E4">
-        <v>4.397719426025473</v>
+        <v>4.335909998330115</v>
       </c>
       <c r="F4">
-        <v>129.483853868468</v>
+        <v>127.1169928923568</v>
       </c>
       <c r="G4">
-        <v>15.45702326102014</v>
+        <v>15.26137385924116</v>
       </c>
       <c r="H4">
-        <v>0.02502958964819145</v>
+        <v>0.02448686551929041</v>
       </c>
       <c r="I4">
-        <v>0.002961696305852502</v>
+        <v>0.002868576695166518</v>
       </c>
       <c r="J4">
-        <v>12.41772965492691</v>
+        <v>12.3539717236786</v>
       </c>
       <c r="K4">
-        <v>69.68109463655202</v>
+        <v>68.52364445075307</v>
       </c>
       <c r="L4">
-        <v>4.828782166520232</v>
+        <v>4.556730911271411</v>
       </c>
       <c r="M4">
-        <v>1.39878566758106</v>
+        <v>1.366349811706236</v>
       </c>
       <c r="N4">
-        <v>1.047634555768604</v>
+        <v>1.037419965683121</v>
       </c>
       <c r="O4">
-        <v>1.731839318341536E-05</v>
+        <v>1.692426800554432E-05</v>
       </c>
       <c r="P4">
-        <v>0.1276862589593429</v>
+        <v>0.1265118909686725</v>
       </c>
       <c r="Q4">
-        <v>0.1710433636683062</v>
+        <v>0.1695760462658859</v>
       </c>
       <c r="R4">
-        <v>0.1748456140323374</v>
+        <v>0.1733102752151963</v>
       </c>
       <c r="S4">
-        <v>0.7054168332572308</v>
+        <v>0.6248853220009171</v>
       </c>
       <c r="T4">
-        <v>3.082419934625819E-07</v>
+        <v>3.046547757647637E-07</v>
       </c>
       <c r="U4">
-        <v>0.0002021677456688179</v>
+        <v>0.0002001042792220746</v>
       </c>
       <c r="V4">
-        <v>3.388317492579762</v>
+        <v>3.339848579598172</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -780,67 +780,67 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>0.1731474711570977</v>
+        <v>0.1711242245152024</v>
       </c>
       <c r="C5">
-        <v>40.2771235529253</v>
+        <v>39.80759821798709</v>
       </c>
       <c r="D5">
-        <v>1.987228334684082</v>
+        <v>1.956680279190709</v>
       </c>
       <c r="E5">
-        <v>2.615115909291482</v>
+        <v>2.574775174322631</v>
       </c>
       <c r="F5">
-        <v>79.45644919498872</v>
+        <v>77.91168631777296</v>
       </c>
       <c r="G5">
-        <v>9.12950922299779</v>
+        <v>9.001816062856657</v>
       </c>
       <c r="H5">
-        <v>0.01484490362894455</v>
+        <v>0.01449068757676052</v>
       </c>
       <c r="I5">
-        <v>0.001756211777978917</v>
+        <v>0.001695436037233109</v>
       </c>
       <c r="J5">
-        <v>7.51624766364935</v>
+        <v>7.474635211822448</v>
       </c>
       <c r="K5">
-        <v>41.35000596057196</v>
+        <v>40.59458086485377</v>
       </c>
       <c r="L5">
-        <v>2.865398104017851</v>
+        <v>2.687840266715971</v>
       </c>
       <c r="M5">
-        <v>0.8324449390818317</v>
+        <v>0.8112748582639332</v>
       </c>
       <c r="N5">
-        <v>0.6280576655331707</v>
+        <v>0.6213909791679654</v>
       </c>
       <c r="O5">
-        <v>1.026658768719198E-05</v>
+        <v>1.000935669259246E-05</v>
       </c>
       <c r="P5">
-        <v>0.07587061027607361</v>
+        <v>0.07510414352362385</v>
       </c>
       <c r="Q5">
-        <v>0.1013989013155334</v>
+        <v>0.1004412372077521</v>
       </c>
       <c r="R5">
-        <v>0.1036435004369363</v>
+        <v>0.1026414412567961</v>
       </c>
       <c r="S5">
-        <v>0.4178150716631694</v>
+        <v>0.3652551195291351</v>
       </c>
       <c r="T5">
-        <v>1.827733044288003E-07</v>
+        <v>1.804320560505088E-07</v>
       </c>
       <c r="U5">
-        <v>0.0001204711617628235</v>
+        <v>0.0001191244132034306</v>
       </c>
       <c r="V5">
-        <v>1.995477654019856</v>
+        <v>1.963843779188742</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -848,67 +848,67 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>0.009244927533892115</v>
+        <v>0.009244927526301558</v>
       </c>
       <c r="C6">
-        <v>2.671091862213708</v>
+        <v>2.671091861232526</v>
       </c>
       <c r="D6">
-        <v>0.5528633210505504</v>
+        <v>0.5528633205624377</v>
       </c>
       <c r="E6">
-        <v>0.6978899149931242</v>
+        <v>0.6978899143624365</v>
       </c>
       <c r="F6">
-        <v>28.38506811177034</v>
+        <v>28.38506806510357</v>
       </c>
       <c r="G6">
-        <v>0.6839582804410227</v>
+        <v>0.6839582802195485</v>
       </c>
       <c r="H6">
-        <v>0.002701484754564962</v>
+        <v>0.002701484753872018</v>
       </c>
       <c r="I6">
-        <v>0.001849573462062668</v>
+        <v>0.001849573462067798</v>
       </c>
       <c r="J6">
-        <v>0.2576173693739232</v>
+        <v>0.2576173685578719</v>
       </c>
       <c r="K6">
-        <v>8.056915153088248</v>
+        <v>8.056915147123204</v>
       </c>
       <c r="L6">
-        <v>0.7222525171593605</v>
+        <v>0.7222525171620165</v>
       </c>
       <c r="M6">
-        <v>0.5164372663178778</v>
+        <v>0.5164372633228663</v>
       </c>
       <c r="N6">
-        <v>0.04237847033704831</v>
+        <v>0.04237847018861163</v>
       </c>
       <c r="O6">
-        <v>3.232912397656487E-06</v>
+        <v>3.232912397284916E-06</v>
       </c>
       <c r="P6">
-        <v>0.003220264727265799</v>
+        <v>0.003220264722540694</v>
       </c>
       <c r="Q6">
-        <v>0.005711523980948939</v>
+        <v>0.005711523970577953</v>
       </c>
       <c r="R6">
-        <v>0.005856926543821672</v>
+        <v>0.00585692653342924</v>
       </c>
       <c r="S6">
-        <v>0.04998574905854331</v>
+        <v>0.04998574905606649</v>
       </c>
       <c r="T6">
-        <v>1.736799597090247E-08</v>
+        <v>1.736799593721865E-08</v>
       </c>
       <c r="U6">
-        <v>7.31825493555697E-06</v>
+        <v>7.31825492759243E-06</v>
       </c>
       <c r="V6">
-        <v>0.1417827733906299</v>
+        <v>0.1417827732979815</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -916,67 +916,67 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>0.02902244517054219</v>
+        <v>0.02902244513844125</v>
       </c>
       <c r="C7">
-        <v>6.228141572607115</v>
+        <v>6.228141566496931</v>
       </c>
       <c r="D7">
-        <v>0.6640835425328542</v>
+        <v>0.6640835419677159</v>
       </c>
       <c r="E7">
-        <v>0.8329495130741946</v>
+        <v>0.8329495122581065</v>
       </c>
       <c r="F7">
-        <v>12.80552530734984</v>
+        <v>12.80552527565049</v>
       </c>
       <c r="G7">
-        <v>1.348170287603111</v>
+        <v>1.348170286614438</v>
       </c>
       <c r="H7">
-        <v>0.002040920497645712</v>
+        <v>0.002040920495625284</v>
       </c>
       <c r="I7">
-        <v>0.0001908085455908981</v>
+        <v>0.0001908085449359432</v>
       </c>
       <c r="J7">
-        <v>1.273275879095664</v>
+        <v>1.273275876079069</v>
       </c>
       <c r="K7">
-        <v>7.119922429174403</v>
+        <v>7.11992241597797</v>
       </c>
       <c r="L7">
-        <v>0.1261886550480399</v>
+        <v>0.1261886549075749</v>
       </c>
       <c r="M7">
-        <v>0.1229539491675384</v>
+        <v>0.1229539700533284</v>
       </c>
       <c r="N7">
-        <v>0.116450129021873</v>
+        <v>0.1164501284566907</v>
       </c>
       <c r="O7">
-        <v>1.446783583142312E-06</v>
+        <v>1.44678358302108E-06</v>
       </c>
       <c r="P7">
-        <v>0.01272392773648099</v>
+        <v>0.01272392773009228</v>
       </c>
       <c r="Q7">
-        <v>0.01684244664902132</v>
+        <v>0.01684244665835816</v>
       </c>
       <c r="R7">
-        <v>0.01720047725034896</v>
+        <v>0.0172004772595446</v>
       </c>
       <c r="S7">
-        <v>0.04159120082261682</v>
+        <v>0.04159120077197617</v>
       </c>
       <c r="T7">
-        <v>2.896670043496871E-08</v>
+        <v>2.8966700595444E-08</v>
       </c>
       <c r="U7">
-        <v>1.97329312780846E-05</v>
+        <v>1.973293125527227E-05</v>
       </c>
       <c r="V7">
-        <v>0.2827709686434461</v>
+        <v>0.2827709683644687</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -984,67 +984,67 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>0.0005067527282096669</v>
+        <v>0.0005067527265783215</v>
       </c>
       <c r="C8">
-        <v>0.2090725192533206</v>
+        <v>0.2090725190378787</v>
       </c>
       <c r="D8">
-        <v>0.01296366987378601</v>
+        <v>0.01296366979735368</v>
       </c>
       <c r="E8">
-        <v>0.0169043508449616</v>
+        <v>0.01690435074585101</v>
       </c>
       <c r="F8">
-        <v>0.5827243933757391</v>
+        <v>0.5827243863996926</v>
       </c>
       <c r="G8">
-        <v>0.05504801823490682</v>
+        <v>0.0550480181961582</v>
       </c>
       <c r="H8">
-        <v>0.0001737504523928795</v>
+        <v>0.0001737504522574416</v>
       </c>
       <c r="I8">
-        <v>1.504736312311378E-05</v>
+        <v>1.50473631150137E-05</v>
       </c>
       <c r="J8">
-        <v>0.01732092724519925</v>
+        <v>0.01732092707462835</v>
       </c>
       <c r="K8">
-        <v>0.3091297202707309</v>
+        <v>0.3091297191232442</v>
       </c>
       <c r="L8">
-        <v>0.06332676036466597</v>
+        <v>0.06332676035798097</v>
       </c>
       <c r="M8">
-        <v>0.04609386083651887</v>
+        <v>0.04609386004665057</v>
       </c>
       <c r="N8">
-        <v>0.001418518211422483</v>
+        <v>0.00141851818582861</v>
       </c>
       <c r="O8">
-        <v>2.385586352015112E-07</v>
+        <v>2.385586351326991E-07</v>
       </c>
       <c r="P8">
-        <v>0.0001724650767193037</v>
+        <v>0.0001724650759292911</v>
       </c>
       <c r="Q8">
-        <v>0.000421260804540785</v>
+        <v>0.0004212608030622992</v>
       </c>
       <c r="R8">
-        <v>0.0004307690406099819</v>
+        <v>0.0004307690391478064</v>
       </c>
       <c r="S8">
-        <v>0.003780097153348437</v>
+        <v>0.003780097151871998</v>
       </c>
       <c r="T8">
-        <v>1.291043738557842E-09</v>
+        <v>1.291043730175009E-09</v>
       </c>
       <c r="U8">
-        <v>4.398194587696227E-07</v>
+        <v>4.398194572405595E-07</v>
       </c>
       <c r="V8">
-        <v>0.01027810335363413</v>
+        <v>0.0102781033396074</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1052,67 +1052,67 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>0.006306595197059688</v>
+        <v>0.006306595197687785</v>
       </c>
       <c r="C9">
-        <v>2.38015720375096</v>
+        <v>2.380157202765164</v>
       </c>
       <c r="D9">
-        <v>0.0547791141247814</v>
+        <v>0.05477911407972314</v>
       </c>
       <c r="E9">
-        <v>0.07305765114569215</v>
+        <v>0.07305765108236013</v>
       </c>
       <c r="F9">
-        <v>5.040002988158442</v>
+        <v>5.040002984373195</v>
       </c>
       <c r="G9">
-        <v>1.712789188359483</v>
+        <v>1.712789188286776</v>
       </c>
       <c r="H9">
-        <v>0.0003918421509256423</v>
+        <v>0.000391842150544171</v>
       </c>
       <c r="I9">
-        <v>3.966915494041318E-05</v>
+        <v>3.966915490817966E-05</v>
       </c>
       <c r="J9">
-        <v>0.08680595802706614</v>
+        <v>0.08680595751371384</v>
       </c>
       <c r="K9">
-        <v>1.158757492757182</v>
+        <v>1.158757491625729</v>
       </c>
       <c r="L9">
-        <v>0.04720859105373538</v>
+        <v>0.04720859093680371</v>
       </c>
       <c r="M9">
-        <v>0.018602744206305</v>
+        <v>0.01860274894651312</v>
       </c>
       <c r="N9">
-        <v>0.01829509145229594</v>
+        <v>0.01829509139753515</v>
       </c>
       <c r="O9">
-        <v>2.736038112206235E-07</v>
+        <v>2.736038111125141E-07</v>
       </c>
       <c r="P9">
-        <v>0.00239419839904705</v>
+        <v>0.002394198399041736</v>
       </c>
       <c r="Q9">
-        <v>0.00493610933266747</v>
+        <v>0.00493610933719914</v>
       </c>
       <c r="R9">
-        <v>0.005285702304576173</v>
+        <v>0.005285702309159734</v>
       </c>
       <c r="S9">
-        <v>0.01750248384286059</v>
+        <v>0.01750248383549698</v>
       </c>
       <c r="T9">
-        <v>9.216778019576731E-09</v>
+        <v>9.216778059281246E-09</v>
       </c>
       <c r="U9">
-        <v>4.309033098967507E-06</v>
+        <v>4.309033096074361E-06</v>
       </c>
       <c r="V9">
-        <v>0.6779803128276011</v>
+        <v>0.6779803128286779</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1120,67 +1120,67 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>0.01200668464149265</v>
+        <v>0.01200668462027738</v>
       </c>
       <c r="C10">
-        <v>3.587522729513868</v>
+        <v>3.587522726159643</v>
       </c>
       <c r="D10">
-        <v>0.7517799111518846</v>
+        <v>0.7517799101317677</v>
       </c>
       <c r="E10">
-        <v>0.948171850756478</v>
+        <v>0.9481718494390069</v>
       </c>
       <c r="F10">
-        <v>38.2601187033333</v>
+        <v>38.26011860888764</v>
       </c>
       <c r="G10">
-        <v>0.9240500713374129</v>
+        <v>0.9240500706714952</v>
       </c>
       <c r="H10">
-        <v>0.003421065237141964</v>
+        <v>0.003421065235384253</v>
       </c>
       <c r="I10">
-        <v>0.001526492556802938</v>
+        <v>0.001526492556707988</v>
       </c>
       <c r="J10">
-        <v>0.3391495050539702</v>
+        <v>0.3391495029040211</v>
       </c>
       <c r="K10">
-        <v>10.44930739309672</v>
+        <v>10.44930737847902</v>
       </c>
       <c r="L10">
-        <v>0.9969391821350818</v>
+        <v>0.9969391820424468</v>
       </c>
       <c r="M10">
-        <v>0.7087070071202999</v>
+        <v>0.7087070622365208</v>
       </c>
       <c r="N10">
-        <v>0.04612453051754377</v>
+        <v>0.04612453017588659</v>
       </c>
       <c r="O10">
-        <v>4.133021394625751E-06</v>
+        <v>4.133021393548779E-06</v>
       </c>
       <c r="P10">
-        <v>0.004170293078843972</v>
+        <v>0.004170293067911974</v>
       </c>
       <c r="Q10">
-        <v>0.007611851929984925</v>
+        <v>0.007611851907354239</v>
       </c>
       <c r="R10">
-        <v>0.007803645726767817</v>
+        <v>0.007803645703984139</v>
       </c>
       <c r="S10">
-        <v>0.06400324017625825</v>
+        <v>0.0640032401583206</v>
       </c>
       <c r="T10">
-        <v>2.323403795499112E-08</v>
+        <v>2.323403842431257E-08</v>
       </c>
       <c r="U10">
-        <v>9.617355701567435E-06</v>
+        <v>9.617355681051716E-06</v>
       </c>
       <c r="V10">
-        <v>0.1875385873531575</v>
+        <v>0.1875385870939636</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1188,67 +1188,67 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>0.0001192919684712111</v>
+        <v>0.0001192919700898686</v>
       </c>
       <c r="C11">
-        <v>0.03489335477227</v>
+        <v>0.03489335575072344</v>
       </c>
       <c r="D11">
-        <v>0.001836189773818444</v>
+        <v>0.001836189773821789</v>
       </c>
       <c r="E11">
-        <v>0.002402179242597454</v>
+        <v>0.00240217923350569</v>
       </c>
       <c r="F11">
-        <v>0.1782432872961045</v>
+        <v>0.1782432743402899</v>
       </c>
       <c r="G11">
-        <v>0.009993759342148304</v>
+        <v>0.009993759498980225</v>
       </c>
       <c r="H11">
-        <v>1.08138184349319E-05</v>
+        <v>1.081381871859651E-05</v>
       </c>
       <c r="I11">
-        <v>1.174327131289286E-06</v>
+        <v>1.174327130030546E-06</v>
       </c>
       <c r="J11">
-        <v>0.001592590826129377</v>
+        <v>0.001592590760427303</v>
       </c>
       <c r="K11">
-        <v>0.04410852116162933</v>
+        <v>0.04410852306678977</v>
       </c>
       <c r="L11">
-        <v>0.002933591968323203</v>
+        <v>0.002933591804918866</v>
       </c>
       <c r="M11">
-        <v>0.02273871990876762</v>
+        <v>0.02273872235957349</v>
       </c>
       <c r="N11">
-        <v>0.000205584630974569</v>
+        <v>0.0002055846185675846</v>
       </c>
       <c r="O11">
-        <v>3.356010819074312E-08</v>
+        <v>3.356010788136836E-08</v>
       </c>
       <c r="P11">
-        <v>5.088114121685105E-05</v>
+        <v>5.088113954430603E-05</v>
       </c>
       <c r="Q11">
-        <v>0.0001264466312377507</v>
+        <v>0.0001264466204021292</v>
       </c>
       <c r="R11">
-        <v>0.0001309210629184239</v>
+        <v>0.0001309210523580008</v>
       </c>
       <c r="S11">
-        <v>0.0002357832975898002</v>
+        <v>0.0002357832650624663</v>
       </c>
       <c r="T11">
-        <v>3.523299588637592E-10</v>
+        <v>3.523299823823729E-10</v>
       </c>
       <c r="U11">
-        <v>8.038474655746025E-08</v>
+        <v>8.038474654277622E-08</v>
       </c>
       <c r="V11">
-        <v>0.003052920491925706</v>
+        <v>0.00305292051418702</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1256,67 +1256,67 @@
         <v>31</v>
       </c>
       <c r="B12">
-        <v>0.001225405707064747</v>
+        <v>0.00122540570356061</v>
       </c>
       <c r="C12">
-        <v>0.359657945082091</v>
+        <v>0.359657944436413</v>
       </c>
       <c r="D12">
-        <v>0.05932094496305134</v>
+        <v>0.05932094482067232</v>
       </c>
       <c r="E12">
-        <v>0.07687205166580575</v>
+        <v>0.07687205148113796</v>
       </c>
       <c r="F12">
-        <v>2.640015100966622</v>
+        <v>2.640015088254235</v>
       </c>
       <c r="G12">
-        <v>0.0987572903428435</v>
+        <v>0.09875729024126109</v>
       </c>
       <c r="H12">
-        <v>0.0009673518949674804</v>
+        <v>0.0009673518946594111</v>
       </c>
       <c r="I12">
-        <v>8.656566017478403E-05</v>
+        <v>8.656566014964393E-05</v>
       </c>
       <c r="J12">
-        <v>0.07228534511882162</v>
+        <v>0.07228534479620363</v>
       </c>
       <c r="K12">
-        <v>1.09290056445386</v>
+        <v>1.09290056224655</v>
       </c>
       <c r="L12">
-        <v>0.1123189371184071</v>
+        <v>0.1123189370988883</v>
       </c>
       <c r="M12">
-        <v>0.02702354843021461</v>
+        <v>0.02702355100424452</v>
       </c>
       <c r="N12">
-        <v>0.01416301069566175</v>
+        <v>0.01416301065472757</v>
       </c>
       <c r="O12">
-        <v>2.224222903833092E-07</v>
+        <v>2.224222901668594E-07</v>
       </c>
       <c r="P12">
-        <v>0.0005965247568344833</v>
+        <v>0.0005965247551144596</v>
       </c>
       <c r="Q12">
-        <v>0.000718250745075739</v>
+        <v>0.0007182507420300283</v>
       </c>
       <c r="R12">
-        <v>0.0007490662202997359</v>
+        <v>0.0007490662172753312</v>
       </c>
       <c r="S12">
-        <v>0.00463649392480675</v>
+        <v>0.004636493920879473</v>
       </c>
       <c r="T12">
-        <v>2.331504870639181E-09</v>
+        <v>2.331504890077585E-09</v>
       </c>
       <c r="U12">
-        <v>1.20986310106564E-06</v>
+        <v>1.209863097799304E-06</v>
       </c>
       <c r="V12">
-        <v>0.02856605707557902</v>
+        <v>0.02856605704612945</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1324,67 +1324,67 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <v>0.001869212846302972</v>
+        <v>0.001869212838746179</v>
       </c>
       <c r="C13">
-        <v>0.6965421684949183</v>
+        <v>0.696542167473527</v>
       </c>
       <c r="D13">
-        <v>0.171668786528674</v>
+        <v>0.171668786256561</v>
       </c>
       <c r="E13">
-        <v>0.2232934964135504</v>
+        <v>0.2232934960608934</v>
       </c>
       <c r="F13">
-        <v>3.13553482363095</v>
+        <v>3.135534798908076</v>
       </c>
       <c r="G13">
-        <v>0.1795536530115778</v>
+        <v>0.1795536528328794</v>
       </c>
       <c r="H13">
-        <v>0.0003900018558833541</v>
+        <v>0.0003900018554048963</v>
       </c>
       <c r="I13">
-        <v>0.0001705794596749004</v>
+        <v>0.0001705794596364745</v>
       </c>
       <c r="J13">
-        <v>0.07681677691939638</v>
+        <v>0.07681677642899333</v>
       </c>
       <c r="K13">
-        <v>3.21734009951751</v>
+        <v>3.217340095394791</v>
       </c>
       <c r="L13">
-        <v>0.2073902808323366</v>
+        <v>0.2073902808104794</v>
       </c>
       <c r="M13">
-        <v>0.02327111929514906</v>
+        <v>0.02327113244859461</v>
       </c>
       <c r="N13">
-        <v>0.01145431806072073</v>
+        <v>0.01145431800340668</v>
       </c>
       <c r="O13">
-        <v>3.532375317389339E-07</v>
+        <v>3.532375313463961E-07</v>
       </c>
       <c r="P13">
-        <v>0.0007945728211815896</v>
+        <v>0.0007945728175789276</v>
       </c>
       <c r="Q13">
-        <v>0.001220735386062791</v>
+        <v>0.001220735378331307</v>
       </c>
       <c r="R13">
-        <v>0.001280357520980437</v>
+        <v>0.001280357513305215</v>
       </c>
       <c r="S13">
-        <v>0.006508604828889924</v>
+        <v>0.006508604823618777</v>
       </c>
       <c r="T13">
-        <v>3.15813294777559E-09</v>
+        <v>3.158133058254658E-09</v>
       </c>
       <c r="U13">
-        <v>2.152020190013805E-06</v>
+        <v>2.152020184214255E-06</v>
       </c>
       <c r="V13">
-        <v>0.0504135696015955</v>
+        <v>0.05041356954441887</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1392,67 +1392,67 @@
         <v>33</v>
       </c>
       <c r="B14">
-        <v>0.001472942999896799</v>
+        <v>0.001472942997295619</v>
       </c>
       <c r="C14">
-        <v>0.4466072788904686</v>
+        <v>0.4466072784335495</v>
       </c>
       <c r="D14">
-        <v>0.06155751432060498</v>
+        <v>0.0615575141326573</v>
       </c>
       <c r="E14">
-        <v>0.0807011590800522</v>
+        <v>0.08070115883569895</v>
       </c>
       <c r="F14">
-        <v>4.132012606788162</v>
+        <v>4.132012590288576</v>
       </c>
       <c r="G14">
-        <v>0.1258351164916753</v>
+        <v>0.1258351164516784</v>
       </c>
       <c r="H14">
-        <v>0.0009776637228651893</v>
+        <v>0.0009776637225149597</v>
       </c>
       <c r="I14">
-        <v>8.922304058533279E-05</v>
+        <v>8.922304057395921E-05</v>
       </c>
       <c r="J14">
-        <v>0.07847888137855855</v>
+        <v>0.07847888103915723</v>
       </c>
       <c r="K14">
-        <v>1.160180611673128</v>
+        <v>1.160180609005851</v>
       </c>
       <c r="L14">
-        <v>0.1157339812474318</v>
+        <v>0.1157339812206752</v>
       </c>
       <c r="M14">
-        <v>0.03126212650696931</v>
+        <v>0.03126212225706422</v>
       </c>
       <c r="N14">
-        <v>0.01528681911692432</v>
+        <v>0.01528681907713823</v>
       </c>
       <c r="O14">
-        <v>2.44363752345104E-07</v>
+        <v>2.443637521975758E-07</v>
       </c>
       <c r="P14">
-        <v>0.0007059254839059182</v>
+        <v>0.0007059254825229377</v>
       </c>
       <c r="Q14">
-        <v>0.001177076016940907</v>
+        <v>0.00117707601533783</v>
       </c>
       <c r="R14">
-        <v>0.001227076923247848</v>
+        <v>0.001227076921739204</v>
       </c>
       <c r="S14">
-        <v>0.004837600092023953</v>
+        <v>0.004837600088442086</v>
       </c>
       <c r="T14">
-        <v>2.7526474476876E-09</v>
+        <v>2.752647407358194E-09</v>
       </c>
       <c r="U14">
-        <v>1.396139536265432E-06</v>
+        <v>1.396139533227819E-06</v>
       </c>
       <c r="V14">
-        <v>0.03991212828671442</v>
+        <v>0.03991212828362969</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1460,67 +1460,67 @@
         <v>34</v>
       </c>
       <c r="B15">
-        <v>0.02014800575085809</v>
+        <v>0.02014800572352735</v>
       </c>
       <c r="C15">
-        <v>5.412138769641842</v>
+        <v>5.412138760771698</v>
       </c>
       <c r="D15">
-        <v>0.4790003116759409</v>
+        <v>0.4790003105383865</v>
       </c>
       <c r="E15">
-        <v>0.6937658283710153</v>
+        <v>0.6937658268515854</v>
       </c>
       <c r="F15">
-        <v>162.4692170152318</v>
+        <v>162.4692169261429</v>
       </c>
       <c r="G15">
-        <v>1.263840859948373</v>
+        <v>1.263840858885687</v>
       </c>
       <c r="H15">
-        <v>0.001859832182917046</v>
+        <v>0.001859832179075543</v>
       </c>
       <c r="I15">
-        <v>0.0002025503367142516</v>
+        <v>0.0002025503361926695</v>
       </c>
       <c r="J15">
-        <v>8.707422220071429</v>
+        <v>8.707422216012249</v>
       </c>
       <c r="K15">
-        <v>7.323945495338215</v>
+        <v>7.323945474281826</v>
       </c>
       <c r="L15">
-        <v>0.3025761826305667</v>
+        <v>0.3025761819895285</v>
       </c>
       <c r="M15">
-        <v>0.1830157204854681</v>
+        <v>0.1830157488749169</v>
       </c>
       <c r="N15">
-        <v>0.533213164260628</v>
+        <v>0.5332131639159629</v>
       </c>
       <c r="O15">
-        <v>1.424550610561326E-06</v>
+        <v>1.424550608638286E-06</v>
       </c>
       <c r="P15">
-        <v>0.01872213750616109</v>
+        <v>0.01872213749563136</v>
       </c>
       <c r="Q15">
-        <v>0.01372950679172742</v>
+        <v>0.0137295067906878</v>
       </c>
       <c r="R15">
-        <v>0.01433350493560152</v>
+        <v>0.01433350493494154</v>
       </c>
       <c r="S15">
-        <v>0.04030595578400933</v>
+        <v>0.04030595572582887</v>
       </c>
       <c r="T15">
-        <v>2.640655743116787E-08</v>
+        <v>2.640655764791699E-08</v>
       </c>
       <c r="U15">
-        <v>4.747736597490065E-05</v>
+        <v>4.747736594163976E-05</v>
       </c>
       <c r="V15">
-        <v>0.3970950246111924</v>
+        <v>0.3970950244115963</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1528,67 +1528,67 @@
         <v>35</v>
       </c>
       <c r="B16">
-        <v>0.001354589648208326</v>
+        <v>0.001354589642934164</v>
       </c>
       <c r="C16">
-        <v>0.5250824041343829</v>
+        <v>0.5250824030806034</v>
       </c>
       <c r="D16">
-        <v>0.1290970868494521</v>
+        <v>0.1290970867956406</v>
       </c>
       <c r="E16">
-        <v>0.1886619137488534</v>
+        <v>0.1886619136711571</v>
       </c>
       <c r="F16">
-        <v>1.215319047439789</v>
+        <v>1.215319044060514</v>
       </c>
       <c r="G16">
-        <v>0.1195787874209231</v>
+        <v>0.119578787116214</v>
       </c>
       <c r="H16">
-        <v>0.00032637940307945</v>
+        <v>0.0003263794030130851</v>
       </c>
       <c r="I16">
-        <v>2.826348782646607E-05</v>
+        <v>2.826348779110402E-05</v>
       </c>
       <c r="J16">
-        <v>7.526053583543959</v>
+        <v>7.526053583392167</v>
       </c>
       <c r="K16">
-        <v>0.8990834724588607</v>
+        <v>0.8990834712882192</v>
       </c>
       <c r="L16">
-        <v>0.169615578836549</v>
+        <v>0.1696155789132453</v>
       </c>
       <c r="M16">
-        <v>0.01479426198929931</v>
+        <v>0.01479426245328848</v>
       </c>
       <c r="N16">
-        <v>0.02932617078704129</v>
+        <v>0.02932617078667118</v>
       </c>
       <c r="O16">
-        <v>1.727342063030076E-07</v>
+        <v>1.727342061036463E-07</v>
       </c>
       <c r="P16">
-        <v>0.0005579309175138098</v>
+        <v>0.00055793091536517</v>
       </c>
       <c r="Q16">
-        <v>0.0009521020703669474</v>
+        <v>0.0009521020622767996</v>
       </c>
       <c r="R16">
-        <v>0.0009960458556011447</v>
+        <v>0.0009960458471038331</v>
       </c>
       <c r="S16">
-        <v>0.009474427311568032</v>
+        <v>0.009474427313574518</v>
       </c>
       <c r="T16">
-        <v>2.359429830586301E-09</v>
+        <v>2.359429829411288E-09</v>
       </c>
       <c r="U16">
-        <v>2.605191251401942E-05</v>
+        <v>2.605191251091735E-05</v>
       </c>
       <c r="V16">
-        <v>0.03630745624072207</v>
+        <v>0.036307456119819</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1596,67 +1596,67 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>-0.006490748646964205</v>
+        <v>-0.006490748641105247</v>
       </c>
       <c r="C17">
-        <v>-0.5144198864942267</v>
+        <v>-0.5144198851090218</v>
       </c>
       <c r="D17">
-        <v>-0.5126269713888563</v>
+        <v>-0.5126269712193503</v>
       </c>
       <c r="E17">
-        <v>-0.6554899401805657</v>
+        <v>-0.6554899399566014</v>
       </c>
       <c r="F17">
-        <v>-44.95788830647352</v>
+        <v>-44.95788829050912</v>
       </c>
       <c r="G17">
-        <v>-0.1431501691382713</v>
+        <v>-0.1431501688657187</v>
       </c>
       <c r="H17">
-        <v>-0.0007222434616404957</v>
+        <v>-0.0007222434612021086</v>
       </c>
       <c r="I17">
-        <v>-2.227253927315073E-05</v>
+        <v>-2.227253922205622E-05</v>
       </c>
       <c r="J17">
-        <v>-0.07328942910930242</v>
+        <v>-0.0732894285240432</v>
       </c>
       <c r="K17">
-        <v>-7.492091898357436</v>
+        <v>-7.492091895493409</v>
       </c>
       <c r="L17">
-        <v>-0.05105694532536151</v>
+        <v>-0.05105694526744915</v>
       </c>
       <c r="M17">
-        <v>-0.03497458463221933</v>
+        <v>-0.0349745843998394</v>
       </c>
       <c r="N17">
-        <v>-0.02634864193161362</v>
+        <v>-0.0263486418620539</v>
       </c>
       <c r="O17">
-        <v>-2.485598651831844E-07</v>
+        <v>-2.485598647725996E-07</v>
       </c>
       <c r="P17">
-        <v>-0.002256762919672099</v>
+        <v>-0.002256762916732216</v>
       </c>
       <c r="Q17">
-        <v>-0.001651215644375298</v>
+        <v>-0.001651215638366287</v>
       </c>
       <c r="R17">
-        <v>-0.001720588461083954</v>
+        <v>-0.001720588454903057</v>
       </c>
       <c r="S17">
-        <v>-0.004639160326034245</v>
+        <v>-0.004639160318591913</v>
       </c>
       <c r="T17">
-        <v>-4.769793956858727E-09</v>
+        <v>-4.769793948260754E-09</v>
       </c>
       <c r="U17">
-        <v>-3.858391502201901E-06</v>
+        <v>-3.858391496449791E-06</v>
       </c>
       <c r="V17">
-        <v>-0.04691174385070163</v>
+        <v>-0.04691174375512658</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1664,67 +1664,67 @@
         <v>37</v>
       </c>
       <c r="B18">
-        <v>-0.01476381661553083</v>
+        <v>-0.01476381659263245</v>
       </c>
       <c r="C18">
-        <v>-4.903203670246965</v>
+        <v>-4.903203659198161</v>
       </c>
       <c r="D18">
-        <v>-0.1583765914901757</v>
+        <v>-0.1583765906890068</v>
       </c>
       <c r="E18">
-        <v>-0.2084479537057494</v>
+        <v>-0.2084479526219299</v>
       </c>
       <c r="F18">
-        <v>-11.5839806094824</v>
+        <v>-11.5839805471294</v>
       </c>
       <c r="G18">
-        <v>-1.331877465993844</v>
+        <v>-1.331877464596763</v>
       </c>
       <c r="H18">
-        <v>-0.001881148543693356</v>
+        <v>-0.001881148540473385</v>
       </c>
       <c r="I18">
-        <v>-0.0006427168248259958</v>
+        <v>-0.0006427168244874798</v>
       </c>
       <c r="J18">
-        <v>-0.2269239351178872</v>
+        <v>-0.2269239308717195</v>
       </c>
       <c r="K18">
-        <v>-5.258885304457362</v>
+        <v>-5.258885288121896</v>
       </c>
       <c r="L18">
-        <v>-0.3174956906711384</v>
+        <v>-0.3174956900104874</v>
       </c>
       <c r="M18">
-        <v>-1.228873456217811</v>
+        <v>-1.228873517110898</v>
       </c>
       <c r="N18">
-        <v>-0.1589738814657723</v>
+        <v>-0.1589738809279496</v>
       </c>
       <c r="O18">
-        <v>-2.487533038350954E-06</v>
+        <v>-2.487533035772388E-06</v>
       </c>
       <c r="P18">
-        <v>-0.008076954585642556</v>
+        <v>-0.008076954572195951</v>
       </c>
       <c r="Q18">
-        <v>-0.0110091046873003</v>
+        <v>-0.0110091046794816</v>
       </c>
       <c r="R18">
-        <v>-0.01141428100095609</v>
+        <v>-0.0114142809932327</v>
       </c>
       <c r="S18">
-        <v>-0.05179452566432472</v>
+        <v>-0.0517945256214831</v>
       </c>
       <c r="T18">
-        <v>-3.075812151748456E-08</v>
+        <v>-3.075812201768619E-08</v>
       </c>
       <c r="U18">
-        <v>-1.170814561392106E-05</v>
+        <v>-1.170814557728717E-05</v>
       </c>
       <c r="V18">
-        <v>-0.3912364807039946</v>
+        <v>-0.3912364803646267</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1732,67 +1732,67 @@
         <v>38</v>
       </c>
       <c r="B19">
-        <v>-0.000271654631429505</v>
+        <v>-0.000271654629726902</v>
       </c>
       <c r="C19">
-        <v>-2.37298474226637</v>
+        <v>-2.372984742136344</v>
       </c>
       <c r="D19">
-        <v>-0.1201199388588396</v>
+        <v>-0.1201199387194495</v>
       </c>
       <c r="E19">
-        <v>-0.1599610759801214</v>
+        <v>-0.1599610757982978</v>
       </c>
       <c r="F19">
-        <v>-1.265781181251217</v>
+        <v>-1.265781169163914</v>
       </c>
       <c r="G19">
-        <v>-0.007903463746588305</v>
+        <v>-0.007903463762234662</v>
       </c>
       <c r="H19">
-        <v>-5.236323857286842E-06</v>
+        <v>-5.236323598335132E-06</v>
       </c>
       <c r="I19">
-        <v>-2.14568390367407E-05</v>
+        <v>-2.145683902177732E-05</v>
       </c>
       <c r="J19">
-        <v>-0.02399118922430788</v>
+        <v>-0.02399118898202643</v>
       </c>
       <c r="K19">
-        <v>-2.34994698222121</v>
+        <v>-2.349946979892747</v>
       </c>
       <c r="L19">
-        <v>-0.001044696103874601</v>
+        <v>-0.001044696084608367</v>
       </c>
       <c r="M19">
-        <v>-0.0005566578131285625</v>
+        <v>-0.0005566565772089143</v>
       </c>
       <c r="N19">
-        <v>-0.001265723075485285</v>
+        <v>-0.001265723026092861</v>
       </c>
       <c r="O19">
-        <v>-1.017244140343621E-06</v>
+        <v>-1.017244140362785E-06</v>
       </c>
       <c r="P19">
-        <v>-9.178312287660067E-05</v>
+        <v>-9.17831223623519E-05</v>
       </c>
       <c r="Q19">
-        <v>-0.0006027119571730201</v>
+        <v>-0.0006027119586103621</v>
       </c>
       <c r="R19">
-        <v>-0.0006068256767138338</v>
+        <v>-0.0006068256782838844</v>
       </c>
       <c r="S19">
-        <v>-0.003723410331767502</v>
+        <v>-0.003723410328349462</v>
       </c>
       <c r="T19">
-        <v>-6.903281031075727E-09</v>
+        <v>-6.903281019155259E-09</v>
       </c>
       <c r="U19">
-        <v>-2.88495637546611E-06</v>
+        <v>-2.884956373681017E-06</v>
       </c>
       <c r="V19">
-        <v>-0.002983724402847853</v>
+        <v>-0.002983724417117323</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1800,67 +1800,67 @@
         <v>39</v>
       </c>
       <c r="B20">
-        <v>-0.0001933859996999687</v>
+        <v>-0.0001933859991647101</v>
       </c>
       <c r="C20">
-        <v>-3.020426940058417</v>
+        <v>-3.020426940049556</v>
       </c>
       <c r="D20">
-        <v>-0.1585863091133994</v>
+        <v>-0.1585863090478561</v>
       </c>
       <c r="E20">
-        <v>-0.2296331744372331</v>
+        <v>-0.2296331743512416</v>
       </c>
       <c r="F20">
-        <v>-8.833295458579006</v>
+        <v>-8.833295452968951</v>
       </c>
       <c r="G20">
-        <v>-0.005003262065522243</v>
+        <v>-0.005003262093114018</v>
       </c>
       <c r="H20">
-        <v>-2.655623129119431E-06</v>
+        <v>-2.655622998348592E-06</v>
       </c>
       <c r="I20">
-        <v>-4.732000227715966E-06</v>
+        <v>-4.732000220481008E-06</v>
       </c>
       <c r="J20">
-        <v>-0.009831377243927323</v>
+        <v>-0.009831377109093384</v>
       </c>
       <c r="K20">
-        <v>-1.917643191844702</v>
+        <v>-1.917643190705643</v>
       </c>
       <c r="L20">
-        <v>-0.0004283465484905571</v>
+        <v>-0.0004283465381538102</v>
       </c>
       <c r="M20">
-        <v>-0.0003125674027287455</v>
+        <v>-0.0003125663553791475</v>
       </c>
       <c r="N20">
-        <v>-0.0006251338101311141</v>
+        <v>-0.0006251337827682523</v>
       </c>
       <c r="O20">
-        <v>-2.204923860709474E-07</v>
+        <v>-2.204923861109641E-07</v>
       </c>
       <c r="P20">
-        <v>-6.373949506415626E-05</v>
+        <v>-6.37394949739564E-05</v>
       </c>
       <c r="Q20">
-        <v>-0.0004646641370429013</v>
+        <v>-0.0004646641385212982</v>
       </c>
       <c r="R20">
-        <v>-0.0004671485264207166</v>
+        <v>-0.0004671485279932112</v>
       </c>
       <c r="S20">
-        <v>-0.001527600901865622</v>
+        <v>-0.001527600899968496</v>
       </c>
       <c r="T20">
-        <v>-8.798283385952238E-09</v>
+        <v>-8.798283376513761E-09</v>
       </c>
       <c r="U20">
-        <v>-3.317026254100433E-06</v>
+        <v>-3.317026253325523E-06</v>
       </c>
       <c r="V20">
-        <v>-0.001836593944920299</v>
+        <v>-0.00183659396117035</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1868,67 +1868,67 @@
         <v>40</v>
       </c>
       <c r="B21">
-        <v>-0.0001646121342466549</v>
+        <v>-0.0001646121340307329</v>
       </c>
       <c r="C21">
-        <v>-2.551055180217032</v>
+        <v>-2.551055180243712</v>
       </c>
       <c r="D21">
-        <v>-0.1339373211411067</v>
+        <v>-0.1339373210895317</v>
       </c>
       <c r="E21">
-        <v>-0.1939394979793798</v>
+        <v>-0.1939394979122003</v>
       </c>
       <c r="F21">
-        <v>-7.460966741711091</v>
+        <v>-7.460966737683603</v>
       </c>
       <c r="G21">
-        <v>-0.004357871427623806</v>
+        <v>-0.004357871458868536</v>
       </c>
       <c r="H21">
-        <v>-2.414201180407384E-06</v>
+        <v>-2.414201087753502E-06</v>
       </c>
       <c r="I21">
-        <v>-4.015526162676491E-06</v>
+        <v>-4.015526158605807E-06</v>
       </c>
       <c r="J21">
-        <v>-0.008600984634478935</v>
+        <v>-0.008600984542190481</v>
       </c>
       <c r="K21">
-        <v>-1.619602097036889</v>
+        <v>-1.619602096190795</v>
       </c>
       <c r="L21">
-        <v>-0.0003773715989557769</v>
+        <v>-0.000377371591432118</v>
       </c>
       <c r="M21">
-        <v>-0.0002772560084502824</v>
+        <v>-0.0002772557042607255</v>
       </c>
       <c r="N21">
-        <v>-0.0005834808059301301</v>
+        <v>-0.0005834807857269011</v>
       </c>
       <c r="O21">
-        <v>-1.862772743108963E-07</v>
+        <v>-1.862772743588409E-07</v>
       </c>
       <c r="P21">
-        <v>-5.554319294763976E-05</v>
+        <v>-5.554319297600027E-05</v>
       </c>
       <c r="Q21">
-        <v>-0.0003938720980763101</v>
+        <v>-0.0003938720994968044</v>
       </c>
       <c r="R21">
-        <v>-0.0003961234652271663</v>
+        <v>-0.0003961234667304011</v>
       </c>
       <c r="S21">
-        <v>-0.001449330895532325</v>
+        <v>-0.001449330894238067</v>
       </c>
       <c r="T21">
-        <v>-7.431743794914819E-09</v>
+        <v>-7.43174379228667E-09</v>
       </c>
       <c r="U21">
-        <v>-2.803970328137808E-06</v>
+        <v>-2.803970327679699E-06</v>
       </c>
       <c r="V21">
-        <v>-0.001600392018095094</v>
+        <v>-0.001600392034437112</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1936,67 +1936,67 @@
         <v>41</v>
       </c>
       <c r="B22">
-        <v>-0.001398397523683161</v>
+        <v>-0.001398397522873969</v>
       </c>
       <c r="C22">
-        <v>-0.7567638416664285</v>
+        <v>-0.7567638416515339</v>
       </c>
       <c r="D22">
-        <v>-0.0183391545075601</v>
+        <v>-0.01833915440054425</v>
       </c>
       <c r="E22">
-        <v>-0.02434508582427817</v>
+        <v>-0.02434508568409309</v>
       </c>
       <c r="F22">
-        <v>-0.1475126934378189</v>
+        <v>-0.1475126844878049</v>
       </c>
       <c r="G22">
-        <v>-0.02691727564995615</v>
+        <v>-0.02691727569690762</v>
       </c>
       <c r="H22">
-        <v>-9.761801719536103E-06</v>
+        <v>-9.761801504061304E-06</v>
       </c>
       <c r="I22">
-        <v>-0.0002333030140363916</v>
+        <v>-0.0002333030140257117</v>
       </c>
       <c r="J22">
-        <v>-0.006488513459913423</v>
+        <v>-0.006488513224640965</v>
       </c>
       <c r="K22">
-        <v>-0.4347469305292181</v>
+        <v>-0.4347469287160433</v>
       </c>
       <c r="L22">
-        <v>-0.001827150900525922</v>
+        <v>-0.001827150871496903</v>
       </c>
       <c r="M22">
-        <v>-0.0007984164399273361</v>
+        <v>-0.0007984175007248292</v>
       </c>
       <c r="N22">
-        <v>-0.002098155665873459</v>
+        <v>-0.002098155622844444</v>
       </c>
       <c r="O22">
-        <v>-1.167375885220737E-05</v>
+        <v>-1.167375885226654E-05</v>
       </c>
       <c r="P22">
-        <v>-0.0004388303656122347</v>
+        <v>-0.0004388303654517169</v>
       </c>
       <c r="Q22">
-        <v>-0.00315833463637916</v>
+        <v>-0.003158334638774097</v>
       </c>
       <c r="R22">
-        <v>-0.003169012237003845</v>
+        <v>-0.003169012239565658</v>
       </c>
       <c r="S22">
-        <v>-0.002121979953500192</v>
+        <v>-0.002121979950458148</v>
       </c>
       <c r="T22">
-        <v>-2.854795894868185E-09</v>
+        <v>-2.854795904066504E-09</v>
       </c>
       <c r="U22">
-        <v>-1.113230892604066E-06</v>
+        <v>-1.113230891290512E-06</v>
       </c>
       <c r="V22">
-        <v>-0.009696642493480671</v>
+        <v>-0.009696642521967034</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -2004,67 +2004,67 @@
         <v>42</v>
       </c>
       <c r="B23">
-        <v>0.0001010172624413429</v>
+        <v>8.647707810808581E-05</v>
       </c>
       <c r="C23">
-        <v>0.01972400231716274</v>
+        <v>0.0145346046184923</v>
       </c>
       <c r="D23">
-        <v>0.0008658827728534651</v>
+        <v>0.0007345287581517607</v>
       </c>
       <c r="E23">
-        <v>0.0009070980882871871</v>
+        <v>0.0007325497038723701</v>
       </c>
       <c r="F23">
-        <v>0.05111373252076531</v>
+        <v>0.03788778223973529</v>
       </c>
       <c r="G23">
-        <v>0.01056853539929978</v>
+        <v>0.007070744580970584</v>
       </c>
       <c r="H23">
-        <v>8.144369994208369E-06</v>
+        <v>7.209504064330418E-06</v>
       </c>
       <c r="I23">
-        <v>4.374902194061818E-05</v>
+        <v>4.369187390719374E-05</v>
       </c>
       <c r="J23">
-        <v>0.0007834467865369193</v>
+        <v>0.0006108436395644063</v>
       </c>
       <c r="K23">
-        <v>0.01673915749824312</v>
+        <v>0.01432699548917109</v>
       </c>
       <c r="L23">
-        <v>0.000867458374762874</v>
+        <v>0.0007047534507239309</v>
       </c>
       <c r="M23">
-        <v>0.006240605807991459</v>
+        <v>0.006195284443627402</v>
       </c>
       <c r="N23">
-        <v>0.0001188649506342946</v>
+        <v>9.552974064797452E-05</v>
       </c>
       <c r="O23">
-        <v>5.314593433066784E-08</v>
+        <v>5.275313374766966E-08</v>
       </c>
       <c r="P23">
-        <v>2.794997518718457E-05</v>
+        <v>2.305427362684212E-05</v>
       </c>
       <c r="Q23">
-        <v>0.0005261972542679431</v>
+        <v>0.0002612714677846617</v>
       </c>
       <c r="R23">
-        <v>0.0008229523499859586</v>
+        <v>0.0004000859844692929</v>
       </c>
       <c r="S23">
-        <v>0.004649165179544731</v>
+        <v>0.004606923573205335</v>
       </c>
       <c r="T23">
-        <v>2.449692566921191E-10</v>
+        <v>1.714875546229587E-10</v>
       </c>
       <c r="U23">
-        <v>5.312473474680594E-08</v>
+        <v>4.377513693233849E-08</v>
       </c>
       <c r="V23">
-        <v>0.004080006796476822</v>
+        <v>0.002659063204351447</v>
       </c>
     </row>
   </sheetData>
